--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -599,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1800,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016005801</v>
+        <v>2013003176</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1906,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014002384</v>
+        <v>2014002773</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1921,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1944,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2015000739</v>
+        <v>2012005272</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1959,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1982,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016009185</v>
+        <v>2012001919</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -2020,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2012007287</v>
+        <v>2016007942</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2035,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -2058,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2013004067</v>
+        <v>2015001054</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2073,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2096,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2012006715</v>
+        <v>2013009361</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2111,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2134,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012008796</v>
+        <v>2012009193</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2149,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2172,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2013002164</v>
+        <v>2014000580</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2187,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2210,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2015008047</v>
+        <v>2015008554</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2225,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2248,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2012004319</v>
+        <v>2012007687</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2285,7 +2217,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2303,7 +2235,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2335,50 +2267,50 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016005801</v>
+        <v>2013003176</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>4.75</v>
+        <v>73.45503358327787</v>
       </c>
       <c r="E2" t="n">
-        <v>39.45725676476072</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014002384</v>
+        <v>2014002773</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>47.7851093956624</v>
+        <v>19.6225952</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2015000739</v>
+        <v>2014002773</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>21.15468688</v>
+        <v>23.4528244</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
@@ -2386,67 +2318,67 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2015000739</v>
+        <v>2012005272</v>
       </c>
       <c r="B5" t="n">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4528244</v>
+        <v>73.06879198327788</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2016009185</v>
+        <v>2012005272</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>18.58296155824405</v>
+        <v>73.84127520000001</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2012007287</v>
+        <v>2012001919</v>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0243006605412</v>
+        <v>19.13013715824406</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013004067</v>
+        <v>2016007942</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D8" t="n">
-        <v>22.3584732</v>
+        <v>21.81129759824406</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -2454,33 +2386,33 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012006715</v>
+        <v>2015001054</v>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>70.36510078327788</v>
+        <v>26.67832223446736</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>27.31401034908833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2012008796</v>
+        <v>2015001054</v>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D10" t="n">
-        <v>24.823718824</v>
+        <v>29.16958056</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -2488,74 +2420,88 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2013002164</v>
+        <v>2013009361</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D11" t="n">
-        <v>53.70748059566242</v>
+        <v>38.90564826054121</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015008047</v>
+        <v>2012009193</v>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D12" t="n">
-        <v>51.8567395956624</v>
+        <v>49.2093752956624</v>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>59.57911535343231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2012004319</v>
+        <v>2014000580</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D13" t="n">
-        <v>68.04765118327789</v>
+        <v>20.1697708</v>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2012004319</v>
+        <v>2015008554</v>
       </c>
       <c r="B14" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
+        <v>120</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.775</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29.99999999446736</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>2012007687</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
         <v>114</v>
       </c>
-      <c r="D14" t="n">
-        <v>74.61375840000001</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D15" t="n">
+        <v>65.73020158327789</v>
+      </c>
+      <c r="E15" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n"/>
@@ -2600,7 +2546,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2618,8 +2564,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5520,7 +5466,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5595,7 +5541,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5681,7 +5627,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5792,7 +5738,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5838,7 +5784,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6157,7 +6103,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6175,10 +6121,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6199,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>23.05899053610834</v>
+        <v>22.28175943368247</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6208,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>20.97064156632106</v>
+        <v>23.78059934811782</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6217,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>23.34543375676391</v>
+        <v>22.5233492847372</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6226,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>21.55429828774646</v>
+        <v>21.17120209394658</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6235,7 +6181,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>22.26374822190216</v>
+        <v>22.6300096360719</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6244,7 +6190,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>21.42806688083235</v>
+        <v>21.62864956523341</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6253,7 +6199,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>21.29098442434825</v>
+        <v>23.25893931699729</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6262,7 +6208,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>20.99690647024667</v>
+        <v>21.66407137575211</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6271,7 +6217,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>20.62430006471722</v>
+        <v>22.63061827985189</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6280,7 +6226,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>20.87128373597051</v>
+        <v>21.98312484402894</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6289,7 +6235,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>20.24125731929254</v>
+        <v>19.81071665551699</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6298,7 +6244,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>21.37899038350591</v>
+        <v>22.16312171154992</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6307,7 +6253,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>20.14008613682577</v>
+        <v>21.84024128018825</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6316,7 +6262,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>21.76026374298439</v>
+        <v>20.08036557243062</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6325,7 +6271,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>20.48792185037651</v>
+        <v>21.80533267180772</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6334,7 +6280,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>19.2476730797523</v>
+        <v>20.74773241471037</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6343,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>20.39863063015129</v>
+        <v>20.83650941463366</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6352,7 +6298,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>17.12588377836131</v>
+        <v>20.56047179433949</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6361,7 +6307,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>13.20582982927727</v>
+        <v>20.40114074605642</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6370,7 +6316,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>15.3783286009042</v>
+        <v>19.77615720297019</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6379,7 +6325,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>15.80016848284512</v>
+        <v>20.3700949461788</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6388,7 +6334,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>17.5963041634079</v>
+        <v>21.17384216622752</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6397,7 +6343,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>14.83768524053942</v>
+        <v>20.88890969164161</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6406,7 +6352,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>15.33869712638677</v>
+        <v>17.94491637651738</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6415,7 +6361,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>14.16104847723375</v>
+        <v>19.00297756184419</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6424,7 +6370,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>13.30244674949161</v>
+        <v>19.18017360682293</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6433,7 +6379,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>12.43676391992542</v>
+        <v>19.96360606591713</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6442,7 +6388,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>13.93645688518043</v>
+        <v>17.73174466666912</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6451,7 +6397,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>14.90404982665456</v>
+        <v>16.04746721105684</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6460,7 +6406,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>15.24025009008337</v>
+        <v>17.12420902291101</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6469,7 +6415,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>15.55228605237144</v>
+        <v>16.11937706312535</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6478,7 +6424,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>14.22112412592973</v>
+        <v>17.66736576434601</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6487,7 +6433,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>15.10977771304348</v>
+        <v>18.09118695687029</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6496,7 +6442,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>15.45000785382104</v>
+        <v>18.44555392107115</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6505,7 +6451,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>15.21688172413066</v>
+        <v>19.1116812895126</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6514,7 +6460,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>14.49491799405666</v>
+        <v>19.59769749474734</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6523,7 +6469,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>14.45010351764665</v>
+        <v>19.71109419081116</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6532,7 +6478,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>14.02209859417274</v>
+        <v>19.08157350340027</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6541,7 +6487,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>16.02511497056552</v>
+        <v>18.20352942146901</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6550,7 +6496,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>16.46111776408517</v>
+        <v>18.43944782612501</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6559,7 +6505,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>14.99129102953138</v>
+        <v>18.34122080334919</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6568,7 +6514,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>15.09405519470353</v>
+        <v>17.40267908396866</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6577,7 +6523,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>15.00959811415506</v>
+        <v>17.15648704820384</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6586,7 +6532,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>14.93030535712836</v>
+        <v>16.77116512567844</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6595,7 +6541,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>15.24722024153916</v>
+        <v>17.85367061004253</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6604,7 +6550,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>15.42548609185779</v>
+        <v>16.60939689077767</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6613,7 +6559,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>14.12634947492186</v>
+        <v>18.32075277845748</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6622,7 +6568,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>15.44958611099708</v>
+        <v>18.08489758404471</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6631,7 +6577,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>16.59010883628016</v>
+        <v>19.43827428592905</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6640,7 +6586,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>17.24023069615931</v>
+        <v>18.86613194014976</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6649,7 +6595,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>16.18235924177559</v>
+        <v>18.0542866881297</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6658,7 +6604,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>18.33392909996507</v>
+        <v>17.18630136011368</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6667,7 +6613,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>18.03829671572278</v>
+        <v>18.61098183241437</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6676,7 +6622,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>15.65717793373199</v>
+        <v>19.09842392780001</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6685,7 +6631,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>17.33073882595229</v>
+        <v>18.06404021674189</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6694,7 +6640,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>15.42642984981418</v>
+        <v>20.75953567665456</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6703,7 +6649,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>19.53833169308301</v>
+        <v>20.92174060692728</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6712,7 +6658,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>18.53156683341782</v>
+        <v>20.79368136815975</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6721,7 +6667,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>18.43051407691527</v>
+        <v>21.67874730666408</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6730,7 +6676,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>19.43455437992613</v>
+        <v>22.22645540156896</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6739,7 +6685,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>20.32912649369857</v>
+        <v>22.77258143698928</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6748,7 +6694,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>21.83781545199611</v>
+        <v>22.1217065227893</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6757,7 +6703,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>20.23816274745224</v>
+        <v>24.100782608009</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6766,7 +6712,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>21.98035325949581</v>
+        <v>24.18497195335235</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6775,7 +6721,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>21.78364119552281</v>
+        <v>26.7714892195012</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6784,7 +6730,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>21.63821138210685</v>
+        <v>24.12730324007079</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6793,7 +6739,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>22.64682728341769</v>
+        <v>26.11854865439875</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6802,7 +6748,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>22.08969958756023</v>
+        <v>28.32185895798595</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6811,7 +6757,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>21.67188832209171</v>
+        <v>28.11850234480416</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6820,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>23.49617580378179</v>
+        <v>28.21918063804719</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6829,7 +6775,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>23.90751938808149</v>
+        <v>29.73506465012605</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6838,7 +6784,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>25.52286794684202</v>
+        <v>30.40733316689946</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6847,7 +6793,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>25.05911104914594</v>
+        <v>28.89640392124153</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6856,7 +6802,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>24.40285573236884</v>
+        <v>31.38598480822221</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6865,7 +6811,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>22.73963134497439</v>
+        <v>30.33356385027731</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6874,7 +6820,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>22.68094683949982</v>
+        <v>28.97595734500069</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6883,7 +6829,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>24.09918903434263</v>
+        <v>29.89674428168797</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6892,7 +6838,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>26.56080991150983</v>
+        <v>29.62877303338026</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6901,7 +6847,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>26.47549300026132</v>
+        <v>27.42067264027157</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6910,7 +6856,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>26.34686186685706</v>
+        <v>31.22198111279605</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6919,7 +6865,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>27.0297698831223</v>
+        <v>29.41659162109664</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6928,7 +6874,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>27.67864761569489</v>
+        <v>31.48637190480994</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6937,7 +6883,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>28.02475026654233</v>
+        <v>33.22355194699711</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6946,7 +6892,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>28.16964718698829</v>
+        <v>30.43061627431052</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6955,7 +6901,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>27.80886801179745</v>
+        <v>29.2396004315505</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6964,7 +6910,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>27.40897261369967</v>
+        <v>31.050089388</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6973,7 +6919,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>27.10226321266988</v>
+        <v>29.61412939113954</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6982,7 +6928,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>27.3708947030798</v>
+        <v>28.87043612249182</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6991,7 +6937,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>24.03730979193736</v>
+        <v>29.6515809203707</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7000,7 +6946,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>24.55560283332374</v>
+        <v>24.7429865385704</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7009,7 +6955,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>22.09353301147484</v>
+        <v>22.93455179861198</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7018,7 +6964,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>22.88860031040667</v>
+        <v>22.99758536302737</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7027,7 +6973,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>24.93425816717166</v>
+        <v>23.51411052535254</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7036,7 +6982,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>26.17666634165236</v>
+        <v>22.81438405333385</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7045,7 +6991,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>25.17816358234516</v>
+        <v>26.13023621134391</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7054,7 +7000,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>24.01659733302477</v>
+        <v>24.04991953991376</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7063,7 +7009,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>23.07549175230496</v>
+        <v>25.51805237050965</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7072,7 +7018,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>22.95355905480911</v>
+        <v>26.7758469415329</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7081,7 +7027,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>23.61596750342567</v>
+        <v>26.63479699213985</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7090,7 +7036,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>24.96542844948709</v>
+        <v>28.10763860851438</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7099,7 +7045,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>23.66244222043197</v>
+        <v>29.19775153453337</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7108,7 +7054,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>19.55389823080213</v>
+        <v>26.69490860602768</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7117,7 +7063,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>20.77694012290739</v>
+        <v>27.51559644017293</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7126,7 +7072,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>23.38094397013334</v>
+        <v>26.76841280142944</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7135,7 +7081,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>24.15013848885386</v>
+        <v>28.14207274116875</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7144,7 +7090,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>25.2397979508829</v>
+        <v>27.31066379166795</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7153,7 +7099,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>23.71183358999448</v>
+        <v>27.95794279261417</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7162,7 +7108,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>23.14505980256503</v>
+        <v>25.91614139959643</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7171,7 +7117,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>21.05727883585645</v>
+        <v>26.20951892006337</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7180,7 +7126,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>16.78854791408473</v>
+        <v>24.04449083619409</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7189,7 +7135,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>16.69161042668183</v>
+        <v>21.39169391842163</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7198,7 +7144,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>17.65788850080683</v>
+        <v>17.61273506277045</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7207,7 +7153,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>17.46700234259927</v>
+        <v>18.09298437077266</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7216,7 +7162,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>17.84273560946326</v>
+        <v>19.06068662775807</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7225,7 +7171,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>18.06610299866565</v>
+        <v>19.79644824329649</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7234,7 +7180,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>15.72022885826967</v>
+        <v>17.97815399036086</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7243,7 +7189,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>15.72027366520915</v>
+        <v>18.95419104654828</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7252,7 +7198,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>15.83865121512262</v>
+        <v>18.22855564876591</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7261,7 +7207,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>17.29847780003761</v>
+        <v>17.88996643357271</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7270,7 +7216,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>15.60193033943176</v>
+        <v>17.05250173319984</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7279,7 +7225,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>15.75394882992856</v>
+        <v>16.04606601135039</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7288,7 +7234,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>16.10723139920802</v>
+        <v>16.00320959118871</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7297,7 +7243,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>16.32143722047276</v>
+        <v>16.34724901228181</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7306,7 +7252,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>15.99627261815835</v>
+        <v>17.14993405351945</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7315,7 +7261,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>17.0263922386999</v>
+        <v>18.65009854580537</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7324,7 +7270,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>16.10395199293765</v>
+        <v>18.3671916761219</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7333,7 +7279,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>16.11663643679579</v>
+        <v>17.0344357818525</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7342,7 +7288,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>17.19024393651107</v>
+        <v>20.33305956783006</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7351,7 +7297,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>18.14703146389925</v>
+        <v>21.34839237985958</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7360,7 +7306,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>18.72820464427208</v>
+        <v>21.51561502540302</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7369,7 +7315,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>18.88523123287001</v>
+        <v>19.98223734252998</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7378,7 +7324,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>18.16841030921642</v>
+        <v>20.15738903849016</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7387,7 +7333,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>18.90797227647422</v>
+        <v>21.51306963875518</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7396,7 +7342,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>20.08569181117441</v>
+        <v>21.02989031824578</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7405,7 +7351,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>21.36621385713823</v>
+        <v>21.63487347454515</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7414,7 +7360,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>22.47098974503408</v>
+        <v>24.46567825071468</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7423,7 +7369,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>22.18799996591772</v>
+        <v>22.51828609193563</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7432,7 +7378,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>23.00684383123202</v>
+        <v>22.62053770869053</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7441,7 +7387,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>22.40989650545907</v>
+        <v>21.72121714127938</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7450,7 +7396,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>22.43056174965223</v>
+        <v>21.80642043880882</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7459,7 +7405,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>21.16355352595865</v>
+        <v>22.67310660835922</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7468,7 +7414,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>21.33476356420244</v>
+        <v>22.22069813167368</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7477,7 +7423,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>23.00150324510507</v>
+        <v>23.11656929516777</v>
       </c>
     </row>
     <row r="145">
@@ -7485,14 +7431,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>21.64330059388802</v>
+        <v>23.95266949736168</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7510,8 +7456,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7532,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-44.82711523939744</v>
+        <v>-58.04379425668549</v>
       </c>
     </row>
     <row r="3">
@@ -7540,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-45.40129640475072</v>
+        <v>-56.31527465752682</v>
       </c>
     </row>
     <row r="4">
@@ -7548,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-44.83171372990294</v>
+        <v>-56.76684469245117</v>
       </c>
     </row>
     <row r="5">
@@ -7556,7 +7502,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-45.47280360795416</v>
+        <v>-57.06661754220738</v>
       </c>
     </row>
     <row r="6">
@@ -7564,7 +7510,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-44.62392579195649</v>
+        <v>-57.09980846196513</v>
       </c>
     </row>
     <row r="7">
@@ -7572,7 +7518,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-43.93099257347883</v>
+        <v>-57.04341186492961</v>
       </c>
     </row>
     <row r="8">
@@ -7580,7 +7526,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-44.53335292453365</v>
+        <v>-57.28723423349136</v>
       </c>
     </row>
     <row r="9">
@@ -7588,7 +7534,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-45.90445913767262</v>
+        <v>-57.88831174253004</v>
       </c>
     </row>
     <row r="10">
@@ -7596,7 +7542,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-45.24257182085631</v>
+        <v>-56.71694609525548</v>
       </c>
     </row>
     <row r="11">
@@ -7604,7 +7550,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-46.34161575213146</v>
+        <v>-56.2169946879239</v>
       </c>
     </row>
     <row r="12">
@@ -7612,7 +7558,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-45.89960160780959</v>
+        <v>-57.36857728473871</v>
       </c>
     </row>
     <row r="13">
@@ -7620,7 +7566,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-45.85239529387353</v>
+        <v>-58.18205811014173</v>
       </c>
     </row>
     <row r="14">
@@ -7628,7 +7574,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-46.62007701737664</v>
+        <v>-57.67824235474247</v>
       </c>
     </row>
     <row r="15">
@@ -7636,7 +7582,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-46.86583144923944</v>
+        <v>-59.01696782564821</v>
       </c>
     </row>
     <row r="16">
@@ -7644,7 +7590,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-45.77942812978485</v>
+        <v>-59.26273351116546</v>
       </c>
     </row>
     <row r="17">
@@ -7652,7 +7598,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-46.25871286978794</v>
+        <v>-59.28648804084106</v>
       </c>
     </row>
     <row r="18">
@@ -7660,7 +7606,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-47.28104055666967</v>
+        <v>-60.53710996046706</v>
       </c>
     </row>
     <row r="19">
@@ -7668,7 +7614,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-51.74542556458091</v>
+        <v>-61.89318269135691</v>
       </c>
     </row>
     <row r="20">
@@ -7676,7 +7622,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-50.63890084960359</v>
+        <v>-61.47420728106887</v>
       </c>
     </row>
     <row r="21">
@@ -7684,7 +7630,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-50.52517500597448</v>
+        <v>-59.54869137995064</v>
       </c>
     </row>
     <row r="22">
@@ -7692,7 +7638,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-49.62698237236997</v>
+        <v>-59.51985170157646</v>
       </c>
     </row>
     <row r="23">
@@ -7700,7 +7646,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-48.67198780198632</v>
+        <v>-61.27432441243937</v>
       </c>
     </row>
     <row r="24">
@@ -7708,7 +7654,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-52.05163900104758</v>
+        <v>-60.90983136979116</v>
       </c>
     </row>
     <row r="25">
@@ -7716,7 +7662,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-53.17704373388332</v>
+        <v>-60.59129394191072</v>
       </c>
     </row>
     <row r="26">
@@ -7724,7 +7670,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-51.7975879439086</v>
+        <v>-61.99370360561954</v>
       </c>
     </row>
     <row r="27">
@@ -7732,7 +7678,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-50.42037861925369</v>
+        <v>-63.13362830256055</v>
       </c>
     </row>
     <row r="28">
@@ -7740,7 +7686,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-50.86049929004551</v>
+        <v>-62.29005941623451</v>
       </c>
     </row>
     <row r="29">
@@ -7748,7 +7694,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-50.30955808882477</v>
+        <v>-63.16670397182672</v>
       </c>
     </row>
     <row r="30">
@@ -7756,7 +7702,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-51.10162574015108</v>
+        <v>-64.32438048025291</v>
       </c>
     </row>
     <row r="31">
@@ -7764,7 +7710,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-52.82015535458099</v>
+        <v>-65.28678048070083</v>
       </c>
     </row>
     <row r="32">
@@ -7772,7 +7718,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-52.36021477439816</v>
+        <v>-65.00498119124701</v>
       </c>
     </row>
     <row r="33">
@@ -7780,7 +7726,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-52.59025675157035</v>
+        <v>-65.4622999517415</v>
       </c>
     </row>
     <row r="34">
@@ -7788,7 +7734,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-52.6527596528475</v>
+        <v>-63.21900690169113</v>
       </c>
     </row>
     <row r="35">
@@ -7796,7 +7742,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-53.50180002592907</v>
+        <v>-61.95186358003781</v>
       </c>
     </row>
     <row r="36">
@@ -7804,7 +7750,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-53.96212113330049</v>
+        <v>-62.2458435606243</v>
       </c>
     </row>
     <row r="37">
@@ -7812,7 +7758,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-52.35979310616678</v>
+        <v>-63.34350359962608</v>
       </c>
     </row>
     <row r="38">
@@ -7820,7 +7766,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-54.12207062903377</v>
+        <v>-62.71793090188187</v>
       </c>
     </row>
     <row r="39">
@@ -7828,7 +7774,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-54.18837334938993</v>
+        <v>-62.17349001098076</v>
       </c>
     </row>
     <row r="40">
@@ -7836,7 +7782,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-54.41683244951914</v>
+        <v>-61.76602751880377</v>
       </c>
     </row>
     <row r="41">
@@ -7844,7 +7790,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-53.56005273367216</v>
+        <v>-62.28659970283554</v>
       </c>
     </row>
     <row r="42">
@@ -7852,7 +7798,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-53.63249856122503</v>
+        <v>-63.00777837101582</v>
       </c>
     </row>
     <row r="43">
@@ -7860,7 +7806,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-53.77436464237078</v>
+        <v>-61.22195702193233</v>
       </c>
     </row>
     <row r="44">
@@ -7868,7 +7814,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-53.55552317400037</v>
+        <v>-63.0517391183317</v>
       </c>
     </row>
     <row r="45">
@@ -7876,7 +7822,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-51.84000324804617</v>
+        <v>-61.44871747209205</v>
       </c>
     </row>
     <row r="46">
@@ -7884,7 +7830,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-50.82440517984654</v>
+        <v>-62.02060063623766</v>
       </c>
     </row>
     <row r="47">
@@ -7892,7 +7838,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-51.10297142214432</v>
+        <v>-62.33164369156666</v>
       </c>
     </row>
     <row r="48">
@@ -7900,7 +7846,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-50.82059504098757</v>
+        <v>-61.86625063166687</v>
       </c>
     </row>
     <row r="49">
@@ -7908,7 +7854,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-51.59980904520657</v>
+        <v>-61.30884360319057</v>
       </c>
     </row>
     <row r="50">
@@ -7916,7 +7862,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-51.20390701903736</v>
+        <v>-60.68009278637267</v>
       </c>
     </row>
     <row r="51">
@@ -7924,7 +7870,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-51.47123772227626</v>
+        <v>-62.25769905080303</v>
       </c>
     </row>
     <row r="52">
@@ -7932,7 +7878,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-51.65374537189634</v>
+        <v>-62.36135210744891</v>
       </c>
     </row>
     <row r="53">
@@ -7940,7 +7886,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-50.55254304066344</v>
+        <v>-61.70755221093688</v>
       </c>
     </row>
     <row r="54">
@@ -7948,7 +7894,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-51.6631068061817</v>
+        <v>-61.9206899772532</v>
       </c>
     </row>
     <row r="55">
@@ -7956,7 +7902,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-50.65312919107768</v>
+        <v>-60.10513626504579</v>
       </c>
     </row>
     <row r="56">
@@ -7964,7 +7910,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-51.81284059881803</v>
+        <v>-61.17262375391917</v>
       </c>
     </row>
     <row r="57">
@@ -7972,7 +7918,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-49.66132727731963</v>
+        <v>-62.27632537803815</v>
       </c>
     </row>
     <row r="58">
@@ -7980,7 +7926,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-50.46479244832143</v>
+        <v>-60.5963099697492</v>
       </c>
     </row>
     <row r="59">
@@ -7988,7 +7934,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-51.17613610139075</v>
+        <v>-60.3724682516411</v>
       </c>
     </row>
     <row r="60">
@@ -7996,7 +7942,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-50.51985776577848</v>
+        <v>-60.91971823736962</v>
       </c>
     </row>
     <row r="61">
@@ -8004,7 +7950,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-49.46580121186497</v>
+        <v>-60.89000364048696</v>
       </c>
     </row>
     <row r="62">
@@ -8012,7 +7958,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-48.6685450206558</v>
+        <v>-60.62902370481213</v>
       </c>
     </row>
     <row r="63">
@@ -8020,7 +7966,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-48.02337041697568</v>
+        <v>-59.24801032946961</v>
       </c>
     </row>
     <row r="64">
@@ -8028,7 +7974,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-48.52873659996419</v>
+        <v>-58.47391382617278</v>
       </c>
     </row>
     <row r="65">
@@ -8036,7 +7982,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-46.73263755411043</v>
+        <v>-58.13122987863778</v>
       </c>
     </row>
     <row r="66">
@@ -8044,7 +7990,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-46.32770933580311</v>
+        <v>-57.56977929179995</v>
       </c>
     </row>
     <row r="67">
@@ -8052,7 +7998,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-47.70964648942144</v>
+        <v>-56.90512745496186</v>
       </c>
     </row>
     <row r="68">
@@ -8060,7 +8006,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-47.23993963449954</v>
+        <v>-57.50270795582196</v>
       </c>
     </row>
     <row r="69">
@@ -8068,7 +8014,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-46.84073697364279</v>
+        <v>-56.08516864701281</v>
       </c>
     </row>
     <row r="70">
@@ -8076,7 +8022,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-46.1167546505814</v>
+        <v>-56.08487903262422</v>
       </c>
     </row>
     <row r="71">
@@ -8084,7 +8030,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-45.45091741649994</v>
+        <v>-55.78295222698317</v>
       </c>
     </row>
     <row r="72">
@@ -8092,7 +8038,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-45.20316817129392</v>
+        <v>-54.65191179986493</v>
       </c>
     </row>
     <row r="73">
@@ -8100,7 +8046,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-45.62283783784734</v>
+        <v>-54.47415715334341</v>
       </c>
     </row>
     <row r="74">
@@ -8108,7 +8054,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-44.97727479917026</v>
+        <v>-54.76906578310431</v>
       </c>
     </row>
     <row r="75">
@@ -8116,7 +8062,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-46.34517039101021</v>
+        <v>-54.38690145881056</v>
       </c>
     </row>
     <row r="76">
@@ -8124,7 +8070,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-47.40135026672216</v>
+        <v>-53.94647163035134</v>
       </c>
     </row>
     <row r="77">
@@ -8132,7 +8078,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-45.97069028136622</v>
+        <v>-53.74292821331721</v>
       </c>
     </row>
     <row r="78">
@@ -8140,7 +8086,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-45.17657706730731</v>
+        <v>-55.50828100818312</v>
       </c>
     </row>
     <row r="79">
@@ -8148,7 +8094,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-44.12334809423039</v>
+        <v>-56.54742236832465</v>
       </c>
     </row>
     <row r="80">
@@ -8156,7 +8102,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-45.0949183183508</v>
+        <v>-56.20550973619438</v>
       </c>
     </row>
     <row r="81">
@@ -8164,7 +8110,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-43.77385132823309</v>
+        <v>-53.50963237943542</v>
       </c>
     </row>
     <row r="82">
@@ -8172,7 +8118,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-43.60615994384942</v>
+        <v>-53.17733311565276</v>
       </c>
     </row>
     <row r="83">
@@ -8180,7 +8126,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-43.67765556033348</v>
+        <v>-53.98426820470166</v>
       </c>
     </row>
     <row r="84">
@@ -8188,7 +8134,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-43.4854806861026</v>
+        <v>-52.67017685380463</v>
       </c>
     </row>
     <row r="85">
@@ -8196,7 +8142,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-44.45752307566459</v>
+        <v>-55.00087633469587</v>
       </c>
     </row>
     <row r="86">
@@ -8204,7 +8150,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-44.27333701749221</v>
+        <v>-54.03188553951576</v>
       </c>
     </row>
     <row r="87">
@@ -8212,7 +8158,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-44.02648897491584</v>
+        <v>-54.87185518364982</v>
       </c>
     </row>
     <row r="88">
@@ -8220,7 +8166,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-43.80568878907718</v>
+        <v>-53.14082357856838</v>
       </c>
     </row>
     <row r="89">
@@ -8228,7 +8174,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-43.58734007458999</v>
+        <v>-53.30427352432576</v>
       </c>
     </row>
     <row r="90">
@@ -8236,7 +8182,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-45.50669826194432</v>
+        <v>-54.32421620999371</v>
       </c>
     </row>
     <row r="91">
@@ -8244,7 +8190,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-47.67913634081214</v>
+        <v>-56.42428066760418</v>
       </c>
     </row>
     <row r="92">
@@ -8252,7 +8198,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-46.81557353718905</v>
+        <v>-57.77492618345721</v>
       </c>
     </row>
     <row r="93">
@@ -8260,7 +8206,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-45.97716368372818</v>
+        <v>-57.60514056612737</v>
       </c>
     </row>
     <row r="94">
@@ -8268,7 +8214,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-44.98568468482419</v>
+        <v>-57.95489150019027</v>
       </c>
     </row>
     <row r="95">
@@ -8276,7 +8222,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-45.64997015444158</v>
+        <v>-57.66018059557865</v>
       </c>
     </row>
     <row r="96">
@@ -8284,7 +8230,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-46.58051688411527</v>
+        <v>-55.94422077425204</v>
       </c>
     </row>
     <row r="97">
@@ -8292,7 +8238,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-46.89785407723156</v>
+        <v>-57.13639490085227</v>
       </c>
     </row>
     <row r="98">
@@ -8300,7 +8246,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-47.69744006404584</v>
+        <v>-54.79487176007413</v>
       </c>
     </row>
     <row r="99">
@@ -8308,7 +8254,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-46.39246533110675</v>
+        <v>-55.14643598562039</v>
       </c>
     </row>
     <row r="100">
@@ -8316,7 +8262,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-46.06777975628326</v>
+        <v>-55.2021761359132</v>
       </c>
     </row>
     <row r="101">
@@ -8324,7 +8270,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-44.46678293629009</v>
+        <v>-54.07432591467343</v>
       </c>
     </row>
     <row r="102">
@@ -8332,7 +8278,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-46.55262228601407</v>
+        <v>-54.11130808286288</v>
       </c>
     </row>
     <row r="103">
@@ -8340,7 +8286,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-50.35733987990968</v>
+        <v>-55.49646007174363</v>
       </c>
     </row>
     <row r="104">
@@ -8348,7 +8294,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-48.64948126234736</v>
+        <v>-56.6614896317887</v>
       </c>
     </row>
     <row r="105">
@@ -8356,7 +8302,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-45.59094676221177</v>
+        <v>-55.94681322382907</v>
       </c>
     </row>
     <row r="106">
@@ -8364,7 +8310,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-44.5950749675369</v>
+        <v>-55.75557435257839</v>
       </c>
     </row>
     <row r="107">
@@ -8372,7 +8318,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-44.45742898803447</v>
+        <v>-55.50795659523274</v>
       </c>
     </row>
     <row r="108">
@@ -8380,7 +8326,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-45.36508666075127</v>
+        <v>-55.80403871231466</v>
       </c>
     </row>
     <row r="109">
@@ -8388,7 +8334,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-47.41834349099675</v>
+        <v>-57.10088981297659</v>
       </c>
     </row>
     <row r="110">
@@ -8396,7 +8342,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-49.17691086685021</v>
+        <v>-56.37207988014106</v>
       </c>
     </row>
     <row r="111">
@@ -8404,7 +8350,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-49.41666072656803</v>
+        <v>-56.6973595264836</v>
       </c>
     </row>
     <row r="112">
@@ -8412,7 +8358,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-50.5731533066532</v>
+        <v>-61.02305128213723</v>
       </c>
     </row>
     <row r="113">
@@ -8420,7 +8366,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-50.71001032722544</v>
+        <v>-63.13173674937036</v>
       </c>
     </row>
     <row r="114">
@@ -8428,7 +8374,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-51.63693462683693</v>
+        <v>-62.68037828455684</v>
       </c>
     </row>
     <row r="115">
@@ -8436,7 +8382,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-52.89575885532555</v>
+        <v>-62.62952539652309</v>
       </c>
     </row>
     <row r="116">
@@ -8444,7 +8390,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-51.3284506365912</v>
+        <v>-62.19600715525435</v>
       </c>
     </row>
     <row r="117">
@@ -8452,7 +8398,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-52.83448671285895</v>
+        <v>-63.23039864514791</v>
       </c>
     </row>
     <row r="118">
@@ -8460,7 +8406,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-53.70424470818756</v>
+        <v>-62.37003792557509</v>
       </c>
     </row>
     <row r="119">
@@ -8468,7 +8414,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-51.77924231487523</v>
+        <v>-62.96890138285167</v>
       </c>
     </row>
     <row r="120">
@@ -8476,7 +8422,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-52.83191950300001</v>
+        <v>-62.99077842436282</v>
       </c>
     </row>
     <row r="121">
@@ -8484,7 +8430,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-52.35954738322715</v>
+        <v>-64.01187062868085</v>
       </c>
     </row>
     <row r="122">
@@ -8492,7 +8438,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-52.70961929346318</v>
+        <v>-64.4216166957751</v>
       </c>
     </row>
     <row r="123">
@@ -8500,7 +8446,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-52.428046193659</v>
+        <v>-62.65045629541736</v>
       </c>
     </row>
     <row r="124">
@@ -8508,7 +8454,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-52.13428908668419</v>
+        <v>-65.59484148936312</v>
       </c>
     </row>
     <row r="125">
@@ -8516,7 +8462,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-52.4925567034056</v>
+        <v>-63.20985862070634</v>
       </c>
     </row>
     <row r="126">
@@ -8524,7 +8470,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-51.84494355493846</v>
+        <v>-61.87351842721953</v>
       </c>
     </row>
     <row r="127">
@@ -8532,7 +8478,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-51.68593254094873</v>
+        <v>-62.19358896152603</v>
       </c>
     </row>
     <row r="128">
@@ -8540,7 +8486,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-50.42542303904712</v>
+        <v>-61.8654814073633</v>
       </c>
     </row>
     <row r="129">
@@ -8548,7 +8494,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-49.03853909281972</v>
+        <v>-62.03586972851898</v>
       </c>
     </row>
     <row r="130">
@@ -8556,7 +8502,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-48.74948066943959</v>
+        <v>-60.32870824623843</v>
       </c>
     </row>
     <row r="131">
@@ -8564,7 +8510,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-49.08871936993796</v>
+        <v>-60.6082860111559</v>
       </c>
     </row>
     <row r="132">
@@ -8572,7 +8518,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-49.93117312471202</v>
+        <v>-60.36582302142141</v>
       </c>
     </row>
     <row r="133">
@@ -8580,7 +8526,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-49.50776068224184</v>
+        <v>-57.87716874732524</v>
       </c>
     </row>
     <row r="134">
@@ -8588,7 +8534,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-48.16855766976697</v>
+        <v>-58.43910091292646</v>
       </c>
     </row>
     <row r="135">
@@ -8596,7 +8542,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-46.54822801637634</v>
+        <v>-57.84879650645269</v>
       </c>
     </row>
     <row r="136">
@@ -8604,7 +8550,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-46.38723982376045</v>
+        <v>-57.75555087159994</v>
       </c>
     </row>
     <row r="137">
@@ -8612,7 +8558,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-45.59923926327625</v>
+        <v>-57.84143564240586</v>
       </c>
     </row>
     <row r="138">
@@ -8620,7 +8566,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-45.57141562252311</v>
+        <v>-58.28562966135186</v>
       </c>
     </row>
     <row r="139">
@@ -8628,7 +8574,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-46.00932556952776</v>
+        <v>-57.48113465378277</v>
       </c>
     </row>
     <row r="140">
@@ -8636,7 +8582,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-45.88581734389176</v>
+        <v>-57.29521602471618</v>
       </c>
     </row>
     <row r="141">
@@ -8644,7 +8590,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-44.74852614908043</v>
+        <v>-58.55441067739675</v>
       </c>
     </row>
     <row r="142">
@@ -8652,7 +8598,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-45.55688415938975</v>
+        <v>-58.00572048715257</v>
       </c>
     </row>
     <row r="143">
@@ -8660,7 +8606,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-45.40549740343303</v>
+        <v>-57.20723764495764</v>
       </c>
     </row>
     <row r="144">
@@ -8668,7 +8614,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-46.54764483768794</v>
+        <v>-57.70116694101742</v>
       </c>
     </row>
     <row r="145">
@@ -8676,14 +8622,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-45.55378040752993</v>
+        <v>-57.94155103947423</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8714,6 +8660,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013003176</v>
+        <v>2012005671</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014002773</v>
+        <v>2015004995</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012005272</v>
+        <v>2012007210</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012001919</v>
+        <v>2016006811</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016007942</v>
+        <v>2012001449</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2015001054</v>
+        <v>2015007570</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2013009361</v>
+        <v>2016006505</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012009193</v>
+        <v>2012003922</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2014000580</v>
+        <v>2015005104</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2015008554</v>
+        <v>2013007756</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2012007687</v>
+        <v>2016006978</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2013003176</v>
+        <v>2012005671</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D2" t="n">
-        <v>73.45503358327787</v>
+        <v>71.60107390327785</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -2284,50 +2284,50 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014002773</v>
+        <v>2015004995</v>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6225952</v>
+        <v>23.57390537446736</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>29.99999999446736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2014002773</v>
+        <v>2012007210</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>23.4528244</v>
+        <v>72.29630878327788</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2012005272</v>
+        <v>2016006811</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D5" t="n">
-        <v>73.06879198327788</v>
+        <v>70.46166118327787</v>
       </c>
       <c r="E5" t="n">
         <v>75</v>
@@ -2335,188 +2335,258 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2012005272</v>
+        <v>2012001449</v>
       </c>
       <c r="B6" t="n">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>73.84127520000001</v>
+        <v>5.75</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>7.920666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2012001919</v>
+        <v>2012001449</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
         <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>19.13013715824406</v>
+        <v>5.75</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>63.78255388491833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2016007942</v>
+        <v>2015007570</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>21.81129759824406</v>
+        <v>26.95512871446736</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>28.49180900255233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2015001054</v>
+        <v>2015007570</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D9" t="n">
-        <v>26.67832223446736</v>
+        <v>27.2319352</v>
       </c>
       <c r="E9" t="n">
-        <v>27.31401034908833</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2015001054</v>
+        <v>2016006505</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>120</v>
       </c>
       <c r="D10" t="n">
-        <v>29.16958056</v>
+        <v>71.52382558327784</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2013009361</v>
+        <v>2012003922</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>38.90564826054121</v>
+        <v>69.84206529999999</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2012009193</v>
+        <v>2012003922</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C12" t="n">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D12" t="n">
-        <v>49.2093752956624</v>
+        <v>59.550336</v>
       </c>
       <c r="E12" t="n">
-        <v>59.57911535343231</v>
+        <v>73.97031331694195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2014000580</v>
+        <v>2012003922</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C13" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D13" t="n">
-        <v>20.1697708</v>
+        <v>73.91852350327787</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2015008554</v>
+        <v>2012003922</v>
       </c>
       <c r="B14" t="n">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C14" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D14" t="n">
-        <v>4.775</v>
+        <v>72.91429536</v>
       </c>
       <c r="E14" t="n">
-        <v>29.99999999446736</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2012007687</v>
+        <v>2015005104</v>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D15" t="n">
-        <v>65.73020158327789</v>
+        <v>66.6797121832779</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
+      <c r="A16" s="7" t="n">
+        <v>2013007756</v>
+      </c>
+      <c r="B16" t="n">
+        <v>28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>39</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22.218943422</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
+      <c r="A17" s="7" t="n">
+        <v>2013007756</v>
+      </c>
+      <c r="B17" t="n">
+        <v>47</v>
+      </c>
+      <c r="C17" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.77454620200001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23.582526633882</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
+      <c r="A18" s="7" t="n">
+        <v>2013007756</v>
+      </c>
+      <c r="B18" t="n">
+        <v>68</v>
+      </c>
+      <c r="C18" t="n">
+        <v>126</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.11519960224405</v>
+      </c>
+      <c r="E18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n"/>
+      <c r="A19" s="7" t="n">
+        <v>2013007756</v>
+      </c>
+      <c r="B19" t="n">
+        <v>128</v>
+      </c>
+      <c r="C19" t="n">
+        <v>143</v>
+      </c>
+      <c r="D19" t="n">
+        <v>23.86320609824405</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
+      <c r="A20" s="7" t="n">
+        <v>2016006978</v>
+      </c>
+      <c r="B20" t="n">
+        <v>37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>111</v>
+      </c>
+      <c r="D20" t="n">
+        <v>28.44988370646736</v>
+      </c>
+      <c r="E20" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
@@ -6145,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>22.28175943368247</v>
+        <v>17.53491314808076</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6154,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>23.78059934811782</v>
+        <v>19.02741676544225</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6163,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>22.5233492847372</v>
+        <v>17.78039839121953</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6172,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>21.17120209394658</v>
+        <v>16.41925186744453</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6181,7 +6251,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>22.6300096360719</v>
+        <v>17.8742154047727</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6190,7 +6260,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>21.62864956523341</v>
+        <v>16.88380697889617</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6199,7 +6269,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>23.25893931699729</v>
+        <v>18.51462741143149</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6208,7 +6278,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>21.66407137575211</v>
+        <v>16.92330319542777</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6217,7 +6287,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>22.63061827985189</v>
+        <v>17.89291697881123</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6226,7 +6296,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>21.98312484402894</v>
+        <v>17.24872518968181</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6235,7 +6305,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>19.81071665551699</v>
+        <v>15.05845155788779</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6244,7 +6314,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>22.16312171154992</v>
+        <v>17.41806937887878</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6253,7 +6323,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>21.84024128018825</v>
+        <v>17.08744821512159</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6262,7 +6332,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>20.08036557243062</v>
+        <v>15.33402644660712</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6271,7 +6341,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>21.80533267180772</v>
+        <v>17.06291215329396</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6280,7 +6350,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>20.74773241471037</v>
+        <v>15.99102068238244</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6289,7 +6359,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>20.83650941463366</v>
+        <v>16.09189941786754</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6298,7 +6368,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>20.56047179433949</v>
+        <v>15.81095760778094</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6307,7 +6377,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>20.40114074605642</v>
+        <v>15.65728622457223</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6316,7 +6386,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>19.77615720297019</v>
+        <v>15.01724682481211</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6325,7 +6395,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>20.3700949461788</v>
+        <v>15.62858380982619</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6334,7 +6404,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>21.17384216622752</v>
+        <v>16.42282732927865</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6343,7 +6413,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>20.88890969164161</v>
+        <v>16.14598646737191</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6352,7 +6422,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>17.94491637651738</v>
+        <v>13.20191600841142</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6361,7 +6431,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>19.00297756184419</v>
+        <v>14.25735919209746</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6370,7 +6440,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>19.18017360682293</v>
+        <v>14.43376579830188</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6379,7 +6449,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>19.96360606591713</v>
+        <v>15.22297495917295</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6388,7 +6458,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>17.73174466666912</v>
+        <v>12.99999493987792</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6397,7 +6467,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>16.04746721105684</v>
+        <v>11.31026878119846</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6406,7 +6476,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>17.12420902291101</v>
+        <v>12.02217727256438</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6415,7 +6485,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>16.11937706312535</v>
+        <v>11.36720356062364</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6424,7 +6494,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>17.66736576434601</v>
+        <v>12.93572778210438</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6433,7 +6503,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>18.09118695687029</v>
+        <v>13.35090445368457</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6442,7 +6512,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>18.44555392107115</v>
+        <v>13.71157514485916</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6451,7 +6521,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>19.1116812895126</v>
+        <v>14.37275600843045</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6460,7 +6530,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>19.59769749474734</v>
+        <v>14.85723344359808</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6469,7 +6539,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>19.71109419081116</v>
+        <v>14.9644540360641</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6478,7 +6548,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>19.08157350340027</v>
+        <v>14.34202517323292</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6487,7 +6557,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>18.20352942146901</v>
+        <v>13.56694315996195</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6496,7 +6566,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>18.43944782612501</v>
+        <v>13.83744977823871</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6505,7 +6575,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>18.34122080334919</v>
+        <v>12.20391091369437</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6514,7 +6584,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>17.40267908396866</v>
+        <v>12.44113830123007</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6523,7 +6593,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>17.15648704820384</v>
+        <v>12.10327266281596</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6532,7 +6602,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>16.77116512567844</v>
+        <v>11.54960817945709</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6541,7 +6611,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>17.85367061004253</v>
+        <v>13.31346328506516</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6550,7 +6620,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>16.60939689077767</v>
+        <v>11.85451082815026</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6559,7 +6629,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>18.32075277845748</v>
+        <v>13.58726242557932</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6568,7 +6638,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>18.08489758404471</v>
+        <v>13.27470895805693</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6577,7 +6647,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>19.43827428592905</v>
+        <v>14.6087301725828</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6586,7 +6656,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>18.86613194014976</v>
+        <v>14.11878275141817</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6595,7 +6665,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>18.0542866881297</v>
+        <v>13.09952099897673</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6604,7 +6674,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>17.18630136011368</v>
+        <v>12.38531276509471</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6613,7 +6683,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>18.61098183241437</v>
+        <v>13.86798470575111</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6622,7 +6692,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>19.09842392780001</v>
+        <v>14.41189339123124</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6631,7 +6701,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>18.06404021674189</v>
+        <v>13.32635977539866</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6640,7 +6710,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>20.75953567665456</v>
+        <v>16.01882530401544</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6649,7 +6719,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>20.92174060692728</v>
+        <v>16.18334212908643</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6658,7 +6728,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>20.79368136815975</v>
+        <v>16.04156886404783</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6667,7 +6737,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>21.67874730666408</v>
+        <v>16.93862303042533</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6676,7 +6746,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>22.22645540156896</v>
+        <v>17.48497507447599</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6685,7 +6755,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>22.77258143698928</v>
+        <v>18.02820034553257</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6694,7 +6764,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>22.1217065227893</v>
+        <v>17.36792151614604</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6703,7 +6773,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>24.100782608009</v>
+        <v>19.3371084763953</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6712,7 +6782,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>24.18497195335235</v>
+        <v>19.43088957781834</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6721,7 +6791,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>26.7714892195012</v>
+        <v>22.02402425493734</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6730,7 +6800,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>24.12730324007079</v>
+        <v>19.37098741793896</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6739,7 +6809,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>26.11854865439875</v>
+        <v>21.35396942905998</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6748,7 +6818,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>28.32185895798595</v>
+        <v>23.55634206738564</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6757,7 +6827,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>28.11850234480416</v>
+        <v>23.36247863897874</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6766,7 +6836,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>28.21918063804719</v>
+        <v>23.45581067201226</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6775,7 +6845,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>29.73506465012605</v>
+        <v>24.97270824334556</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6784,7 +6854,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>30.40733316689946</v>
+        <v>25.63675448369272</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6793,7 +6863,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>28.89640392124153</v>
+        <v>24.14164231824452</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6802,7 +6872,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>31.38598480822221</v>
+        <v>26.61779530439447</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6811,7 +6881,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>30.33356385027731</v>
+        <v>25.56789605308226</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6820,7 +6890,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>28.97595734500069</v>
+        <v>24.21843844134553</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6829,7 +6899,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>29.89674428168797</v>
+        <v>25.13073101138565</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6838,7 +6908,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>29.62877303338026</v>
+        <v>24.86140747457528</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6847,7 +6917,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>27.42067264027157</v>
+        <v>22.65443644088252</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6856,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>31.22198111279605</v>
+        <v>26.44921809315114</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6865,7 +6935,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>29.41659162109664</v>
+        <v>24.65149254691368</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6874,7 +6944,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>31.48637190480994</v>
+        <v>26.70844069548311</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6883,7 +6953,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>33.22355194699711</v>
+        <v>28.4499689130961</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6892,7 +6962,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>30.43061627431052</v>
+        <v>25.67215267056646</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6901,7 +6971,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>29.2396004315505</v>
+        <v>24.48190511656718</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6910,7 +6980,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>31.050089388</v>
+        <v>26.28784968403938</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6919,7 +6989,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>29.61412939113954</v>
+        <v>24.85295778865401</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6928,7 +6998,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>28.87043612249182</v>
+        <v>24.10688741559819</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6937,7 +7007,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>29.6515809203707</v>
+        <v>24.88851124548127</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6946,7 +7016,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>24.7429865385704</v>
+        <v>19.98519564471881</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6955,7 +7025,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>22.93455179861198</v>
+        <v>18.17841883835416</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6964,7 +7034,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>22.99758536302737</v>
+        <v>18.23035219508183</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6973,7 +7043,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>23.51411052535254</v>
+        <v>18.74965302513339</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6982,7 +7052,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>22.81438405333385</v>
+        <v>18.05257897785359</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6991,7 +7061,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>26.13023621134391</v>
+        <v>21.36758363509797</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7000,7 +7070,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>24.04991953991376</v>
+        <v>19.29518740232044</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7009,7 +7079,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>25.51805237050965</v>
+        <v>20.76557244688037</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7018,7 +7088,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>26.7758469415329</v>
+        <v>22.01374692911799</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7027,7 +7097,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>26.63479699213985</v>
+        <v>21.87403445475956</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7036,7 +7106,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>28.10763860851438</v>
+        <v>23.3379434295636</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7045,7 +7115,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>29.19775153453337</v>
+        <v>24.43183012229424</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7054,7 +7124,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>26.69490860602768</v>
+        <v>21.93691454395521</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7063,7 +7133,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>27.51559644017293</v>
+        <v>22.75006744898185</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7072,7 +7142,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>26.76841280142944</v>
+        <v>22.01021994483321</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7081,7 +7151,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>28.14207274116875</v>
+        <v>23.37633776629426</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7090,7 +7160,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>27.31066379166795</v>
+        <v>22.5555189039607</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7099,7 +7169,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>27.95794279261417</v>
+        <v>23.19343557163518</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7108,7 +7178,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>25.91614139959643</v>
+        <v>21.1599370341352</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7117,7 +7187,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>26.20951892006337</v>
+        <v>21.45415538487363</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7126,7 +7196,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>24.04449083619409</v>
+        <v>19.28961176929013</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7135,7 +7205,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>21.39169391842163</v>
+        <v>16.63561050729255</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7144,7 +7214,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>17.61273506277045</v>
+        <v>12.85817987389888</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7153,7 +7223,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>18.09298437077266</v>
+        <v>13.35033417430123</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7162,7 +7232,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>19.06068662775807</v>
+        <v>14.30614820776293</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7171,7 +7241,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>19.79644824329649</v>
+        <v>15.0591705380933</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7180,7 +7250,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>17.97815399036086</v>
+        <v>13.13745051575805</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7189,7 +7259,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>18.95419104654828</v>
+        <v>12.81111740579007</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7198,7 +7268,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>18.22855564876591</v>
+        <v>13.3491615568396</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7207,7 +7277,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>17.88996643357271</v>
+        <v>13.15592757535251</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7216,7 +7286,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>17.05250173319984</v>
+        <v>12.32577927169939</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7225,7 +7295,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>16.04606601135039</v>
+        <v>11.31648008537989</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7234,7 +7304,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>16.00320959118871</v>
+        <v>11.26447777839911</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7243,7 +7313,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>16.34724901228181</v>
+        <v>11.60982584578702</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7252,7 +7322,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>17.14993405351945</v>
+        <v>12.41312066694941</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7261,7 +7331,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>18.65009854580537</v>
+        <v>13.90959488014177</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7270,7 +7340,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>18.3671916761219</v>
+        <v>13.62776880957006</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7279,7 +7349,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>17.0344357818525</v>
+        <v>12.29167609276245</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7288,7 +7358,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>20.33305956783006</v>
+        <v>15.58596488851442</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7297,7 +7367,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>21.34839237985958</v>
+        <v>16.60002034112383</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7306,7 +7376,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>21.51561502540302</v>
+        <v>16.76304248621284</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7315,7 +7385,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>19.98223734252998</v>
+        <v>15.23519951354016</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7324,7 +7394,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>20.15738903849016</v>
+        <v>15.41267480084842</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7333,7 +7403,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>21.51306963875518</v>
+        <v>16.76102884233491</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7342,7 +7412,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>21.02989031824578</v>
+        <v>16.28047556231107</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7351,7 +7421,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>21.63487347454515</v>
+        <v>16.88327966144683</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7360,7 +7430,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>24.46567825071468</v>
+        <v>19.71432781702297</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7369,7 +7439,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>22.51828609193563</v>
+        <v>17.78066095900619</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7378,7 +7448,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>22.62053770869053</v>
+        <v>17.87405240650855</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7387,7 +7457,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>21.72121714127938</v>
+        <v>16.97586471882356</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7396,7 +7466,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>21.80642043880882</v>
+        <v>17.05608708170375</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7405,7 +7475,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>22.67310660835922</v>
+        <v>17.93254793620146</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7414,7 +7484,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>22.22069813167368</v>
+        <v>17.47679247307425</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7423,7 +7493,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>23.11656929516777</v>
+        <v>18.37851360503078</v>
       </c>
     </row>
     <row r="145">
@@ -7431,7 +7501,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>23.95266949736168</v>
+        <v>19.20507446255426</v>
       </c>
     </row>
     <row r="146">
@@ -7478,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-58.04379425668549</v>
+        <v>-53.28974727273555</v>
       </c>
     </row>
     <row r="3">
@@ -7486,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-56.31527465752682</v>
+        <v>-51.55118393257681</v>
       </c>
     </row>
     <row r="4">
@@ -7494,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-56.76684469245117</v>
+        <v>-51.99849558258531</v>
       </c>
     </row>
     <row r="5">
@@ -7502,7 +7572,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-57.06661754220738</v>
+        <v>-52.30444041499752</v>
       </c>
     </row>
     <row r="6">
@@ -7510,7 +7580,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-57.09980846196513</v>
+        <v>-52.33288964458785</v>
       </c>
     </row>
     <row r="7">
@@ -7518,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-57.04341186492961</v>
+        <v>-52.28001299068784</v>
       </c>
     </row>
     <row r="8">
@@ -7526,7 +7596,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-57.28723423349136</v>
+        <v>-52.51240782553046</v>
       </c>
     </row>
     <row r="9">
@@ -7534,7 +7604,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-57.88831174253004</v>
+        <v>-53.12937766534822</v>
       </c>
     </row>
     <row r="10">
@@ -7542,7 +7612,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-56.71694609525548</v>
+        <v>-51.95707024285924</v>
       </c>
     </row>
     <row r="11">
@@ -7550,7 +7620,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-56.2169946879239</v>
+        <v>-51.4554760783068</v>
       </c>
     </row>
     <row r="12">
@@ -7558,7 +7628,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-57.36857728473871</v>
+        <v>-52.60002621528605</v>
       </c>
     </row>
     <row r="13">
@@ -7566,7 +7636,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-58.18205811014173</v>
+        <v>-53.41800332882688</v>
       </c>
     </row>
     <row r="14">
@@ -7574,7 +7644,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-57.67824235474247</v>
+        <v>-52.91083195224455</v>
       </c>
     </row>
     <row r="15">
@@ -7582,7 +7652,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-59.01696782564821</v>
+        <v>-54.25754108572652</v>
       </c>
     </row>
     <row r="16">
@@ -7590,7 +7660,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-59.26273351116546</v>
+        <v>-54.50252572583081</v>
       </c>
     </row>
     <row r="17">
@@ -7598,7 +7668,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-59.28648804084106</v>
+        <v>-54.52585248419298</v>
       </c>
     </row>
     <row r="18">
@@ -7606,7 +7676,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-60.53710996046706</v>
+        <v>-55.77162176303518</v>
       </c>
     </row>
     <row r="19">
@@ -7614,7 +7684,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-61.89318269135691</v>
+        <v>-57.1376000499418</v>
       </c>
     </row>
     <row r="20">
@@ -7622,7 +7692,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-61.47420728106887</v>
+        <v>-56.71291651876541</v>
       </c>
     </row>
     <row r="21">
@@ -7630,7 +7700,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-59.54869137995064</v>
+        <v>-54.79728635288121</v>
       </c>
     </row>
     <row r="22">
@@ -7638,7 +7708,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-59.51985170157646</v>
+        <v>-54.77283561421959</v>
       </c>
     </row>
     <row r="23">
@@ -7646,7 +7716,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-61.27432441243937</v>
+        <v>-56.51491084969742</v>
       </c>
     </row>
     <row r="24">
@@ -7654,7 +7724,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-60.90983136979116</v>
+        <v>-56.14742640183501</v>
       </c>
     </row>
     <row r="25">
@@ -7662,7 +7732,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-60.59129394191072</v>
+        <v>-55.83780176991255</v>
       </c>
     </row>
     <row r="26">
@@ -7670,7 +7740,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-61.99370360561954</v>
+        <v>-57.23362425668869</v>
       </c>
     </row>
     <row r="27">
@@ -7678,7 +7748,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-63.13362830256055</v>
+        <v>-58.37695419910983</v>
       </c>
     </row>
     <row r="28">
@@ -7686,7 +7756,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-62.29005941623451</v>
+        <v>-57.5343911447121</v>
       </c>
     </row>
     <row r="29">
@@ -7694,7 +7764,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-63.16670397182672</v>
+        <v>-58.40819498112374</v>
       </c>
     </row>
     <row r="30">
@@ -7702,7 +7772,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-64.32438048025291</v>
+        <v>-59.5811710800558</v>
       </c>
     </row>
     <row r="31">
@@ -7710,7 +7780,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-65.28678048070083</v>
+        <v>-60.5279478022922</v>
       </c>
     </row>
     <row r="32">
@@ -7718,7 +7788,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-65.00498119124701</v>
+        <v>-60.25840595693887</v>
       </c>
     </row>
     <row r="33">
@@ -7726,7 +7796,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-65.4622999517415</v>
+        <v>-60.72554304010891</v>
       </c>
     </row>
     <row r="34">
@@ -7734,7 +7804,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-63.21900690169113</v>
+        <v>-58.4688195095963</v>
       </c>
     </row>
     <row r="35">
@@ -7742,7 +7812,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-61.95186358003781</v>
+        <v>-57.19777873287985</v>
       </c>
     </row>
     <row r="36">
@@ -7750,7 +7820,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-62.2458435606243</v>
+        <v>-57.77253600807509</v>
       </c>
     </row>
     <row r="37">
@@ -7758,7 +7828,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-63.34350359962608</v>
+        <v>-58.59535397154554</v>
       </c>
     </row>
     <row r="38">
@@ -7766,7 +7836,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-62.71793090188187</v>
+        <v>-57.96833752271914</v>
       </c>
     </row>
     <row r="39">
@@ -7774,7 +7844,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-62.17349001098076</v>
+        <v>-57.65325159869599</v>
       </c>
     </row>
     <row r="40">
@@ -7782,7 +7852,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-61.76602751880377</v>
+        <v>-57.00416762005574</v>
       </c>
     </row>
     <row r="41">
@@ -7790,7 +7860,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-62.28659970283554</v>
+        <v>-57.54271926061433</v>
       </c>
     </row>
     <row r="42">
@@ -7798,7 +7868,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-63.00777837101582</v>
+        <v>-59.38260783268797</v>
       </c>
     </row>
     <row r="43">
@@ -7806,7 +7876,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-61.22195702193233</v>
+        <v>-56.46706775862259</v>
       </c>
     </row>
     <row r="44">
@@ -7814,7 +7884,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-63.0517391183317</v>
+        <v>-58.29791021578081</v>
       </c>
     </row>
     <row r="45">
@@ -7822,7 +7892,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-61.44871747209205</v>
+        <v>-57.29580813772611</v>
       </c>
     </row>
     <row r="46">
@@ -7830,7 +7900,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-62.02060063623766</v>
+        <v>-57.26582713618866</v>
       </c>
     </row>
     <row r="47">
@@ -7838,7 +7908,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-62.33164369156666</v>
+        <v>-57.57543058457696</v>
       </c>
     </row>
     <row r="48">
@@ -7846,7 +7916,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-61.86625063166687</v>
+        <v>-57.11306821103592</v>
       </c>
     </row>
     <row r="49">
@@ -7854,7 +7924,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-61.30884360319057</v>
+        <v>-56.55003518347476</v>
       </c>
     </row>
     <row r="50">
@@ -7862,7 +7932,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-60.68009278637267</v>
+        <v>-55.9185237070442</v>
       </c>
     </row>
     <row r="51">
@@ -7870,7 +7940,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-62.25769905080303</v>
+        <v>-57.50153404155233</v>
       </c>
     </row>
     <row r="52">
@@ -7878,7 +7948,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-62.36135210744891</v>
+        <v>-57.60897275061161</v>
       </c>
     </row>
     <row r="53">
@@ -7886,7 +7956,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-61.70755221093688</v>
+        <v>-56.95500183561842</v>
       </c>
     </row>
     <row r="54">
@@ -7894,7 +7964,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-61.9206899772532</v>
+        <v>-57.16576125616143</v>
       </c>
     </row>
     <row r="55">
@@ -7902,7 +7972,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-60.10513626504579</v>
+        <v>-55.34508317223384</v>
       </c>
     </row>
     <row r="56">
@@ -7910,7 +7980,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-61.17262375391917</v>
+        <v>-56.40801511080565</v>
       </c>
     </row>
     <row r="57">
@@ -7918,7 +7988,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-62.27632537803815</v>
+        <v>-57.5185882489321</v>
       </c>
     </row>
     <row r="58">
@@ -7926,7 +7996,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-60.5963099697492</v>
+        <v>-55.83611944346637</v>
       </c>
     </row>
     <row r="59">
@@ -7934,7 +8004,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-60.3724682516411</v>
+        <v>-55.61618127677234</v>
       </c>
     </row>
     <row r="60">
@@ -7942,7 +8012,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-60.91971823736962</v>
+        <v>-56.16671761432548</v>
       </c>
     </row>
     <row r="61">
@@ -7950,7 +8020,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-60.89000364048696</v>
+        <v>-56.13094170503103</v>
       </c>
     </row>
     <row r="62">
@@ -7958,7 +8028,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-60.62902370481213</v>
+        <v>-55.86441740776166</v>
       </c>
     </row>
     <row r="63">
@@ -7966,7 +8036,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-59.24801032946961</v>
+        <v>-54.48583729072123</v>
       </c>
     </row>
     <row r="64">
@@ -7974,7 +8044,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-58.47391382617278</v>
+        <v>-53.71092415685548</v>
       </c>
     </row>
     <row r="65">
@@ -7982,7 +8052,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-58.13122987863778</v>
+        <v>-53.36161337970593</v>
       </c>
     </row>
     <row r="66">
@@ -7990,7 +8060,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-57.56977929179995</v>
+        <v>-52.79836983535925</v>
       </c>
     </row>
     <row r="67">
@@ -7998,7 +8068,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-56.90512745496186</v>
+        <v>-52.13101854128269</v>
       </c>
     </row>
     <row r="68">
@@ -8006,7 +8076,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-57.50270795582196</v>
+        <v>-52.74883527252738</v>
       </c>
     </row>
     <row r="69">
@@ -8014,7 +8084,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-56.08516864701281</v>
+        <v>-51.3144994416415</v>
       </c>
     </row>
     <row r="70">
@@ -8022,7 +8092,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-56.08487903262422</v>
+        <v>-51.31456320619926</v>
       </c>
     </row>
     <row r="71">
@@ -8030,7 +8100,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-55.78295222698317</v>
+        <v>-51.00604107415349</v>
       </c>
     </row>
     <row r="72">
@@ -8038,7 +8108,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-54.65191179986493</v>
+        <v>-49.87376469371571</v>
       </c>
     </row>
     <row r="73">
@@ -8046,7 +8116,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-54.47415715334341</v>
+        <v>-49.69956029788154</v>
       </c>
     </row>
     <row r="74">
@@ -8054,7 +8124,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-54.76906578310431</v>
+        <v>-49.99832105842458</v>
       </c>
     </row>
     <row r="75">
@@ -8062,7 +8132,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-54.38690145881056</v>
+        <v>-49.61293367726839</v>
       </c>
     </row>
     <row r="76">
@@ -8070,7 +8140,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-53.94647163035134</v>
+        <v>-49.17044379628004</v>
       </c>
     </row>
     <row r="77">
@@ -8078,7 +8148,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-53.74292821331721</v>
+        <v>-48.96085406041126</v>
       </c>
     </row>
     <row r="78">
@@ -8086,7 +8156,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-55.50828100818312</v>
+        <v>-50.73321451427277</v>
       </c>
     </row>
     <row r="79">
@@ -8094,7 +8164,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-56.54742236832465</v>
+        <v>-51.76960295872659</v>
       </c>
     </row>
     <row r="80">
@@ -8102,7 +8172,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-56.20550973619438</v>
+        <v>-51.43639744705511</v>
       </c>
     </row>
     <row r="81">
@@ -8110,7 +8180,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-53.50963237943542</v>
+        <v>-48.73271524610847</v>
       </c>
     </row>
     <row r="82">
@@ -8118,7 +8188,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-53.17733311565276</v>
+        <v>-48.39964626715022</v>
       </c>
     </row>
     <row r="83">
@@ -8126,7 +8196,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-53.98426820470166</v>
+        <v>-49.19964180294784</v>
       </c>
     </row>
     <row r="84">
@@ -8134,7 +8204,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-52.67017685380463</v>
+        <v>-47.88916734022514</v>
       </c>
     </row>
     <row r="85">
@@ -8142,7 +8212,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-55.00087633469587</v>
+        <v>-50.22235857183152</v>
       </c>
     </row>
     <row r="86">
@@ -8150,7 +8220,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-54.03188553951576</v>
+        <v>-49.26181715733653</v>
       </c>
     </row>
     <row r="87">
@@ -8158,7 +8228,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-54.87185518364982</v>
+        <v>-50.10296310818978</v>
       </c>
     </row>
     <row r="88">
@@ -8166,7 +8236,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-53.14082357856838</v>
+        <v>-48.36266267316572</v>
       </c>
     </row>
     <row r="89">
@@ -8174,7 +8244,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-53.30427352432576</v>
+        <v>-48.53129142877616</v>
       </c>
     </row>
     <row r="90">
@@ -8182,7 +8252,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-54.32421620999371</v>
+        <v>-49.54686350477444</v>
       </c>
     </row>
     <row r="91">
@@ -8190,7 +8260,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-56.42428066760418</v>
+        <v>-51.66132856900249</v>
       </c>
     </row>
     <row r="92">
@@ -8198,7 +8268,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-57.77492618345721</v>
+        <v>-53.00281625951636</v>
       </c>
     </row>
     <row r="93">
@@ -8206,7 +8276,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-57.60514056612737</v>
+        <v>-52.83025690015805</v>
       </c>
     </row>
     <row r="94">
@@ -8214,7 +8284,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-57.95489150019027</v>
+        <v>-53.17192884398619</v>
       </c>
     </row>
     <row r="95">
@@ -8222,7 +8292,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-57.66018059557865</v>
+        <v>-52.8888470488449</v>
       </c>
     </row>
     <row r="96">
@@ -8230,7 +8300,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-55.94422077425204</v>
+        <v>-51.16446885956557</v>
       </c>
     </row>
     <row r="97">
@@ -8238,7 +8308,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-57.13639490085227</v>
+        <v>-52.36355281515461</v>
       </c>
     </row>
     <row r="98">
@@ -8246,7 +8316,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-54.79487176007413</v>
+        <v>-50.01703959359854</v>
       </c>
     </row>
     <row r="99">
@@ -8254,7 +8324,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-55.14643598562039</v>
+        <v>-50.36937611812543</v>
       </c>
     </row>
     <row r="100">
@@ -8262,7 +8332,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-55.2021761359132</v>
+        <v>-50.42175687376132</v>
       </c>
     </row>
     <row r="101">
@@ -8270,7 +8340,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-54.07432591467343</v>
+        <v>-49.29784933778454</v>
       </c>
     </row>
     <row r="102">
@@ -8278,7 +8348,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-54.11130808286288</v>
+        <v>-49.33577811328302</v>
       </c>
     </row>
     <row r="103">
@@ -8286,7 +8356,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-55.49646007174363</v>
+        <v>-50.72204654917125</v>
       </c>
     </row>
     <row r="104">
@@ -8294,7 +8364,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-56.6614896317887</v>
+        <v>-51.88482310260842</v>
       </c>
     </row>
     <row r="105">
@@ -8302,7 +8372,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-55.94681322382907</v>
+        <v>-51.17111363231069</v>
       </c>
     </row>
     <row r="106">
@@ -8310,7 +8380,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-55.75557435257839</v>
+        <v>-50.98018738735897</v>
       </c>
     </row>
     <row r="107">
@@ -8318,7 +8388,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-55.50795659523274</v>
+        <v>-50.73833175440637</v>
       </c>
     </row>
     <row r="108">
@@ -8326,7 +8396,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-55.80403871231466</v>
+        <v>-51.03076384378127</v>
       </c>
     </row>
     <row r="109">
@@ -8334,7 +8404,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-57.10088981297659</v>
+        <v>-52.33395989854655</v>
       </c>
     </row>
     <row r="110">
@@ -8342,7 +8412,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-56.37207988014106</v>
+        <v>-51.60784031483823</v>
       </c>
     </row>
     <row r="111">
@@ -8350,7 +8420,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-56.6973595264836</v>
+        <v>-51.93728268428163</v>
       </c>
     </row>
     <row r="112">
@@ -8358,7 +8428,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-61.02305128213723</v>
+        <v>-56.27206615491062</v>
       </c>
     </row>
     <row r="113">
@@ -8366,7 +8436,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-63.13173674937036</v>
+        <v>-58.36533077516764</v>
       </c>
     </row>
     <row r="114">
@@ -8374,7 +8444,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-62.68037828455684</v>
+        <v>-58.43952719299596</v>
       </c>
     </row>
     <row r="115">
@@ -8382,7 +8452,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-62.62952539652309</v>
+        <v>-57.88061041948908</v>
       </c>
     </row>
     <row r="116">
@@ -8390,7 +8460,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-62.19600715525435</v>
+        <v>-57.44772715675879</v>
       </c>
     </row>
     <row r="117">
@@ -8398,7 +8468,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-63.23039864514791</v>
+        <v>-58.48517700136627</v>
       </c>
     </row>
     <row r="118">
@@ -8406,7 +8476,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-62.37003792557509</v>
+        <v>-57.61771534849397</v>
       </c>
     </row>
     <row r="119">
@@ -8414,7 +8484,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-62.96890138285167</v>
+        <v>-58.20957664557967</v>
       </c>
     </row>
     <row r="120">
@@ -8422,7 +8492,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-62.99077842436282</v>
+        <v>-58.24774810875188</v>
       </c>
     </row>
     <row r="121">
@@ -8430,7 +8500,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-64.01187062868085</v>
+        <v>-59.26305102044898</v>
       </c>
     </row>
     <row r="122">
@@ -8438,7 +8508,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-64.4216166957751</v>
+        <v>-59.67113582718457</v>
       </c>
     </row>
     <row r="123">
@@ -8446,7 +8516,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-62.65045629541736</v>
+        <v>-57.89715497870561</v>
       </c>
     </row>
     <row r="124">
@@ -8454,7 +8524,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-65.59484148936312</v>
+        <v>-60.84087546013755</v>
       </c>
     </row>
     <row r="125">
@@ -8462,7 +8532,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-63.20985862070634</v>
+        <v>-58.46144861144275</v>
       </c>
     </row>
     <row r="126">
@@ -8470,7 +8540,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-61.87351842721953</v>
+        <v>-57.11662443577895</v>
       </c>
     </row>
     <row r="127">
@@ -8478,7 +8548,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-62.19358896152603</v>
+        <v>-57.43723519335816</v>
       </c>
     </row>
     <row r="128">
@@ -8486,7 +8556,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-61.8654814073633</v>
+        <v>-57.10005515507008</v>
       </c>
     </row>
     <row r="129">
@@ -8494,7 +8564,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-62.03586972851898</v>
+        <v>-57.27923176700489</v>
       </c>
     </row>
     <row r="130">
@@ -8502,7 +8572,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-60.32870824623843</v>
+        <v>-55.56326787914564</v>
       </c>
     </row>
     <row r="131">
@@ -8510,7 +8580,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-60.6082860111559</v>
+        <v>-55.83884298310049</v>
       </c>
     </row>
     <row r="132">
@@ -8518,7 +8588,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-60.36582302142141</v>
+        <v>-55.60024370581037</v>
       </c>
     </row>
     <row r="133">
@@ -8526,7 +8596,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-57.87716874732524</v>
+        <v>-53.1133708859421</v>
       </c>
     </row>
     <row r="134">
@@ -8534,7 +8604,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-58.43910091292646</v>
+        <v>-53.68378272289254</v>
       </c>
     </row>
     <row r="135">
@@ -8542,7 +8612,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-57.84879650645269</v>
+        <v>-53.08174817023038</v>
       </c>
     </row>
     <row r="136">
@@ -8550,7 +8620,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-57.75555087159994</v>
+        <v>-52.99552653280449</v>
       </c>
     </row>
     <row r="137">
@@ -8558,7 +8628,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-57.84143564240586</v>
+        <v>-53.08256186497695</v>
       </c>
     </row>
     <row r="138">
@@ -8566,7 +8636,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-58.28562966135186</v>
+        <v>-53.52538264744215</v>
       </c>
     </row>
     <row r="139">
@@ -8574,7 +8644,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-57.48113465378277</v>
+        <v>-52.7227186309192</v>
       </c>
     </row>
     <row r="140">
@@ -8582,7 +8652,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-57.29521602471618</v>
+        <v>-52.53081920522109</v>
       </c>
     </row>
     <row r="141">
@@ -8590,7 +8660,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-58.55441067739675</v>
+        <v>-53.79157889222662</v>
       </c>
     </row>
     <row r="142">
@@ -8598,7 +8668,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-58.00572048715257</v>
+        <v>-53.24142968708787</v>
       </c>
     </row>
     <row r="143">
@@ -8606,7 +8676,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-57.20723764495764</v>
+        <v>-52.44209663998242</v>
       </c>
     </row>
     <row r="144">
@@ -8614,7 +8684,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-57.70116694101742</v>
+        <v>-52.93886317721089</v>
       </c>
     </row>
     <row r="145">
@@ -8622,7 +8692,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-57.94155103947423</v>
+        <v>-53.1743713906827</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,33 +125,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -440,101 +508,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>baseKV</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>VM</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>VNLB</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VNUB</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>VELB</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>VEUB</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1714,7 +1687,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1732,7 +1705,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="5" min="5" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1800,7 +1773,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012005671</v>
+        <v>2016006693</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1788,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2015004995</v>
+        <v>2012006209</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1826,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1849,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012007210</v>
+        <v>2016006127</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1864,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1887,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016006811</v>
+        <v>2015007786</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1952,7 +1925,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2012001449</v>
+        <v>2016008101</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1940,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1963,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2015007570</v>
+        <v>2014003865</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +1978,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2001,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2016006505</v>
+        <v>2012005248</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2016,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2039,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012003922</v>
+        <v>2015007759</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2054,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2077,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015005104</v>
+        <v>2012006817</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2142,7 +2115,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013007756</v>
+        <v>2013007789</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2130,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2153,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2016006978</v>
+        <v>2012002990</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2195,7 +2168,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2217,7 +2190,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2235,7 +2208,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2267,169 +2240,169 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012005671</v>
+        <v>2016006693</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>71.60107390327785</v>
+        <v>20.48986852424406</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2015004995</v>
+        <v>2012006209</v>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>23.57390537446736</v>
+        <v>51.0778190356624</v>
       </c>
       <c r="E3" t="n">
-        <v>29.99999999446736</v>
+        <v>51.91811497685172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012007210</v>
+        <v>2012006209</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>72.29630878327788</v>
+        <v>58.44537756</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2016006811</v>
+        <v>2016006127</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>70.46166118327787</v>
+        <v>22.96974655787727</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2012001449</v>
+        <v>2015007786</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D6" t="n">
-        <v>5.75</v>
+        <v>68.82013438327786</v>
       </c>
       <c r="E6" t="n">
-        <v>7.920666666666667</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2012001449</v>
+        <v>2016008101</v>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D7" t="n">
-        <v>5.75</v>
+        <v>9.348949114467359</v>
       </c>
       <c r="E7" t="n">
-        <v>63.78255388491833</v>
+        <v>29.99999999446737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2015007570</v>
+        <v>2014003865</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>26.95512871446736</v>
+        <v>55.5582216</v>
       </c>
       <c r="E8" t="n">
-        <v>28.49180900255233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2015007570</v>
+        <v>2012005248</v>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C9" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2319352</v>
+        <v>33.43389226054121</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>39.73397807487215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2016006505</v>
+        <v>2015007759</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>120</v>
       </c>
       <c r="D10" t="n">
-        <v>71.52382558327784</v>
+        <v>29.28030314646736</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2012003922</v>
+        <v>2012006817</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D11" t="n">
-        <v>69.84206529999999</v>
+        <v>66.6797121832779</v>
       </c>
       <c r="E11" t="n">
         <v>75</v>
@@ -2437,156 +2410,58 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2012003922</v>
+        <v>2013007789</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D12" t="n">
-        <v>59.550336</v>
+        <v>68.94888158327787</v>
       </c>
       <c r="E12" t="n">
-        <v>73.97031331694195</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2012003922</v>
+        <v>2012002990</v>
       </c>
       <c r="B13" t="n">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" t="n">
-        <v>73.91852350327787</v>
+        <v>73.06879198327786</v>
       </c>
       <c r="E13" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2012003922</v>
-      </c>
-      <c r="B14" t="n">
-        <v>126</v>
-      </c>
-      <c r="C14" t="n">
-        <v>143</v>
-      </c>
-      <c r="D14" t="n">
-        <v>72.91429536</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>2015005104</v>
-      </c>
-      <c r="B15" t="n">
-        <v>26</v>
-      </c>
-      <c r="C15" t="n">
-        <v>120</v>
-      </c>
-      <c r="D15" t="n">
-        <v>66.6797121832779</v>
-      </c>
-      <c r="E15" t="n">
-        <v>75</v>
-      </c>
+      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>2013007756</v>
-      </c>
-      <c r="B16" t="n">
-        <v>28</v>
-      </c>
-      <c r="C16" t="n">
-        <v>39</v>
-      </c>
-      <c r="D16" t="n">
-        <v>22.218943422</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24</v>
-      </c>
+      <c r="A16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>2013007756</v>
-      </c>
-      <c r="B17" t="n">
-        <v>47</v>
-      </c>
-      <c r="C17" t="n">
-        <v>60</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.77454620200001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>23.582526633882</v>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>2013007756</v>
-      </c>
-      <c r="B18" t="n">
-        <v>68</v>
-      </c>
-      <c r="C18" t="n">
-        <v>126</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16.11519960224405</v>
-      </c>
-      <c r="E18" t="n">
-        <v>24</v>
-      </c>
+      <c r="A18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2013007756</v>
-      </c>
-      <c r="B19" t="n">
-        <v>128</v>
-      </c>
-      <c r="C19" t="n">
-        <v>143</v>
-      </c>
-      <c r="D19" t="n">
-        <v>23.86320609824405</v>
-      </c>
-      <c r="E19" t="n">
-        <v>24</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>2016006978</v>
-      </c>
-      <c r="B20" t="n">
-        <v>37</v>
-      </c>
-      <c r="C20" t="n">
-        <v>111</v>
-      </c>
-      <c r="D20" t="n">
-        <v>28.44988370646736</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30</v>
-      </c>
+      <c r="A20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
@@ -2616,7 +2491,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2634,8 +2509,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="11.7109375" customWidth="1" min="2" max="2"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="2" min="2" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5536,7 +5411,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5611,7 +5486,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5697,7 +5572,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5808,7 +5683,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5854,7 +5729,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6173,7 +6048,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6191,10 +6066,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6215,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>17.53491314808076</v>
+        <v>13.80642594701052</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6224,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>19.02741676544225</v>
+        <v>15.17953496982859</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6233,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>17.78039839121953</v>
+        <v>14.06151347375184</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6242,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>16.41925186744453</v>
+        <v>12.71049044637347</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6251,7 +6126,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>17.8742154047727</v>
+        <v>14.05784126452157</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6260,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>16.88380697889617</v>
+        <v>13.25628191219073</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6269,7 +6144,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>18.51462741143149</v>
+        <v>14.72246798691054</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6278,7 +6153,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>16.92330319542777</v>
+        <v>13.28625147322435</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6287,7 +6162,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>17.89291697881123</v>
+        <v>14.23555529849479</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6296,7 +6171,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>17.24872518968181</v>
+        <v>13.64875508720553</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6305,7 +6180,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>15.05845155788779</v>
+        <v>11.41555712477152</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6314,7 +6189,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>17.41806937887878</v>
+        <v>13.71665368695114</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6323,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>17.08744821512159</v>
+        <v>13.33833361749874</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6332,7 +6207,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>15.33402644660712</v>
+        <v>11.72860148758121</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6341,7 +6216,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>17.06291215329396</v>
+        <v>13.3923629601176</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6350,7 +6225,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>15.99102068238244</v>
+        <v>12.26258285512816</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6359,7 +6234,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>16.09189941786754</v>
+        <v>12.40961265992529</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6368,7 +6243,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>15.81095760778094</v>
+        <v>12.15648051643209</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6377,7 +6252,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>15.65728622457223</v>
+        <v>12.04811938348599</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6386,7 +6261,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>15.01724682481211</v>
+        <v>11.32072363524255</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6395,7 +6270,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>15.62858380982619</v>
+        <v>12.04875347034188</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6404,7 +6279,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>16.42282732927865</v>
+        <v>12.72604261117013</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6413,7 +6288,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>16.14598646737191</v>
+        <v>12.52981858681168</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6422,7 +6297,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>13.20191600841142</v>
+        <v>9.732293654258564</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6431,7 +6306,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>14.25735919209746</v>
+        <v>10.71203780567425</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6440,7 +6315,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>14.43376579830188</v>
+        <v>10.87315626247772</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6449,7 +6324,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>15.22297495917295</v>
+        <v>11.66440568910739</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6458,7 +6333,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>12.99999493987792</v>
+        <v>9.635907604704464</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6467,7 +6342,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>11.31026878119846</v>
+        <v>7.979383036720541</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6476,7 +6351,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>12.02217727256438</v>
+        <v>8.639537181938826</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6485,7 +6360,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>11.36720356062364</v>
+        <v>8.018885544795996</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6494,7 +6369,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>12.93572778210438</v>
+        <v>9.571357762324665</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6503,7 +6378,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>13.35090445368457</v>
+        <v>9.865624380924997</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6512,7 +6387,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>13.71157514485916</v>
+        <v>10.2923070414834</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6521,7 +6396,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>14.37275600843045</v>
+        <v>10.87930102162606</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6530,7 +6405,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>14.85723344359808</v>
+        <v>11.32639810096156</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6539,7 +6414,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>14.9644540360641</v>
+        <v>11.37545197804294</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6548,7 +6423,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>14.34202517323292</v>
+        <v>10.79383286639666</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6557,7 +6432,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>13.56694315996195</v>
+        <v>10.07738680199018</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6566,7 +6441,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>13.83744977823871</v>
+        <v>10.38690811741204</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6575,7 +6450,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>12.20391091369437</v>
+        <v>8.779193320597271</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6584,7 +6459,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>12.44113830123007</v>
+        <v>9.115065140926143</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6593,7 +6468,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>12.10327266281596</v>
+        <v>8.816071693973743</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6602,7 +6477,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>11.54960817945709</v>
+        <v>8.142421856424683</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6611,7 +6486,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>13.31346328506516</v>
+        <v>9.795283491263771</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6620,7 +6495,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>11.85451082815026</v>
+        <v>8.477918657142007</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6629,7 +6504,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>13.58726242557932</v>
+        <v>10.16998058844169</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6638,7 +6513,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>13.27470895805693</v>
+        <v>9.825119071442252</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6647,7 +6522,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>14.6087301725828</v>
+        <v>11.11580269713567</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6656,7 +6531,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>14.11878275141817</v>
+        <v>10.56600201706163</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6665,7 +6540,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>13.09952099897673</v>
+        <v>9.660615450003194</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6674,7 +6549,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>12.38531276509471</v>
+        <v>8.968896119015247</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6683,7 +6558,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>13.86798470575111</v>
+        <v>10.36995500344543</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6692,7 +6567,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>14.41189339123124</v>
+        <v>10.98599647297402</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6701,7 +6576,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>13.32635977539866</v>
+        <v>9.895867980013493</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6710,7 +6585,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>16.01882530401544</v>
+        <v>12.42780431961972</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6719,7 +6594,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>16.18334212908643</v>
+        <v>12.60386200396235</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6728,7 +6603,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>16.04156886404783</v>
+        <v>12.35192247755797</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6737,7 +6612,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>16.93862303042533</v>
+        <v>13.30662328393212</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6746,7 +6621,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>17.48497507447599</v>
+        <v>13.81406349097673</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6755,7 +6630,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>18.02820034553257</v>
+        <v>14.29825926330478</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6764,7 +6639,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>17.36792151614604</v>
+        <v>13.59765760040828</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6773,7 +6648,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>19.3371084763953</v>
+        <v>15.3838331941479</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6782,7 +6657,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>19.43088957781834</v>
+        <v>15.55429341319515</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6791,7 +6666,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>22.02402425493734</v>
+        <v>18.05056323913949</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6800,7 +6675,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>19.37098741793896</v>
+        <v>15.52325095520854</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6809,7 +6684,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>21.35396942905998</v>
+        <v>17.32250871144253</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6818,7 +6693,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>23.55634206738564</v>
+        <v>19.37634951625315</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6827,7 +6702,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>23.36247863897874</v>
+        <v>19.27334598909201</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6836,7 +6711,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>23.45581067201226</v>
+        <v>19.28154479012514</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6845,7 +6720,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>24.97270824334556</v>
+        <v>20.74891952007449</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6854,7 +6729,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>25.63675448369272</v>
+        <v>21.30946298495997</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6863,7 +6738,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>24.14164231824452</v>
+        <v>20.02434246357732</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6872,7 +6747,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>26.61779530439447</v>
+        <v>22.26187924831701</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6881,7 +6756,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>25.56789605308226</v>
+        <v>21.28603555127995</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6890,7 +6765,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>24.21843844134553</v>
+        <v>20.07372385989617</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6899,7 +6774,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>25.13073101138565</v>
+        <v>20.86777496660096</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6908,7 +6783,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>24.86140747457528</v>
+        <v>20.6003555399334</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6917,7 +6792,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>22.65443644088252</v>
+        <v>18.51338908093152</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6926,7 +6801,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>26.44921809315114</v>
+        <v>22.062627337399</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6935,7 +6810,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>24.65149254691368</v>
+        <v>20.4203148021732</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6944,7 +6819,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>26.70844069548311</v>
+        <v>22.264700787834</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6953,7 +6828,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>28.4499689130961</v>
+        <v>23.95632949445711</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6962,7 +6837,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>25.67215267056646</v>
+        <v>21.42434250647844</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6971,7 +6846,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>24.48190511656718</v>
+        <v>20.32250888450092</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6980,7 +6855,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>26.28784968403938</v>
+        <v>21.99861806714039</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6989,7 +6864,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>24.85295778865401</v>
+        <v>20.62698775101656</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6998,7 +6873,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>24.10688741559819</v>
+        <v>19.91619556774722</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7007,7 +6882,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>24.88851124548127</v>
+        <v>20.6628339297721</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7016,7 +6891,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>19.98519564471881</v>
+        <v>16.0498176869213</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7025,7 +6900,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>18.17841883835416</v>
+        <v>14.34755505310156</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7034,7 +6909,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>18.23035219508183</v>
+        <v>14.30198496626277</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7043,7 +6918,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>18.74965302513339</v>
+        <v>14.81905271387238</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7052,7 +6927,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>18.05257897785359</v>
+        <v>14.17951060047415</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7061,7 +6936,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>21.36758363509797</v>
+        <v>17.29369435504879</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7070,7 +6945,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>19.29518740232044</v>
+        <v>15.35943083343548</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7079,7 +6954,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>20.76557244688037</v>
+        <v>16.8365844443754</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7088,7 +6963,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>22.01374692911799</v>
+        <v>17.94009844338409</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7097,7 +6972,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>21.87403445475956</v>
+        <v>17.8188070042895</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7106,7 +6981,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>23.3379434295636</v>
+        <v>19.13314644492575</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7115,7 +6990,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>24.43183012229424</v>
+        <v>20.2046045084045</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7124,7 +6999,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>21.93691454395521</v>
+        <v>17.92593758597793</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7133,7 +7008,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>22.75006744898185</v>
+        <v>18.61028516871841</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7142,7 +7017,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>22.01021994483321</v>
+        <v>17.97015399056322</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7151,7 +7026,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>23.37633776629426</v>
+        <v>19.20348080967205</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7160,7 +7035,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>22.5555189039607</v>
+        <v>18.51424813573507</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7169,7 +7044,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>23.19343557163518</v>
+        <v>19.04022102055254</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7178,7 +7053,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>21.1599370341352</v>
+        <v>17.17938682460438</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7187,7 +7062,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>21.45415538487363</v>
+        <v>17.46608335662714</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7196,7 +7071,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>19.28961176929013</v>
+        <v>15.41390912566627</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7205,7 +7080,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>16.63561050729255</v>
+        <v>12.88231078364373</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7214,7 +7089,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>12.85817987389888</v>
+        <v>9.306817982221409</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7223,7 +7098,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>13.35033417430123</v>
+        <v>9.876152252625001</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7232,7 +7107,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>14.30614820776293</v>
+        <v>10.69679241342054</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7241,7 +7116,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>15.0591705380933</v>
+        <v>11.54548159857096</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7250,7 +7125,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>13.13745051575805</v>
+        <v>9.655052699188424</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7259,7 +7134,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>12.81111740579007</v>
+        <v>9.424182900245624</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7268,7 +7143,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>13.3491615568396</v>
+        <v>9.954913409209851</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7277,7 +7152,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>13.15592757535251</v>
+        <v>9.765092925671695</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7286,7 +7161,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>12.32577927169939</v>
+        <v>9.028015229268144</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7295,7 +7170,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>11.31648008537989</v>
+        <v>8.043021303374079</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7304,7 +7179,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>11.26447777839911</v>
+        <v>7.923376630354936</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7313,7 +7188,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>11.60982584578702</v>
+        <v>8.26579069231183</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7322,7 +7197,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>12.41312066694941</v>
+        <v>9.034266030539298</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7331,7 +7206,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>13.90959488014177</v>
+        <v>10.4176941579862</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7340,7 +7215,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>13.62776880957006</v>
+        <v>10.16753022492573</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7349,7 +7224,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>12.29167609276245</v>
+        <v>8.869760116947727</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7358,7 +7233,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>15.58596488851442</v>
+        <v>11.96017771542756</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7367,7 +7242,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>16.60002034112383</v>
+        <v>12.91474199778093</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7376,7 +7251,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>16.76304248621284</v>
+        <v>13.03038725382963</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7385,7 +7260,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>15.23519951354016</v>
+        <v>11.60799642057365</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7394,7 +7269,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>15.41267480084842</v>
+        <v>11.80918613768329</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7403,7 +7278,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>16.76102884233491</v>
+        <v>13.03671699092392</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7412,7 +7287,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>16.28047556231107</v>
+        <v>12.60031832836673</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7421,7 +7296,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>16.88327966144683</v>
+        <v>13.14811163940321</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7430,7 +7305,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>19.71432781702297</v>
+        <v>15.84804399690369</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7439,7 +7314,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>17.78066095900619</v>
+        <v>14.10848749753523</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7448,7 +7323,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>17.87405240650855</v>
+        <v>14.13288766012444</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7457,7 +7332,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>16.97586471882356</v>
+        <v>13.27796700377581</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7466,7 +7341,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>17.05608708170375</v>
+        <v>13.32509922119474</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7475,7 +7350,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>17.93254793620146</v>
+        <v>14.21086973438391</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7484,7 +7359,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>17.47679247307425</v>
+        <v>13.77567815397484</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7493,7 +7368,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>18.37851360503078</v>
+        <v>14.69322525977762</v>
       </c>
     </row>
     <row r="145">
@@ -7501,14 +7376,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>19.20507446255426</v>
+        <v>15.39528530300241</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -7526,8 +7401,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7548,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-53.28974727273555</v>
+        <v>-33.35929619129402</v>
       </c>
     </row>
     <row r="3">
@@ -7556,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-51.55118393257681</v>
+        <v>-32.19374821397935</v>
       </c>
     </row>
     <row r="4">
@@ -7564,7 +7439,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-51.99849558258531</v>
+        <v>-32.46765365178059</v>
       </c>
     </row>
     <row r="5">
@@ -7572,7 +7447,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-52.30444041499752</v>
+        <v>-32.70177191249974</v>
       </c>
     </row>
     <row r="6">
@@ -7580,7 +7455,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-52.33288964458785</v>
+        <v>-32.70305392439524</v>
       </c>
     </row>
     <row r="7">
@@ -7588,7 +7463,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-52.28001299068784</v>
+        <v>-32.69499088374398</v>
       </c>
     </row>
     <row r="8">
@@ -7596,7 +7471,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-52.51240782553046</v>
+        <v>-32.7701398589454</v>
       </c>
     </row>
     <row r="9">
@@ -7604,7 +7479,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-53.12937766534822</v>
+        <v>-33.27854921509147</v>
       </c>
     </row>
     <row r="10">
@@ -7612,7 +7487,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-51.95707024285924</v>
+        <v>-32.49528351712586</v>
       </c>
     </row>
     <row r="11">
@@ -7620,7 +7495,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-51.4554760783068</v>
+        <v>-32.15577806045913</v>
       </c>
     </row>
     <row r="12">
@@ -7628,7 +7503,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-52.60002621528605</v>
+        <v>-32.86590019190233</v>
       </c>
     </row>
     <row r="13">
@@ -7636,7 +7511,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-53.41800332882688</v>
+        <v>-33.43391331812732</v>
       </c>
     </row>
     <row r="14">
@@ -7644,7 +7519,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-52.91083195224455</v>
+        <v>-33.09344554722746</v>
       </c>
     </row>
     <row r="15">
@@ -7652,7 +7527,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-54.25754108572652</v>
+        <v>-34.02308395908299</v>
       </c>
     </row>
     <row r="16">
@@ -7660,7 +7535,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-54.50252572583081</v>
+        <v>-34.17960516880829</v>
       </c>
     </row>
     <row r="17">
@@ -7668,7 +7543,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-54.52585248419298</v>
+        <v>-34.19253104611184</v>
       </c>
     </row>
     <row r="18">
@@ -7676,7 +7551,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-55.77162176303518</v>
+        <v>-34.98779575718958</v>
       </c>
     </row>
     <row r="19">
@@ -7684,7 +7559,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-57.1376000499418</v>
+        <v>-35.95583817508009</v>
       </c>
     </row>
     <row r="20">
@@ -7692,7 +7567,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-56.71291651876541</v>
+        <v>-35.63712071956748</v>
       </c>
     </row>
     <row r="21">
@@ -7700,7 +7575,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-54.79728635288121</v>
+        <v>-34.43517565887848</v>
       </c>
     </row>
     <row r="22">
@@ -7708,7 +7583,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-54.77283561421959</v>
+        <v>-34.43800479520975</v>
       </c>
     </row>
     <row r="23">
@@ -7716,7 +7591,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-56.51491084969742</v>
+        <v>-35.52107808143926</v>
       </c>
     </row>
     <row r="24">
@@ -7724,7 +7599,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-56.14742640183501</v>
+        <v>-35.29174967610296</v>
       </c>
     </row>
     <row r="25">
@@ -7732,7 +7607,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-55.83780176991255</v>
+        <v>-35.10187456359506</v>
       </c>
     </row>
     <row r="26">
@@ -7740,7 +7615,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-57.23362425668869</v>
+        <v>-36.04859196272302</v>
       </c>
     </row>
     <row r="27">
@@ -7748,7 +7623,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-58.37695419910983</v>
+        <v>-36.7577960407755</v>
       </c>
     </row>
     <row r="28">
@@ -7756,7 +7631,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-57.5343911447121</v>
+        <v>-36.20123794436795</v>
       </c>
     </row>
     <row r="29">
@@ -7764,7 +7639,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-58.40819498112374</v>
+        <v>-36.78182286788879</v>
       </c>
     </row>
     <row r="30">
@@ -7772,7 +7647,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-59.5811710800558</v>
+        <v>-37.65485113036758</v>
       </c>
     </row>
     <row r="31">
@@ -7780,7 +7655,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-60.5279478022922</v>
+        <v>-38.18956748505731</v>
       </c>
     </row>
     <row r="32">
@@ -7788,7 +7663,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-60.25840595693887</v>
+        <v>-38.08280253932784</v>
       </c>
     </row>
     <row r="33">
@@ -7796,7 +7671,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-60.72554304010891</v>
+        <v>-38.44275776700157</v>
       </c>
     </row>
     <row r="34">
@@ -7804,7 +7679,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-58.4688195095963</v>
+        <v>-36.87250442851393</v>
       </c>
     </row>
     <row r="35">
@@ -7812,7 +7687,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-57.19777873287985</v>
+        <v>-36.0035372368957</v>
       </c>
     </row>
     <row r="36">
@@ -7820,7 +7695,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-57.77253600807509</v>
+        <v>-36.40190836140003</v>
       </c>
     </row>
     <row r="37">
@@ -7828,7 +7703,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-58.59535397154554</v>
+        <v>-36.95788465968535</v>
       </c>
     </row>
     <row r="38">
@@ -7836,7 +7711,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-57.96833752271914</v>
+        <v>-36.54258358537565</v>
       </c>
     </row>
     <row r="39">
@@ -7844,7 +7719,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-57.65325159869599</v>
+        <v>-36.37146984273942</v>
       </c>
     </row>
     <row r="40">
@@ -7852,7 +7727,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-57.00416762005574</v>
+        <v>-35.8280880192064</v>
       </c>
     </row>
     <row r="41">
@@ -7860,7 +7735,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-57.54271926061433</v>
+        <v>-36.2938233267851</v>
       </c>
     </row>
     <row r="42">
@@ -7868,7 +7743,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-59.38260783268797</v>
+        <v>-37.51531267645416</v>
       </c>
     </row>
     <row r="43">
@@ -7876,7 +7751,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-56.46706775862259</v>
+        <v>-35.51268359538383</v>
       </c>
     </row>
     <row r="44">
@@ -7884,7 +7759,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-58.29791021578081</v>
+        <v>-36.71966157297997</v>
       </c>
     </row>
     <row r="45">
@@ -7892,7 +7767,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-57.29580813772611</v>
+        <v>-36.07494973505759</v>
       </c>
     </row>
     <row r="46">
@@ -7900,7 +7775,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-57.26582713618866</v>
+        <v>-36.04256476604237</v>
       </c>
     </row>
     <row r="47">
@@ -7908,7 +7783,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-57.57543058457696</v>
+        <v>-36.24182167021904</v>
       </c>
     </row>
     <row r="48">
@@ -7916,7 +7791,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-57.11306821103592</v>
+        <v>-35.94592184997801</v>
       </c>
     </row>
     <row r="49">
@@ -7924,7 +7799,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-56.55003518347476</v>
+        <v>-35.53817447262056</v>
       </c>
     </row>
     <row r="50">
@@ -7932,7 +7807,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-55.9185237070442</v>
+        <v>-35.14656850670603</v>
       </c>
     </row>
     <row r="51">
@@ -7940,7 +7815,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-57.50153404155233</v>
+        <v>-36.18258483048255</v>
       </c>
     </row>
     <row r="52">
@@ -7948,7 +7823,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-57.60897275061161</v>
+        <v>-36.28707220529413</v>
       </c>
     </row>
     <row r="53">
@@ -7956,7 +7831,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-56.95500183561842</v>
+        <v>-35.85115800121392</v>
       </c>
     </row>
     <row r="54">
@@ -7964,7 +7839,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-57.16576125616143</v>
+        <v>-35.97707861642172</v>
       </c>
     </row>
     <row r="55">
@@ -7972,7 +7847,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-55.34508317223384</v>
+        <v>-34.73591114377107</v>
       </c>
     </row>
     <row r="56">
@@ -7980,7 +7855,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-56.40801511080565</v>
+        <v>-35.41524309645997</v>
       </c>
     </row>
     <row r="57">
@@ -7988,7 +7863,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-57.5185882489321</v>
+        <v>-36.19490024464877</v>
       </c>
     </row>
     <row r="58">
@@ -7996,7 +7871,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-55.83611944346637</v>
+        <v>-35.06137490691103</v>
       </c>
     </row>
     <row r="59">
@@ -8004,7 +7879,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-55.61618127677234</v>
+        <v>-34.93847878127267</v>
       </c>
     </row>
     <row r="60">
@@ -8012,7 +7887,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-56.16671761432548</v>
+        <v>-35.32425426141588</v>
       </c>
     </row>
     <row r="61">
@@ -8020,7 +7895,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-56.13094170503103</v>
+        <v>-35.26418632695056</v>
       </c>
     </row>
     <row r="62">
@@ -8028,7 +7903,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-55.86441740776166</v>
+        <v>-35.10087286659828</v>
       </c>
     </row>
     <row r="63">
@@ -8036,7 +7911,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-54.48583729072123</v>
+        <v>-34.15157193822924</v>
       </c>
     </row>
     <row r="64">
@@ -8044,7 +7919,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-53.71092415685548</v>
+        <v>-33.63136717025355</v>
       </c>
     </row>
     <row r="65">
@@ -8052,7 +7927,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-53.36161337970593</v>
+        <v>-33.38632604496001</v>
       </c>
     </row>
     <row r="66">
@@ -8060,7 +7935,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-52.79836983535925</v>
+        <v>-32.97412612052487</v>
       </c>
     </row>
     <row r="67">
@@ -8068,7 +7943,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-52.13101854128269</v>
+        <v>-32.50359450700916</v>
       </c>
     </row>
     <row r="68">
@@ -8076,7 +7951,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-52.74883527252738</v>
+        <v>-33.04108728336492</v>
       </c>
     </row>
     <row r="69">
@@ -8084,7 +7959,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-51.3144994416415</v>
+        <v>-31.97656027691413</v>
       </c>
     </row>
     <row r="70">
@@ -8092,7 +7967,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-51.31456320619926</v>
+        <v>-31.9758302887649</v>
       </c>
     </row>
     <row r="71">
@@ -8100,7 +7975,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-51.00604107415349</v>
+        <v>-31.74929984143511</v>
       </c>
     </row>
     <row r="72">
@@ -8108,7 +7983,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-49.87376469371571</v>
+        <v>-30.98893886782646</v>
       </c>
     </row>
     <row r="73">
@@ -8116,7 +7991,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-49.69956029788154</v>
+        <v>-30.8897305516474</v>
       </c>
     </row>
     <row r="74">
@@ -8124,7 +7999,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-49.99832105842458</v>
+        <v>-31.11607210345279</v>
       </c>
     </row>
     <row r="75">
@@ -8132,7 +8007,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-49.61293367726839</v>
+        <v>-30.81083552883324</v>
       </c>
     </row>
     <row r="76">
@@ -8140,7 +8015,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-49.17044379628004</v>
+        <v>-30.53350945611741</v>
       </c>
     </row>
     <row r="77">
@@ -8148,7 +8023,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-48.96085406041126</v>
+        <v>-30.36337459781656</v>
       </c>
     </row>
     <row r="78">
@@ -8156,7 +8031,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-50.73321451427277</v>
+        <v>-31.5789104627466</v>
       </c>
     </row>
     <row r="79">
@@ -8164,7 +8039,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-51.76960295872659</v>
+        <v>-32.24724854018902</v>
       </c>
     </row>
     <row r="80">
@@ -8172,7 +8047,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-51.43639744705511</v>
+        <v>-32.08216302860176</v>
       </c>
     </row>
     <row r="81">
@@ -8180,7 +8055,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-48.73271524610847</v>
+        <v>-30.23750237250895</v>
       </c>
     </row>
     <row r="82">
@@ -8188,7 +8063,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-48.39964626715022</v>
+        <v>-30.01140475617579</v>
       </c>
     </row>
     <row r="83">
@@ -8196,7 +8071,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-49.19964180294784</v>
+        <v>-30.50186856127223</v>
       </c>
     </row>
     <row r="84">
@@ -8204,7 +8079,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-47.88916734022514</v>
+        <v>-29.65205011928513</v>
       </c>
     </row>
     <row r="85">
@@ -8212,7 +8087,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-50.22235857183152</v>
+        <v>-31.20824350303754</v>
       </c>
     </row>
     <row r="86">
@@ -8220,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-49.26181715733653</v>
+        <v>-30.63015108955475</v>
       </c>
     </row>
     <row r="87">
@@ -8228,7 +8103,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-50.10296310818978</v>
+        <v>-31.19674717212651</v>
       </c>
     </row>
     <row r="88">
@@ -8236,7 +8111,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-48.36266267316572</v>
+        <v>-29.99428000997893</v>
       </c>
     </row>
     <row r="89">
@@ -8244,7 +8119,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-48.53129142877616</v>
+        <v>-30.12710673508047</v>
       </c>
     </row>
     <row r="90">
@@ -8252,7 +8127,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-49.54686350477444</v>
+        <v>-30.77630406674628</v>
       </c>
     </row>
     <row r="91">
@@ -8260,7 +8135,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-51.66132856900249</v>
+        <v>-32.26861096506424</v>
       </c>
     </row>
     <row r="92">
@@ -8268,7 +8143,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-53.00281625951636</v>
+        <v>-33.10589069460099</v>
       </c>
     </row>
     <row r="93">
@@ -8276,7 +8151,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-52.83025690015805</v>
+        <v>-32.97453787458731</v>
       </c>
     </row>
     <row r="94">
@@ -8284,7 +8159,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-53.17192884398619</v>
+        <v>-33.18778622695417</v>
       </c>
     </row>
     <row r="95">
@@ -8292,7 +8167,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-52.8888470488449</v>
+        <v>-33.03474778708901</v>
       </c>
     </row>
     <row r="96">
@@ -8300,7 +8175,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-51.16446885956557</v>
+        <v>-31.83765235902121</v>
       </c>
     </row>
     <row r="97">
@@ -8308,7 +8183,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-52.36355281515461</v>
+        <v>-32.67639851598592</v>
       </c>
     </row>
     <row r="98">
@@ -8316,7 +8191,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-50.01703959359854</v>
+        <v>-31.08610159019529</v>
       </c>
     </row>
     <row r="99">
@@ -8324,7 +8199,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-50.36937611812543</v>
+        <v>-31.32502758840472</v>
       </c>
     </row>
     <row r="100">
@@ -8332,7 +8207,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-50.42175687376132</v>
+        <v>-31.33975481388095</v>
       </c>
     </row>
     <row r="101">
@@ -8340,7 +8215,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-49.29784933778454</v>
+        <v>-30.61595327375527</v>
       </c>
     </row>
     <row r="102">
@@ -8348,7 +8223,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-49.33577811328302</v>
+        <v>-30.64684135420641</v>
       </c>
     </row>
     <row r="103">
@@ -8356,7 +8231,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-50.72204654917125</v>
+        <v>-31.57539179941183</v>
       </c>
     </row>
     <row r="104">
@@ -8364,7 +8239,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-51.88482310260842</v>
+        <v>-32.33515396289933</v>
       </c>
     </row>
     <row r="105">
@@ -8372,7 +8247,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-51.17111363231069</v>
+        <v>-31.86632428705785</v>
       </c>
     </row>
     <row r="106">
@@ -8380,7 +8255,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-50.98018738735897</v>
+        <v>-31.74122940256403</v>
       </c>
     </row>
     <row r="107">
@@ -8388,7 +8263,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-50.73833175440637</v>
+        <v>-31.61488172114302</v>
       </c>
     </row>
     <row r="108">
@@ -8396,7 +8271,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-51.03076384378127</v>
+        <v>-31.76282955624793</v>
       </c>
     </row>
     <row r="109">
@@ -8404,7 +8279,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-52.33395989854655</v>
+        <v>-32.67461616047387</v>
       </c>
     </row>
     <row r="110">
@@ -8412,7 +8287,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-51.60784031483823</v>
+        <v>-32.22533578783857</v>
       </c>
     </row>
     <row r="111">
@@ -8420,7 +8295,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-51.93728268428163</v>
+        <v>-32.47280882643113</v>
       </c>
     </row>
     <row r="112">
@@ -8428,7 +8303,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-56.27206615491062</v>
+        <v>-35.4051495286311</v>
       </c>
     </row>
     <row r="113">
@@ -8436,7 +8311,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-58.36533077516764</v>
+        <v>-36.68249231868198</v>
       </c>
     </row>
     <row r="114">
@@ -8444,7 +8319,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-58.43952719299596</v>
+        <v>-36.75962107446386</v>
       </c>
     </row>
     <row r="115">
@@ -8452,7 +8327,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-57.88061041948908</v>
+        <v>-36.48844556822034</v>
       </c>
     </row>
     <row r="116">
@@ -8460,7 +8335,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-57.44772715675879</v>
+        <v>-36.2043785450573</v>
       </c>
     </row>
     <row r="117">
@@ -8468,7 +8343,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-58.48517700136627</v>
+        <v>-36.91258694468409</v>
       </c>
     </row>
     <row r="118">
@@ -8476,7 +8351,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-57.61771534849397</v>
+        <v>-36.26534473420667</v>
       </c>
     </row>
     <row r="119">
@@ -8484,7 +8359,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-58.20957664557967</v>
+        <v>-36.64490569354623</v>
       </c>
     </row>
     <row r="120">
@@ -8492,7 +8367,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-58.24774810875188</v>
+        <v>-36.76783831041031</v>
       </c>
     </row>
     <row r="121">
@@ -8500,7 +8375,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-59.26305102044898</v>
+        <v>-37.40833935013943</v>
       </c>
     </row>
     <row r="122">
@@ -8508,7 +8383,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-59.67113582718457</v>
+        <v>-37.63222776965036</v>
       </c>
     </row>
     <row r="123">
@@ -8516,7 +8391,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-57.89715497870561</v>
+        <v>-36.47044461230968</v>
       </c>
     </row>
     <row r="124">
@@ -8524,7 +8399,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-60.84087546013755</v>
+        <v>-38.42692336199976</v>
       </c>
     </row>
     <row r="125">
@@ -8532,7 +8407,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-58.46144861144275</v>
+        <v>-36.87829037200031</v>
       </c>
     </row>
     <row r="126">
@@ -8540,7 +8415,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-57.11662443577895</v>
+        <v>-35.93306382127888</v>
       </c>
     </row>
     <row r="127">
@@ -8548,7 +8423,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-57.43723519335816</v>
+        <v>-36.15027872408839</v>
       </c>
     </row>
     <row r="128">
@@ -8556,7 +8431,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-57.10005515507008</v>
+        <v>-35.93405613341341</v>
       </c>
     </row>
     <row r="129">
@@ -8564,7 +8439,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-57.27923176700489</v>
+        <v>-36.04419584611587</v>
       </c>
     </row>
     <row r="130">
@@ -8572,7 +8447,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-55.56326787914564</v>
+        <v>-34.83833141633862</v>
       </c>
     </row>
     <row r="131">
@@ -8580,7 +8455,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-55.83884298310049</v>
+        <v>-35.0077853871466</v>
       </c>
     </row>
     <row r="132">
@@ -8588,7 +8463,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-55.60024370581037</v>
+        <v>-34.87479922544605</v>
       </c>
     </row>
     <row r="133">
@@ -8596,7 +8471,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-53.1133708859421</v>
+        <v>-33.23527892607784</v>
       </c>
     </row>
     <row r="134">
@@ -8604,7 +8479,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-53.68378272289254</v>
+        <v>-33.66255072960171</v>
       </c>
     </row>
     <row r="135">
@@ -8612,7 +8487,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-53.08174817023038</v>
+        <v>-33.19581484649101</v>
       </c>
     </row>
     <row r="136">
@@ -8620,7 +8495,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-52.99552653280449</v>
+        <v>-33.17724215617053</v>
       </c>
     </row>
     <row r="137">
@@ -8628,7 +8503,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-53.08256186497695</v>
+        <v>-33.24199826848359</v>
       </c>
     </row>
     <row r="138">
@@ -8636,7 +8511,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-53.52538264744215</v>
+        <v>-33.52635122000654</v>
       </c>
     </row>
     <row r="139">
@@ -8644,7 +8519,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-52.7227186309192</v>
+        <v>-32.98554950604601</v>
       </c>
     </row>
     <row r="140">
@@ -8652,7 +8527,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-52.53081920522109</v>
+        <v>-32.83204021085071</v>
       </c>
     </row>
     <row r="141">
@@ -8660,7 +8535,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-53.79157889222662</v>
+        <v>-33.68913291655122</v>
       </c>
     </row>
     <row r="142">
@@ -8668,7 +8543,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-53.24142968708787</v>
+        <v>-33.30384743803308</v>
       </c>
     </row>
     <row r="143">
@@ -8676,7 +8551,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-52.44209663998242</v>
+        <v>-32.77711473929488</v>
       </c>
     </row>
     <row r="144">
@@ -8684,7 +8559,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-52.93886317721089</v>
+        <v>-33.11846972460923</v>
       </c>
     </row>
     <row r="145">
@@ -8692,14 +8567,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-53.1743713906827</v>
+        <v>-33.24960935123541</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -8730,6 +8605,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -508,6 +440,101 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>baseKV</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>VNLB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VNUB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>VELB</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>VEUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1687,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1697,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1705,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1773,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016006693</v>
+        <v>2015008963</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1788,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1811,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012006209</v>
+        <v>2015000432</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1826,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1849,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016006127</v>
+        <v>2016007303</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1864,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1887,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2015007786</v>
+        <v>2016006454</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1902,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1925,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016008101</v>
+        <v>2016003531</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1940,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1963,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2014003865</v>
+        <v>2015004843</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1978,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2001,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2012005248</v>
+        <v>2012009496</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2016,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2039,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2015007759</v>
+        <v>2014003635</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2054,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2075,122 +2102,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2012006817</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2013007789</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>75</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2012002990</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>75</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2208,7 +2121,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2240,207 +2153,193 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016006693</v>
+        <v>2015008963</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D2" t="n">
-        <v>20.48986852424406</v>
+        <v>43.0053695956624</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012006209</v>
+        <v>2015000432</v>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>51.0778190356624</v>
+        <v>53.53140438327788</v>
       </c>
       <c r="E3" t="n">
-        <v>51.91811497685172</v>
+        <v>63.93255592102054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012006209</v>
+        <v>2015000432</v>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>58.44537756</v>
+        <v>73.45503358327787</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2016006127</v>
+        <v>2016007303</v>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D5" t="n">
-        <v>22.96974655787727</v>
+        <v>20.58857967446735</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>29.45733332780068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2015007786</v>
+        <v>2016006454</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>68.82013438327786</v>
+        <v>32.33954106054119</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>39.5041660899148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2016008101</v>
+        <v>2016003531</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
         <v>114</v>
       </c>
       <c r="D7" t="n">
-        <v>9.348949114467359</v>
+        <v>9.636640498244061</v>
       </c>
       <c r="E7" t="n">
-        <v>29.99999999446737</v>
+        <v>23.99999999824409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2014003865</v>
+        <v>2015004843</v>
       </c>
       <c r="B8" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
-        <v>55.5582216</v>
+        <v>66.85673958327787</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012005248</v>
+        <v>2012009496</v>
       </c>
       <c r="B9" t="n">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D9" t="n">
-        <v>33.43389226054121</v>
+        <v>28.77046424</v>
       </c>
       <c r="E9" t="n">
-        <v>39.73397807487215</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2015007759</v>
+        <v>2012009496</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D10" t="n">
-        <v>29.28030314646736</v>
+        <v>22.34597896</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>28.98278719123714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2012006817</v>
+        <v>2014003635</v>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>66.6797121832779</v>
+        <v>38.9056488</v>
       </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2013007789</v>
+        <v>2014003635</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D12" t="n">
-        <v>68.94888158327787</v>
+        <v>39.4528244</v>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2012002990</v>
-      </c>
-      <c r="B13" t="n">
-        <v>25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>120</v>
-      </c>
-      <c r="D13" t="n">
-        <v>73.06879198327786</v>
-      </c>
-      <c r="E13" t="n">
-        <v>75</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n"/>
@@ -2491,7 +2390,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2509,8 +2408,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5411,7 +5310,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5486,7 +5385,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5572,7 +5471,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5683,7 +5582,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5729,7 +5628,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6048,7 +5947,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6066,10 +5965,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6090,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>13.80642594701052</v>
+        <v>7.932489191077662</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6099,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>15.17953496982859</v>
+        <v>7.027610156242463</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6108,7 +6007,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>14.06151347375184</v>
+        <v>8.514378943805665</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6117,7 +6016,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>12.71049044637347</v>
+        <v>6.538514845915254</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6126,7 +6025,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>14.05784126452157</v>
+        <v>6.342021989730236</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6135,7 +6034,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>13.25628191219073</v>
+        <v>8.760351838082284</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6144,7 +6043,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>14.72246798691054</v>
+        <v>8.850753547224375</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6153,7 +6052,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>13.28625147322435</v>
+        <v>7.338934236745564</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6162,7 +6061,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>14.23555529849479</v>
+        <v>7.108290816372105</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6171,7 +6070,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>13.64875508720553</v>
+        <v>6.721149745914257</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6180,7 +6079,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>11.41555712477152</v>
+        <v>6.58971712676455</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6189,7 +6088,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>13.71665368695114</v>
+        <v>3.44834949950415</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6198,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>13.33833361749874</v>
+        <v>6.076337775161422</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6207,7 +6106,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>11.72860148758121</v>
+        <v>7.166046115709622</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6216,7 +6115,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>13.3923629601176</v>
+        <v>4.14294073664183</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6225,7 +6124,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>12.26258285512816</v>
+        <v>7.070781045013632</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6234,7 +6133,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>12.40961265992529</v>
+        <v>5.72156221307526</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6243,7 +6142,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>12.15648051643209</v>
+        <v>7.781227717052871</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6252,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>12.04811938348599</v>
+        <v>6.162597643789503</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6261,7 +6160,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>11.32072363524255</v>
+        <v>6.460594554163232</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6270,7 +6169,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>12.04875347034188</v>
+        <v>7.623647853350064</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6279,7 +6178,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>12.72604261117013</v>
+        <v>7.501163750861896</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6288,7 +6187,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>12.52981858681168</v>
+        <v>7.708157384593687</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6297,7 +6196,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>9.732293654258564</v>
+        <v>6.485217224540521</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6306,7 +6205,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>10.71203780567425</v>
+        <v>7.132136623459401</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6315,7 +6214,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>10.87315626247772</v>
+        <v>7.157606394337654</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6324,7 +6223,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>11.66440568910739</v>
+        <v>6.749002765498088</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6333,7 +6232,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>9.635907604704464</v>
+        <v>3.42115385725959</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6342,7 +6241,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>7.979383036720541</v>
+        <v>4.466209429378458</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6351,7 +6250,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>8.639537181938826</v>
+        <v>2.716414033567808</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6360,7 +6259,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>8.018885544795996</v>
+        <v>1.980217753117496</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6369,7 +6268,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>9.571357762324665</v>
+        <v>6.101182560070915</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6378,7 +6277,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>9.865624380924997</v>
+        <v>6.454546653958529</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6387,7 +6286,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>10.2923070414834</v>
+        <v>6.460678324921229</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6396,7 +6295,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>10.87930102162606</v>
+        <v>6.022929450046417</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6405,7 +6304,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>11.32639810096156</v>
+        <v>6.014134881787268</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6414,7 +6313,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>11.37545197804294</v>
+        <v>6.044760295035334</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6423,7 +6322,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>10.79383286639666</v>
+        <v>5.739849952094466</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6432,7 +6331,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>10.07738680199018</v>
+        <v>6.149089887495477</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6441,7 +6340,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>10.38690811741204</v>
+        <v>4.356068564170897</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6450,7 +6349,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>8.779193320597271</v>
+        <v>3.323279400830002</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6459,7 +6358,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>9.115065140926143</v>
+        <v>6.134897551958537</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6468,7 +6367,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>8.816071693973743</v>
+        <v>4.244512369521102</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6477,7 +6376,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>8.142421856424683</v>
+        <v>1.604177632853087</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6486,7 +6385,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>9.795283491263771</v>
+        <v>3.509553707647994</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6495,7 +6394,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>8.477918657142007</v>
+        <v>2.805092054247643</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6504,7 +6403,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>10.16998058844169</v>
+        <v>5.166065539661357</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6513,7 +6412,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>9.825119071442252</v>
+        <v>3.822760283864215</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6522,7 +6421,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>11.11580269713567</v>
+        <v>2.183500298203615</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6531,7 +6430,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>10.56600201706163</v>
+        <v>2.754677068444438</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6540,7 +6439,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>9.660615450003194</v>
+        <v>5.589323740979254</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6549,7 +6448,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>8.968896119015247</v>
+        <v>5.831881830242664</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6558,7 +6457,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>10.36995500344543</v>
+        <v>5.910133006408339</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6567,7 +6466,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>10.98599647297402</v>
+        <v>6.805582661701686</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6576,7 +6475,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>9.895867980013493</v>
+        <v>6.236039370088764</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6585,7 +6484,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>12.42780431961972</v>
+        <v>7.32225788115055</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6594,7 +6493,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>12.60386200396235</v>
+        <v>6.424726236213916</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6603,7 +6502,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>12.35192247755797</v>
+        <v>7.35177361850317</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6612,7 +6511,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>13.30662328393212</v>
+        <v>7.904712211878167</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6621,7 +6520,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>13.81406349097673</v>
+        <v>9.005362059197283</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6630,7 +6529,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>14.29825926330478</v>
+        <v>8.447263095380826</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6639,7 +6538,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>13.59765760040828</v>
+        <v>7.749833991610815</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6648,7 +6547,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>15.3838331941479</v>
+        <v>8.32371336343506</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6657,7 +6556,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>15.55429341319515</v>
+        <v>8.283137650186664</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6666,7 +6565,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>18.05056323913949</v>
+        <v>11.29408742290346</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6675,7 +6574,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>15.52325095520854</v>
+        <v>8.426189256032389</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6684,7 +6583,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>17.32250871144253</v>
+        <v>9.805837190089182</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6693,7 +6592,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>19.37634951625315</v>
+        <v>10.90888662694483</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6702,7 +6601,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>19.27334598909201</v>
+        <v>10.9411356523326</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6711,7 +6610,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>19.28154479012514</v>
+        <v>11.27458204875397</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6720,7 +6619,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>20.74891952007449</v>
+        <v>10.67315339441496</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6729,7 +6628,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>21.30946298495997</v>
+        <v>13.27129688635507</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6738,7 +6637,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>20.02434246357732</v>
+        <v>9.55582818626576</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6747,7 +6646,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>22.26187924831701</v>
+        <v>13.85206101279445</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6756,7 +6655,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>21.28603555127995</v>
+        <v>13.18596298474215</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6765,7 +6664,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>20.07372385989617</v>
+        <v>11.92916239394505</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6774,7 +6673,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>20.86777496660096</v>
+        <v>12.46153880251287</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6783,7 +6682,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>20.6003555399334</v>
+        <v>11.04651606708023</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6792,7 +6691,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>18.51338908093152</v>
+        <v>11.71589236685429</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6801,7 +6700,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>22.062627337399</v>
+        <v>12.39812995689677</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6810,7 +6709,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>20.4203148021732</v>
+        <v>11.83103029346775</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6819,7 +6718,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>22.264700787834</v>
+        <v>11.05783236570338</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6828,7 +6727,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>23.95632949445711</v>
+        <v>13.36961647245301</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6837,7 +6736,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>21.42434250647844</v>
+        <v>12.04279652854066</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6846,7 +6745,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>20.32250888450092</v>
+        <v>12.15231897261213</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6855,7 +6754,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>21.99861806714039</v>
+        <v>13.95546576616203</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6864,7 +6763,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>20.62698775101656</v>
+        <v>13.60522845267286</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6873,7 +6772,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>19.91619556774722</v>
+        <v>12.17051698104718</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6882,7 +6781,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>20.6628339297721</v>
+        <v>12.83351329223819</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6891,7 +6790,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>16.0498176869213</v>
+        <v>9.749844263651033</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6900,7 +6799,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>14.34755505310156</v>
+        <v>8.402054484798615</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6909,7 +6808,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>14.30198496626277</v>
+        <v>7.271722448410085</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6918,7 +6817,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>14.81905271387238</v>
+        <v>5.59275584908085</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6927,7 +6826,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>14.17951060047415</v>
+        <v>3.816782724162654</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6936,7 +6835,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>17.29369435504879</v>
+        <v>6.465251178377645</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6945,7 +6844,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>15.35943083343548</v>
+        <v>2.250017887797083</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6954,7 +6853,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>16.8365844443754</v>
+        <v>10.76133996381523</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6963,7 +6862,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>17.94009844338409</v>
+        <v>10.10011923013528</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6972,7 +6871,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>17.8188070042895</v>
+        <v>10.93503768537596</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6981,7 +6880,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>19.13314644492575</v>
+        <v>10.93944214293944</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6990,7 +6889,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>20.2046045084045</v>
+        <v>11.15607209315622</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6999,7 +6898,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>17.92593758597793</v>
+        <v>11.1589484053982</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7008,7 +6907,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>18.61028516871841</v>
+        <v>9.735516489746093</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7017,7 +6916,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>17.97015399056322</v>
+        <v>11.32007948705837</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7026,7 +6925,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>19.20348080967205</v>
+        <v>12.55449218687654</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7035,7 +6934,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>18.51424813573507</v>
+        <v>11.0532829709929</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7044,7 +6943,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>19.04022102055254</v>
+        <v>11.17366240137173</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7053,7 +6952,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>17.17938682460438</v>
+        <v>10.65979635196206</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7062,7 +6961,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>17.46608335662714</v>
+        <v>9.724640002622284</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7071,7 +6970,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>15.41390912566627</v>
+        <v>8.318901043001043</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7080,7 +6979,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>12.88231078364373</v>
+        <v>6.568694703320247</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7089,7 +6988,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>9.306817982221409</v>
+        <v>5.722933388858153</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7098,7 +6997,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>9.876152252625001</v>
+        <v>6.740160309817973</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7107,7 +7006,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>10.69679241342054</v>
+        <v>5.207461979199421</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7116,7 +7015,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>11.54548159857096</v>
+        <v>5.112130224061612</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7125,7 +7024,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>9.655052699188424</v>
+        <v>6.628332478442966</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7134,7 +7033,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>9.424182900245624</v>
+        <v>5.905361847835432</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7143,7 +7042,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>9.954913409209851</v>
+        <v>3.20320722013882</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7152,7 +7051,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>9.765092925671695</v>
+        <v>6.164898163242216</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7161,7 +7060,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>9.028015229268144</v>
+        <v>5.304881897075204</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7170,7 +7069,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>8.043021303374079</v>
+        <v>4.50235506123752</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7179,7 +7078,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>7.923376630354936</v>
+        <v>5.065808083563041</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7188,7 +7087,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>8.26579069231183</v>
+        <v>4.684090043958738</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7197,7 +7096,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>9.034266030539298</v>
+        <v>5.674968827655785</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7206,7 +7105,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>10.4176941579862</v>
+        <v>4.751523433601873</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7215,7 +7114,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>10.16753022492573</v>
+        <v>4.601657300792795</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7224,7 +7123,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>8.869760116947727</v>
+        <v>4.208849683650609</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7233,7 +7132,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>11.96017771542756</v>
+        <v>7.595141180300447</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7242,7 +7141,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>12.91474199778093</v>
+        <v>7.025557449618754</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7251,7 +7150,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>13.03038725382963</v>
+        <v>3.269428501174814</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7260,7 +7159,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>11.60799642057365</v>
+        <v>7.881206227232974</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7269,7 +7168,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>11.80918613768329</v>
+        <v>4.546751384504498</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7278,7 +7177,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>13.03671699092392</v>
+        <v>7.986041872875704</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7287,7 +7186,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>12.60031832836673</v>
+        <v>7.07928751310384</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7296,7 +7195,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>13.14811163940321</v>
+        <v>7.485668960307802</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7305,7 +7204,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>15.84804399690369</v>
+        <v>8.068613944255377</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7314,7 +7213,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>14.10848749753523</v>
+        <v>7.615510946411072</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7323,7 +7222,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>14.13288766012444</v>
+        <v>6.009988064871251</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7332,7 +7231,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>13.27796700377581</v>
+        <v>6.211463713879609</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7341,7 +7240,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>13.32509922119474</v>
+        <v>7.25648722734509</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7350,7 +7249,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>14.21086973438391</v>
+        <v>6.072622689963511</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7359,7 +7258,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>13.77567815397484</v>
+        <v>7.364660873381451</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7368,7 +7267,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>14.69322525977762</v>
+        <v>7.478616965107197</v>
       </c>
     </row>
     <row r="145">
@@ -7376,14 +7275,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>15.39528530300241</v>
+        <v>7.838593581113806</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7401,8 +7300,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7423,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-33.35929619129402</v>
+        <v>-21.73030568032146</v>
       </c>
     </row>
     <row r="3">
@@ -7431,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-32.19374821397935</v>
+        <v>-20.63498256702926</v>
       </c>
     </row>
     <row r="4">
@@ -7439,7 +7338,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-32.46765365178059</v>
+        <v>-21.17760880123699</v>
       </c>
     </row>
     <row r="5">
@@ -7447,7 +7346,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-32.70177191249974</v>
+        <v>-20.81098226411579</v>
       </c>
     </row>
     <row r="6">
@@ -7455,7 +7354,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-32.70305392439524</v>
+        <v>-20.89729521568114</v>
       </c>
     </row>
     <row r="7">
@@ -7463,7 +7362,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-32.69499088374398</v>
+        <v>-20.75225036199588</v>
       </c>
     </row>
     <row r="8">
@@ -7471,7 +7370,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-32.7701398589454</v>
+        <v>-21.46353848945335</v>
       </c>
     </row>
     <row r="9">
@@ -7479,7 +7378,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-33.27854921509147</v>
+        <v>-21.55659413259049</v>
       </c>
     </row>
     <row r="10">
@@ -7487,7 +7386,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-32.49528351712586</v>
+        <v>-21.03126348499302</v>
       </c>
     </row>
     <row r="11">
@@ -7495,7 +7394,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-32.15577806045913</v>
+        <v>-21.05306259311381</v>
       </c>
     </row>
     <row r="12">
@@ -7503,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-32.86590019190233</v>
+        <v>-20.73673485423097</v>
       </c>
     </row>
     <row r="13">
@@ -7511,7 +7410,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-33.43391331812732</v>
+        <v>-21.51018395980275</v>
       </c>
     </row>
     <row r="14">
@@ -7519,7 +7418,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-33.09344554722746</v>
+        <v>-21.47728991614661</v>
       </c>
     </row>
     <row r="15">
@@ -7527,7 +7426,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-34.02308395908299</v>
+        <v>-22.02154411325553</v>
       </c>
     </row>
     <row r="16">
@@ -7535,7 +7434,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-34.17960516880829</v>
+        <v>-21.74234897688675</v>
       </c>
     </row>
     <row r="17">
@@ -7543,7 +7442,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-34.19253104611184</v>
+        <v>-21.28937504630099</v>
       </c>
     </row>
     <row r="18">
@@ -7551,7 +7450,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-34.98779575718958</v>
+        <v>-22.21277970258937</v>
       </c>
     </row>
     <row r="19">
@@ -7559,7 +7458,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-35.95583817508009</v>
+        <v>-21.75621773912045</v>
       </c>
     </row>
     <row r="20">
@@ -7567,7 +7466,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-35.63712071956748</v>
+        <v>-22.01240986089874</v>
       </c>
     </row>
     <row r="21">
@@ -7575,7 +7474,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-34.43517565887848</v>
+        <v>-22.01375201266391</v>
       </c>
     </row>
     <row r="22">
@@ -7583,7 +7482,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-34.43800479520975</v>
+        <v>-22.67842572613345</v>
       </c>
     </row>
     <row r="23">
@@ -7591,7 +7490,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-35.52107808143926</v>
+        <v>-22.97594557688715</v>
       </c>
     </row>
     <row r="24">
@@ -7599,7 +7498,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-35.29174967610296</v>
+        <v>-22.78640295041476</v>
       </c>
     </row>
     <row r="25">
@@ -7607,7 +7506,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-35.10187456359506</v>
+        <v>-23.13459091712224</v>
       </c>
     </row>
     <row r="26">
@@ -7615,7 +7514,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-36.04859196272302</v>
+        <v>-22.69339562042959</v>
       </c>
     </row>
     <row r="27">
@@ -7623,7 +7522,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-36.7577960407755</v>
+        <v>-23.2842529054436</v>
       </c>
     </row>
     <row r="28">
@@ -7631,7 +7530,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-36.20123794436795</v>
+        <v>-23.21189636200902</v>
       </c>
     </row>
     <row r="29">
@@ -7639,7 +7538,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-36.78182286788879</v>
+        <v>-23.54551773053748</v>
       </c>
     </row>
     <row r="30">
@@ -7647,7 +7546,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-37.65485113036758</v>
+        <v>-24.44329907549495</v>
       </c>
     </row>
     <row r="31">
@@ -7655,7 +7554,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-38.18956748505731</v>
+        <v>-23.5591368245935</v>
       </c>
     </row>
     <row r="32">
@@ -7663,7 +7562,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-38.08280253932784</v>
+        <v>-24.13270939925223</v>
       </c>
     </row>
     <row r="33">
@@ -7671,7 +7570,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-38.44275776700157</v>
+        <v>-24.08880772554921</v>
       </c>
     </row>
     <row r="34">
@@ -7679,7 +7578,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-36.87250442851393</v>
+        <v>-23.33637996324597</v>
       </c>
     </row>
     <row r="35">
@@ -7687,7 +7586,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-36.0035372368957</v>
+        <v>-22.92898505526811</v>
       </c>
     </row>
     <row r="36">
@@ -7695,7 +7594,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-36.40190836140003</v>
+        <v>-23.18404809851223</v>
       </c>
     </row>
     <row r="37">
@@ -7703,7 +7602,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-36.95788465968535</v>
+        <v>-23.64706640495225</v>
       </c>
     </row>
     <row r="38">
@@ -7711,7 +7610,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-36.54258358537565</v>
+        <v>-22.54828390629949</v>
       </c>
     </row>
     <row r="39">
@@ -7719,7 +7618,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-36.37146984273942</v>
+        <v>-23.29158854886443</v>
       </c>
     </row>
     <row r="40">
@@ -7727,7 +7626,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-35.8280880192064</v>
+        <v>-22.32897442252814</v>
       </c>
     </row>
     <row r="41">
@@ -7735,7 +7634,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-36.2938233267851</v>
+        <v>-22.80277239182514</v>
       </c>
     </row>
     <row r="42">
@@ -7743,7 +7642,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-37.51531267645416</v>
+        <v>-23.71615698078257</v>
       </c>
     </row>
     <row r="43">
@@ -7751,7 +7650,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-35.51268359538383</v>
+        <v>-22.05567655583431</v>
       </c>
     </row>
     <row r="44">
@@ -7759,7 +7658,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-36.71966157297997</v>
+        <v>-22.90955381327221</v>
       </c>
     </row>
     <row r="45">
@@ -7767,7 +7666,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-36.07494973505759</v>
+        <v>-22.85055112646349</v>
       </c>
     </row>
     <row r="46">
@@ -7775,7 +7674,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-36.04256476604237</v>
+        <v>-22.55578412689449</v>
       </c>
     </row>
     <row r="47">
@@ -7783,7 +7682,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-36.24182167021904</v>
+        <v>-22.84970066699817</v>
       </c>
     </row>
     <row r="48">
@@ -7791,7 +7690,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-35.94592184997801</v>
+        <v>-21.56094947343328</v>
       </c>
     </row>
     <row r="49">
@@ -7799,7 +7698,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-35.53817447262056</v>
+        <v>-21.65094256383679</v>
       </c>
     </row>
     <row r="50">
@@ -7807,7 +7706,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-35.14656850670603</v>
+        <v>-21.50489460210428</v>
       </c>
     </row>
     <row r="51">
@@ -7815,7 +7714,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-36.18258483048255</v>
+        <v>-23.07787029584807</v>
       </c>
     </row>
     <row r="52">
@@ -7823,7 +7722,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-36.28707220529413</v>
+        <v>-22.93844970160362</v>
       </c>
     </row>
     <row r="53">
@@ -7831,7 +7730,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-35.85115800121392</v>
+        <v>-22.07640792975542</v>
       </c>
     </row>
     <row r="54">
@@ -7839,7 +7738,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-35.97707861642172</v>
+        <v>-22.64395224118977</v>
       </c>
     </row>
     <row r="55">
@@ -7847,7 +7746,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-34.73591114377107</v>
+        <v>-21.91003852642142</v>
       </c>
     </row>
     <row r="56">
@@ -7855,7 +7754,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-35.41524309645997</v>
+        <v>-22.56388025579291</v>
       </c>
     </row>
     <row r="57">
@@ -7863,7 +7762,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-36.19490024464877</v>
+        <v>-22.4053167786615</v>
       </c>
     </row>
     <row r="58">
@@ -7871,7 +7770,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-35.06137490691103</v>
+        <v>-22.6207242809625</v>
       </c>
     </row>
     <row r="59">
@@ -7879,7 +7778,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-34.93847878127267</v>
+        <v>-22.11168704982036</v>
       </c>
     </row>
     <row r="60">
@@ -7887,7 +7786,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-35.32425426141588</v>
+        <v>-22.10972646827276</v>
       </c>
     </row>
     <row r="61">
@@ -7895,7 +7794,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-35.26418632695056</v>
+        <v>-22.36025815024379</v>
       </c>
     </row>
     <row r="62">
@@ -7903,7 +7802,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-35.10087286659828</v>
+        <v>-22.77957258270602</v>
       </c>
     </row>
     <row r="63">
@@ -7911,7 +7810,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-34.15157193822924</v>
+        <v>-22.0821478256184</v>
       </c>
     </row>
     <row r="64">
@@ -7919,7 +7818,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-33.63136717025355</v>
+        <v>-21.18426943329831</v>
       </c>
     </row>
     <row r="65">
@@ -7927,7 +7826,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-33.38632604496001</v>
+        <v>-22.03361049634163</v>
       </c>
     </row>
     <row r="66">
@@ -7935,7 +7834,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-32.97412612052487</v>
+        <v>-21.09461238808019</v>
       </c>
     </row>
     <row r="67">
@@ -7943,7 +7842,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-32.50359450700916</v>
+        <v>-20.90474411989832</v>
       </c>
     </row>
     <row r="68">
@@ -7951,7 +7850,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-33.04108728336492</v>
+        <v>-21.24333552475599</v>
       </c>
     </row>
     <row r="69">
@@ -7959,7 +7858,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-31.97656027691413</v>
+        <v>-20.58931115314112</v>
       </c>
     </row>
     <row r="70">
@@ -7967,7 +7866,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-31.9758302887649</v>
+        <v>-20.68283831182779</v>
       </c>
     </row>
     <row r="71">
@@ -7975,7 +7874,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-31.74929984143511</v>
+        <v>-20.98996519571098</v>
       </c>
     </row>
     <row r="72">
@@ -7983,7 +7882,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-30.98893886782646</v>
+        <v>-20.21027255808032</v>
       </c>
     </row>
     <row r="73">
@@ -7991,7 +7890,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-30.8897305516474</v>
+        <v>-20.29822485708113</v>
       </c>
     </row>
     <row r="74">
@@ -7999,7 +7898,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-31.11607210345279</v>
+        <v>-20.09655655676703</v>
       </c>
     </row>
     <row r="75">
@@ -8007,7 +7906,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-30.81083552883324</v>
+        <v>-20.34374436640866</v>
       </c>
     </row>
     <row r="76">
@@ -8015,7 +7914,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-30.53350945611741</v>
+        <v>-20.33700117889657</v>
       </c>
     </row>
     <row r="77">
@@ -8023,7 +7922,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-30.36337459781656</v>
+        <v>-20.3782135991124</v>
       </c>
     </row>
     <row r="78">
@@ -8031,7 +7930,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-31.5789104627466</v>
+        <v>-20.86233431516001</v>
       </c>
     </row>
     <row r="79">
@@ -8039,7 +7938,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-32.24724854018902</v>
+        <v>-21.26119891350093</v>
       </c>
     </row>
     <row r="80">
@@ -8047,7 +7946,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-32.08216302860176</v>
+        <v>-20.78359453278595</v>
       </c>
     </row>
     <row r="81">
@@ -8055,7 +7954,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-30.23750237250895</v>
+        <v>-19.96595163495365</v>
       </c>
     </row>
     <row r="82">
@@ -8063,7 +7962,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-30.01140475617579</v>
+        <v>-19.99621565463183</v>
       </c>
     </row>
     <row r="83">
@@ -8071,7 +7970,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-30.50186856127223</v>
+        <v>-20.11892695870896</v>
       </c>
     </row>
     <row r="84">
@@ -8079,7 +7978,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-29.65205011928513</v>
+        <v>-19.92018635878271</v>
       </c>
     </row>
     <row r="85">
@@ -8087,7 +7986,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-31.20824350303754</v>
+        <v>-20.48763430852075</v>
       </c>
     </row>
     <row r="86">
@@ -8095,7 +7994,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-30.63015108955475</v>
+        <v>-20.28220933684275</v>
       </c>
     </row>
     <row r="87">
@@ -8103,7 +8002,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-31.19674717212651</v>
+        <v>-20.35639855054675</v>
       </c>
     </row>
     <row r="88">
@@ -8111,7 +8010,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-29.99428000997893</v>
+        <v>-19.78326964432133</v>
       </c>
     </row>
     <row r="89">
@@ -8119,7 +8018,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-30.12710673508047</v>
+        <v>-19.81680072770918</v>
       </c>
     </row>
     <row r="90">
@@ -8127,7 +8026,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-30.77630406674628</v>
+        <v>-20.36914968427994</v>
       </c>
     </row>
     <row r="91">
@@ -8135,7 +8034,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-32.26861096506424</v>
+        <v>-21.17218135955604</v>
       </c>
     </row>
     <row r="92">
@@ -8143,7 +8042,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-33.10589069460099</v>
+        <v>-21.38844137894667</v>
       </c>
     </row>
     <row r="93">
@@ -8151,7 +8050,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-32.97453787458731</v>
+        <v>-21.72688459112056</v>
       </c>
     </row>
     <row r="94">
@@ -8159,7 +8058,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-33.18778622695417</v>
+        <v>-21.90089582560245</v>
       </c>
     </row>
     <row r="95">
@@ -8167,7 +8066,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-33.03474778708901</v>
+        <v>-21.44991646425897</v>
       </c>
     </row>
     <row r="96">
@@ -8175,7 +8074,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-31.83765235902121</v>
+        <v>-20.85649581213314</v>
       </c>
     </row>
     <row r="97">
@@ -8183,7 +8082,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-32.67639851598592</v>
+        <v>-20.52154086086463</v>
       </c>
     </row>
     <row r="98">
@@ -8191,7 +8090,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-31.08610159019529</v>
+        <v>-20.27055884274094</v>
       </c>
     </row>
     <row r="99">
@@ -8199,7 +8098,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-31.32502758840472</v>
+        <v>-20.3548410726582</v>
       </c>
     </row>
     <row r="100">
@@ -8207,7 +8106,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-31.33975481388095</v>
+        <v>-20.63016247531946</v>
       </c>
     </row>
     <row r="101">
@@ -8215,7 +8114,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-30.61595327375527</v>
+        <v>-20.17920125741666</v>
       </c>
     </row>
     <row r="102">
@@ -8223,7 +8122,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-30.64684135420641</v>
+        <v>-20.22052914438473</v>
       </c>
     </row>
     <row r="103">
@@ -8231,7 +8130,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-31.57539179941183</v>
+        <v>-21.01966379010804</v>
       </c>
     </row>
     <row r="104">
@@ -8239,7 +8138,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-32.33515396289933</v>
+        <v>-20.76735832523564</v>
       </c>
     </row>
     <row r="105">
@@ -8247,7 +8146,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-31.86632428705785</v>
+        <v>-20.25561730480126</v>
       </c>
     </row>
     <row r="106">
@@ -8255,7 +8154,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-31.74122940256403</v>
+        <v>-20.34732189889558</v>
       </c>
     </row>
     <row r="107">
@@ -8263,7 +8162,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-31.61488172114302</v>
+        <v>-19.89776180868657</v>
       </c>
     </row>
     <row r="108">
@@ -8271,7 +8170,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-31.76282955624793</v>
+        <v>-20.53740853086209</v>
       </c>
     </row>
     <row r="109">
@@ -8279,7 +8178,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-32.67461616047387</v>
+        <v>-21.03202163873611</v>
       </c>
     </row>
     <row r="110">
@@ -8287,7 +8186,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-32.22533578783857</v>
+        <v>-21.05521565230851</v>
       </c>
     </row>
     <row r="111">
@@ -8295,7 +8194,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-32.47280882643113</v>
+        <v>-20.84562484540564</v>
       </c>
     </row>
     <row r="112">
@@ -8303,7 +8202,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-35.4051495286311</v>
+        <v>-23.12295471566557</v>
       </c>
     </row>
     <row r="113">
@@ -8311,7 +8210,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-36.68249231868198</v>
+        <v>-23.80427778750495</v>
       </c>
     </row>
     <row r="114">
@@ -8319,7 +8218,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-36.75962107446386</v>
+        <v>-22.82677473907831</v>
       </c>
     </row>
     <row r="115">
@@ -8327,7 +8226,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-36.48844556822034</v>
+        <v>-22.50203122412356</v>
       </c>
     </row>
     <row r="116">
@@ -8335,7 +8234,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-36.2043785450573</v>
+        <v>-22.02989546905344</v>
       </c>
     </row>
     <row r="117">
@@ -8343,7 +8242,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-36.91258694468409</v>
+        <v>-23.16271412799685</v>
       </c>
     </row>
     <row r="118">
@@ -8351,7 +8250,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-36.26534473420667</v>
+        <v>-22.48211634653101</v>
       </c>
     </row>
     <row r="119">
@@ -8359,7 +8258,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-36.64490569354623</v>
+        <v>-23.81958999495619</v>
       </c>
     </row>
     <row r="120">
@@ -8367,7 +8266,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-36.76783831041031</v>
+        <v>-22.55655942874398</v>
       </c>
     </row>
     <row r="121">
@@ -8375,7 +8274,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-37.40833935013943</v>
+        <v>-23.7092802397318</v>
       </c>
     </row>
     <row r="122">
@@ -8383,7 +8282,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-37.63222776965036</v>
+        <v>-23.06691830461695</v>
       </c>
     </row>
     <row r="123">
@@ -8391,7 +8290,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-36.47044461230968</v>
+        <v>-22.68706716309237</v>
       </c>
     </row>
     <row r="124">
@@ -8399,7 +8298,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-38.42692336199976</v>
+        <v>-24.33691613336157</v>
       </c>
     </row>
     <row r="125">
@@ -8407,7 +8306,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-36.87829037200031</v>
+        <v>-22.85606026844802</v>
       </c>
     </row>
     <row r="126">
@@ -8415,7 +8314,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-35.93306382127888</v>
+        <v>-22.80365459097592</v>
       </c>
     </row>
     <row r="127">
@@ -8423,7 +8322,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-36.15027872408839</v>
+        <v>-23.40140544196916</v>
       </c>
     </row>
     <row r="128">
@@ -8431,7 +8330,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-35.93405613341341</v>
+        <v>-22.7718756467837</v>
       </c>
     </row>
     <row r="129">
@@ -8439,7 +8338,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-36.04419584611587</v>
+        <v>-22.13405392913726</v>
       </c>
     </row>
     <row r="130">
@@ -8447,7 +8346,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-34.83833141633862</v>
+        <v>-22.27777647741259</v>
       </c>
     </row>
     <row r="131">
@@ -8455,7 +8354,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-35.0077853871466</v>
+        <v>-21.54521884168427</v>
       </c>
     </row>
     <row r="132">
@@ -8463,7 +8362,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-34.87479922544605</v>
+        <v>-21.52207699542893</v>
       </c>
     </row>
     <row r="133">
@@ -8471,7 +8370,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-33.23527892607784</v>
+        <v>-21.21682477613261</v>
       </c>
     </row>
     <row r="134">
@@ -8479,7 +8378,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-33.66255072960171</v>
+        <v>-21.63211906237365</v>
       </c>
     </row>
     <row r="135">
@@ -8487,7 +8386,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-33.19581484649101</v>
+        <v>-21.16851228369208</v>
       </c>
     </row>
     <row r="136">
@@ -8495,7 +8394,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-33.17724215617053</v>
+        <v>-21.66801536012312</v>
       </c>
     </row>
     <row r="137">
@@ -8503,7 +8402,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-33.24199826848359</v>
+        <v>-21.6163580531092</v>
       </c>
     </row>
     <row r="138">
@@ -8511,7 +8410,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-33.52635122000654</v>
+        <v>-21.39153202864305</v>
       </c>
     </row>
     <row r="139">
@@ -8519,7 +8418,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-32.98554950604601</v>
+        <v>-21.37514588046782</v>
       </c>
     </row>
     <row r="140">
@@ -8527,7 +8426,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-32.83204021085071</v>
+        <v>-21.89169514542028</v>
       </c>
     </row>
     <row r="141">
@@ -8535,7 +8434,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-33.68913291655122</v>
+        <v>-21.72563230199104</v>
       </c>
     </row>
     <row r="142">
@@ -8543,7 +8442,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-33.30384743803308</v>
+        <v>-21.60701814591338</v>
       </c>
     </row>
     <row r="143">
@@ -8551,7 +8450,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-32.77711473929488</v>
+        <v>-21.38522331982413</v>
       </c>
     </row>
     <row r="144">
@@ -8559,7 +8458,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-33.11846972460923</v>
+        <v>-21.72541241586088</v>
       </c>
     </row>
     <row r="145">
@@ -8567,14 +8466,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-33.24960935123541</v>
+        <v>-21.86613768317268</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8605,6 +8504,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015008963</v>
+        <v>2012004484</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2015000432</v>
+        <v>2014005852</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016007303</v>
+        <v>2015006703</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016006454</v>
+        <v>2014008028</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016003531</v>
+        <v>2013008371</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2015004843</v>
+        <v>2016000045</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2012009496</v>
+        <v>2013002527</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2014003635</v>
+        <v>2013008229</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2099,6 +2099,44 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2015008636</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2153,135 +2191,135 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2015008963</v>
+        <v>2012004484</v>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>43.0053695956624</v>
+        <v>65.02291031408539</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2015000432</v>
+        <v>2014005852</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>53.53140438327788</v>
+        <v>35.34900739999999</v>
       </c>
       <c r="E3" t="n">
-        <v>63.93255592102054</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2015000432</v>
+        <v>2014005852</v>
       </c>
       <c r="B4" t="n">
+        <v>129</v>
+      </c>
+      <c r="C4" t="n">
+        <v>143</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.62259519999999</v>
+      </c>
+      <c r="E4" t="n">
         <v>40</v>
-      </c>
-      <c r="C4" t="n">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>73.45503358327787</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2016007303</v>
+        <v>2015006703</v>
       </c>
       <c r="B5" t="n">
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D5" t="n">
-        <v>20.58857967446735</v>
+        <v>37.81129706054119</v>
       </c>
       <c r="E5" t="n">
-        <v>29.45733332780068</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2016006454</v>
+        <v>2014008028</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>32.33954106054119</v>
+        <v>33.43389226054119</v>
       </c>
       <c r="E6" t="n">
-        <v>39.5041660899148</v>
+        <v>36.95880746136388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2016003531</v>
+        <v>2014008028</v>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>9.636640498244061</v>
+        <v>36.33070479999999</v>
       </c>
       <c r="E7" t="n">
-        <v>23.99999999824409</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2015004843</v>
+        <v>2013008371</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
-        <v>66.85673958327787</v>
+        <v>17.54370839446736</v>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>24.05545083127143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012009496</v>
+        <v>2013008371</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C9" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D9" t="n">
-        <v>28.77046424</v>
+        <v>28.15569635446735</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
@@ -2289,63 +2327,105 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2012009496</v>
+        <v>2016000045</v>
       </c>
       <c r="B10" t="n">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D10" t="n">
-        <v>22.34597896</v>
+        <v>60.09107422327789</v>
       </c>
       <c r="E10" t="n">
-        <v>28.98278719123714</v>
+        <v>74.93332092348821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2014003635</v>
+        <v>2013002527</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D11" t="n">
-        <v>38.9056488</v>
+        <v>26.12470927446736</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2014003635</v>
+        <v>2013008229</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24.87908011446737</v>
+      </c>
+      <c r="E12" t="n">
+        <v>28.25723541261248</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>2013008229</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>120</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.67832224</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>2013008229</v>
+      </c>
+      <c r="B14" t="n">
+        <v>125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>143</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26.67832224</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>2015008636</v>
+      </c>
+      <c r="B15" t="n">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
         <v>118</v>
       </c>
-      <c r="D12" t="n">
-        <v>39.4528244</v>
-      </c>
-      <c r="E12" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
+      <c r="D15" t="n">
+        <v>21.69902427446736</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29.45733332780069</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n"/>
@@ -5989,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>7.932489191077662</v>
+        <v>6.610407659231385</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5998,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>7.027610156242463</v>
+        <v>5.856341796868719</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6007,7 +6087,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8.514378943805665</v>
+        <v>7.095315786504722</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6016,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>6.538514845915254</v>
+        <v>5.448762371596046</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6025,7 +6105,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6.342021989730236</v>
+        <v>5.285018324775197</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6034,7 +6114,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>8.760351838082284</v>
+        <v>7.300293198401904</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6043,7 +6123,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>8.850753547224375</v>
+        <v>7.375627956020313</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6052,7 +6132,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>7.338934236745564</v>
+        <v>6.115778530621303</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6061,7 +6141,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>7.108290816372105</v>
+        <v>5.923575680310088</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6070,7 +6150,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>6.721149745914257</v>
+        <v>5.600958121595214</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6079,7 +6159,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>6.58971712676455</v>
+        <v>5.491430938970459</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6088,7 +6168,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>3.44834949950415</v>
+        <v>2.873624582920125</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6097,7 +6177,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>6.076337775161422</v>
+        <v>5.063614812634518</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6106,7 +6186,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>7.166046115709622</v>
+        <v>5.971705096424685</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6115,7 +6195,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>4.14294073664183</v>
+        <v>3.452450613868193</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6124,7 +6204,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>7.070781045013632</v>
+        <v>5.89231753751136</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6133,7 +6213,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>5.72156221307526</v>
+        <v>4.767968510896051</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6142,7 +6222,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>7.781227717052871</v>
+        <v>6.484356430877392</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6151,7 +6231,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.162597643789503</v>
+        <v>5.135498036491253</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6160,7 +6240,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>6.460594554163232</v>
+        <v>5.383828795136027</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6169,7 +6249,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>7.623647853350064</v>
+        <v>6.353039877791721</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6178,7 +6258,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>7.501163750861896</v>
+        <v>6.250969792384914</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6187,7 +6267,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>7.708157384593687</v>
+        <v>6.423464487161406</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6196,7 +6276,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>6.485217224540521</v>
+        <v>5.404347687117101</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6205,7 +6285,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>7.132136623459401</v>
+        <v>5.943447186216168</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6214,7 +6294,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>7.157606394337654</v>
+        <v>5.964671995281379</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6223,7 +6303,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>6.749002765498088</v>
+        <v>5.624168971248407</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6232,7 +6312,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>3.42115385725959</v>
+        <v>2.850961547716325</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6241,7 +6321,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>4.466209429378458</v>
+        <v>3.721841191148715</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6250,7 +6330,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.716414033567808</v>
+        <v>2.263678361306507</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6259,7 +6339,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.980217753117496</v>
+        <v>1.650181460931247</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6268,7 +6348,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.101182560070915</v>
+        <v>5.084318800059096</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6277,7 +6357,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>6.454546653958529</v>
+        <v>5.378788878298774</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6286,7 +6366,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>6.460678324921229</v>
+        <v>5.383898604101025</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6295,7 +6375,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>6.022929450046417</v>
+        <v>5.019107875038681</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6304,7 +6384,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>6.014134881787268</v>
+        <v>5.011779068156057</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6313,7 +6393,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>6.044760295035334</v>
+        <v>5.037300245862778</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6322,7 +6402,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>5.739849952094466</v>
+        <v>4.783208293412055</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6331,7 +6411,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>6.149089887495477</v>
+        <v>5.124241572912898</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6340,7 +6420,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.356068564170897</v>
+        <v>3.630057136809081</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6349,7 +6429,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.323279400830002</v>
+        <v>2.769399500691668</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6358,7 +6438,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>6.134897551958537</v>
+        <v>5.112414626632114</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6367,7 +6447,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.244512369521102</v>
+        <v>3.537093641267585</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6376,7 +6456,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.604177632853087</v>
+        <v>1.336814694044239</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6385,7 +6465,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.509553707647994</v>
+        <v>2.924628089706662</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6394,7 +6474,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.805092054247643</v>
+        <v>2.337576711873036</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6403,7 +6483,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>5.166065539661357</v>
+        <v>4.305054616384465</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6412,7 +6492,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.822760283864215</v>
+        <v>3.185633569886845</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6421,7 +6501,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.183500298203615</v>
+        <v>1.819583581836346</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6430,7 +6510,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.754677068444438</v>
+        <v>2.295564223703698</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6439,7 +6519,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>5.589323740979254</v>
+        <v>4.657769784149378</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6448,7 +6528,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>5.831881830242664</v>
+        <v>4.85990152520222</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6457,7 +6537,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>5.910133006408339</v>
+        <v>4.925110838673616</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6466,7 +6546,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>6.805582661701686</v>
+        <v>5.671318884751405</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6475,7 +6555,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>6.236039370088764</v>
+        <v>5.19669947507397</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6484,7 +6564,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>7.32225788115055</v>
+        <v>6.101881567625459</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6493,7 +6573,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.424726236213916</v>
+        <v>5.353938530178263</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6502,7 +6582,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.35177361850317</v>
+        <v>6.126478015419309</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6511,7 +6591,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>7.904712211878167</v>
+        <v>6.58726017656514</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6520,7 +6600,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>9.005362059197283</v>
+        <v>7.504468382664403</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6529,7 +6609,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>8.447263095380826</v>
+        <v>7.039385912817355</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6538,7 +6618,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>7.749833991610815</v>
+        <v>6.458194993009013</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6547,7 +6627,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>8.32371336343506</v>
+        <v>6.93642780286255</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6556,7 +6636,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>8.283137650186664</v>
+        <v>6.902614708488887</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6565,7 +6645,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>11.29408742290346</v>
+        <v>9.411739519086217</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6574,7 +6654,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>8.426189256032389</v>
+        <v>7.021824380026991</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6583,7 +6663,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>9.805837190089182</v>
+        <v>8.171530991740985</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6592,7 +6672,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>10.90888662694483</v>
+        <v>9.090738855787359</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6601,7 +6681,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>10.9411356523326</v>
+        <v>9.117613043610502</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6610,7 +6690,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>11.27458204875397</v>
+        <v>9.395485040628309</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6619,7 +6699,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>10.67315339441496</v>
+        <v>8.894294495345799</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6628,7 +6708,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>13.27129688635507</v>
+        <v>11.05941407196256</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6637,7 +6717,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>9.55582818626576</v>
+        <v>7.963190155221468</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6646,7 +6726,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>13.85206101279445</v>
+        <v>11.54338417732871</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6655,7 +6735,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>13.18596298474215</v>
+        <v>10.98830248728513</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6664,7 +6744,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>11.92916239394505</v>
+        <v>9.940968661620877</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6673,7 +6753,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>12.46153880251287</v>
+        <v>10.38461566876073</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6682,7 +6762,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>11.04651606708023</v>
+        <v>9.205430055900193</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6691,7 +6771,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>11.71589236685429</v>
+        <v>9.763243639045243</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6700,7 +6780,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>12.39812995689677</v>
+        <v>10.33177496408064</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6709,7 +6789,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>11.83103029346775</v>
+        <v>9.859191911223125</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6718,7 +6798,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>11.05783236570338</v>
+        <v>9.21486030475282</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6727,7 +6807,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>13.36961647245301</v>
+        <v>11.14134706037751</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6736,7 +6816,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>12.04279652854066</v>
+        <v>10.03566377378388</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6745,7 +6825,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>12.15231897261213</v>
+        <v>10.12693247717677</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6754,7 +6834,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>13.95546576616203</v>
+        <v>11.62955480513502</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6763,7 +6843,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>13.60522845267286</v>
+        <v>11.33769037722738</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6772,7 +6852,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>12.17051698104718</v>
+        <v>10.14209748420598</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6781,7 +6861,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>12.83351329223819</v>
+        <v>10.6945944101985</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6790,7 +6870,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>9.749844263651033</v>
+        <v>8.124870219709194</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6799,7 +6879,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>8.402054484798615</v>
+        <v>7.001712070665513</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6808,7 +6888,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>7.271722448410085</v>
+        <v>6.059768707008404</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6817,7 +6897,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>5.59275584908085</v>
+        <v>4.660629874234042</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6826,7 +6906,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>3.816782724162654</v>
+        <v>3.180652270135545</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6835,7 +6915,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>6.465251178377645</v>
+        <v>5.387709315314704</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6844,7 +6924,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>2.250017887797083</v>
+        <v>1.875014906497569</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6853,7 +6933,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>10.76133996381523</v>
+        <v>8.96778330317936</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6862,7 +6942,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>10.10011923013528</v>
+        <v>8.416766025112731</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6871,7 +6951,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>10.93503768537596</v>
+        <v>9.112531404479968</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6880,7 +6960,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>10.93944214293944</v>
+        <v>9.116201785782867</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6889,7 +6969,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>11.15607209315622</v>
+        <v>9.29672674429685</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6898,7 +6978,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>11.1589484053982</v>
+        <v>9.299123671165168</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6907,7 +6987,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>9.735516489746093</v>
+        <v>8.112930408121745</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6916,7 +6996,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>11.32007948705837</v>
+        <v>9.433399572548643</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6925,7 +7005,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>12.55449218687654</v>
+        <v>10.46207682239712</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6934,7 +7014,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>11.0532829709929</v>
+        <v>9.211069142494081</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6943,7 +7023,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>11.17366240137173</v>
+        <v>9.311385334476443</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6952,7 +7032,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>10.65979635196206</v>
+        <v>8.883163626635055</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6961,7 +7041,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>9.724640002622284</v>
+        <v>8.103866668851904</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6970,7 +7050,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>8.318901043001043</v>
+        <v>6.932417535834203</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6979,7 +7059,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>6.568694703320247</v>
+        <v>5.473912252766873</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6988,7 +7068,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>5.722933388858153</v>
+        <v>4.769111157381794</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6997,7 +7077,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>6.740160309817973</v>
+        <v>5.616800258181644</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7006,7 +7086,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>5.207461979199421</v>
+        <v>4.339551649332851</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7015,7 +7095,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>5.112130224061612</v>
+        <v>4.260108520051344</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7024,7 +7104,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>6.628332478442966</v>
+        <v>5.523610398702473</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7033,7 +7113,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>5.905361847835432</v>
+        <v>4.921134873196194</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7042,7 +7122,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>3.20320722013882</v>
+        <v>2.669339350115683</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7051,7 +7131,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>6.164898163242216</v>
+        <v>5.13741513603518</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7060,7 +7140,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>5.304881897075204</v>
+        <v>4.420734914229337</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7069,7 +7149,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>4.50235506123752</v>
+        <v>3.751962551031268</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7078,7 +7158,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>5.065808083563041</v>
+        <v>4.221506736302534</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7087,7 +7167,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>4.684090043958738</v>
+        <v>3.903408369965616</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7096,7 +7176,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>5.674968827655785</v>
+        <v>4.729140689713154</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7105,7 +7185,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>4.751523433601873</v>
+        <v>3.959602861334894</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7114,7 +7194,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>4.601657300792795</v>
+        <v>3.834714417327329</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7123,7 +7203,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>4.208849683650609</v>
+        <v>3.507374736375507</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7132,7 +7212,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>7.595141180300447</v>
+        <v>6.32928431691704</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7141,7 +7221,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>7.025557449618754</v>
+        <v>5.854631208015628</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7150,7 +7230,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>3.269428501174814</v>
+        <v>2.724523750979011</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7159,7 +7239,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>7.881206227232974</v>
+        <v>6.567671856027479</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7168,7 +7248,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>4.546751384504498</v>
+        <v>3.788959487087082</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7177,7 +7257,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>7.986041872875704</v>
+        <v>6.655034894063087</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7186,7 +7266,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>7.07928751310384</v>
+        <v>5.899406260919867</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7195,7 +7275,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>7.485668960307802</v>
+        <v>6.238057466923168</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7204,7 +7284,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>8.068613944255377</v>
+        <v>6.723844953546148</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7213,7 +7293,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>7.615510946411072</v>
+        <v>6.346259122009227</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7222,7 +7302,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>6.009988064871251</v>
+        <v>5.00832338739271</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7231,7 +7311,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>6.211463713879609</v>
+        <v>5.176219761566341</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7240,7 +7320,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>7.25648722734509</v>
+        <v>6.047072689454242</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7249,7 +7329,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>6.072622689963511</v>
+        <v>5.060518908302926</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7258,7 +7338,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>7.364660873381451</v>
+        <v>6.137217394484543</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7267,7 +7347,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>7.478616965107197</v>
+        <v>6.232180804255998</v>
       </c>
     </row>
     <row r="145">
@@ -7275,7 +7355,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>7.838593581113806</v>
+        <v>6.532161317594839</v>
       </c>
     </row>
     <row r="146">
@@ -7322,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-21.73030568032146</v>
+        <v>-18.10858806693455</v>
       </c>
     </row>
     <row r="3">
@@ -7330,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-20.63498256702926</v>
+        <v>-17.19581880585772</v>
       </c>
     </row>
     <row r="4">
@@ -7338,7 +7418,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-21.17760880123699</v>
+        <v>-17.64800733436416</v>
       </c>
     </row>
     <row r="5">
@@ -7346,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-20.81098226411579</v>
+        <v>-17.34248522009649</v>
       </c>
     </row>
     <row r="6">
@@ -7354,7 +7434,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-20.89729521568114</v>
+        <v>-17.41441267973428</v>
       </c>
     </row>
     <row r="7">
@@ -7362,7 +7442,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-20.75225036199588</v>
+        <v>-17.2935419683299</v>
       </c>
     </row>
     <row r="8">
@@ -7370,7 +7450,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-21.46353848945335</v>
+        <v>-17.88628207454446</v>
       </c>
     </row>
     <row r="9">
@@ -7378,7 +7458,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-21.55659413259049</v>
+        <v>-17.96382844382541</v>
       </c>
     </row>
     <row r="10">
@@ -7386,7 +7466,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-21.03126348499302</v>
+        <v>-17.52605290416085</v>
       </c>
     </row>
     <row r="11">
@@ -7394,7 +7474,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-21.05306259311381</v>
+        <v>-17.54421882759484</v>
       </c>
     </row>
     <row r="12">
@@ -7402,7 +7482,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-20.73673485423097</v>
+        <v>-17.28061237852581</v>
       </c>
     </row>
     <row r="13">
@@ -7410,7 +7490,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-21.51018395980275</v>
+        <v>-17.92515329983563</v>
       </c>
     </row>
     <row r="14">
@@ -7418,7 +7498,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-21.47728991614661</v>
+        <v>-17.89774159678884</v>
       </c>
     </row>
     <row r="15">
@@ -7426,7 +7506,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-22.02154411325553</v>
+        <v>-18.35128676104627</v>
       </c>
     </row>
     <row r="16">
@@ -7434,7 +7514,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-21.74234897688675</v>
+        <v>-18.11862414740562</v>
       </c>
     </row>
     <row r="17">
@@ -7442,7 +7522,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-21.28937504630099</v>
+        <v>-17.7411458719175</v>
       </c>
     </row>
     <row r="18">
@@ -7450,7 +7530,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-22.21277970258937</v>
+        <v>-18.51064975215781</v>
       </c>
     </row>
     <row r="19">
@@ -7458,7 +7538,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-21.75621773912045</v>
+        <v>-18.13018144926705</v>
       </c>
     </row>
     <row r="20">
@@ -7466,7 +7546,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-22.01240986089874</v>
+        <v>-18.34367488408229</v>
       </c>
     </row>
     <row r="21">
@@ -7474,7 +7554,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-22.01375201266391</v>
+        <v>-18.3447933438866</v>
       </c>
     </row>
     <row r="22">
@@ -7482,7 +7562,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-22.67842572613345</v>
+        <v>-18.89868810511121</v>
       </c>
     </row>
     <row r="23">
@@ -7490,7 +7570,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-22.97594557688715</v>
+        <v>-19.14662131407263</v>
       </c>
     </row>
     <row r="24">
@@ -7498,7 +7578,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-22.78640295041476</v>
+        <v>-18.98866912534564</v>
       </c>
     </row>
     <row r="25">
@@ -7506,7 +7586,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-23.13459091712224</v>
+        <v>-19.27882576426854</v>
       </c>
     </row>
     <row r="26">
@@ -7514,7 +7594,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-22.69339562042959</v>
+        <v>-18.91116301702466</v>
       </c>
     </row>
     <row r="27">
@@ -7522,7 +7602,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-23.2842529054436</v>
+        <v>-19.40354408786967</v>
       </c>
     </row>
     <row r="28">
@@ -7530,7 +7610,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-23.21189636200902</v>
+        <v>-19.34324696834085</v>
       </c>
     </row>
     <row r="29">
@@ -7538,7 +7618,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-23.54551773053748</v>
+        <v>-19.6212647754479</v>
       </c>
     </row>
     <row r="30">
@@ -7546,7 +7626,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-24.44329907549495</v>
+        <v>-20.36941589624579</v>
       </c>
     </row>
     <row r="31">
@@ -7554,7 +7634,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-23.5591368245935</v>
+        <v>-19.63261402049458</v>
       </c>
     </row>
     <row r="32">
@@ -7562,7 +7642,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-24.13270939925223</v>
+        <v>-20.11059116604353</v>
       </c>
     </row>
     <row r="33">
@@ -7570,7 +7650,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-24.08880772554921</v>
+        <v>-20.07400643795767</v>
       </c>
     </row>
     <row r="34">
@@ -7578,7 +7658,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-23.33637996324597</v>
+        <v>-19.44698330270498</v>
       </c>
     </row>
     <row r="35">
@@ -7586,7 +7666,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-22.92898505526811</v>
+        <v>-19.10748754605676</v>
       </c>
     </row>
     <row r="36">
@@ -7594,7 +7674,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-23.18404809851223</v>
+        <v>-19.32004008209353</v>
       </c>
     </row>
     <row r="37">
@@ -7602,7 +7682,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-23.64706640495225</v>
+        <v>-19.70588867079354</v>
       </c>
     </row>
     <row r="38">
@@ -7610,7 +7690,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-22.54828390629949</v>
+        <v>-18.79023658858291</v>
       </c>
     </row>
     <row r="39">
@@ -7618,7 +7698,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-23.29158854886443</v>
+        <v>-19.40965712405369</v>
       </c>
     </row>
     <row r="40">
@@ -7626,7 +7706,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-22.32897442252814</v>
+        <v>-18.60747868544012</v>
       </c>
     </row>
     <row r="41">
@@ -7634,7 +7714,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-22.80277239182514</v>
+        <v>-19.00231032652095</v>
       </c>
     </row>
     <row r="42">
@@ -7642,7 +7722,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-23.71615698078257</v>
+        <v>-19.76346415065215</v>
       </c>
     </row>
     <row r="43">
@@ -7650,7 +7730,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-22.05567655583431</v>
+        <v>-18.37973046319526</v>
       </c>
     </row>
     <row r="44">
@@ -7658,7 +7738,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-22.90955381327221</v>
+        <v>-19.09129484439351</v>
       </c>
     </row>
     <row r="45">
@@ -7666,7 +7746,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-22.85055112646349</v>
+        <v>-19.04212593871958</v>
       </c>
     </row>
     <row r="46">
@@ -7674,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-22.55578412689449</v>
+        <v>-18.79648677241208</v>
       </c>
     </row>
     <row r="47">
@@ -7682,7 +7762,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-22.84970066699817</v>
+        <v>-19.04141722249848</v>
       </c>
     </row>
     <row r="48">
@@ -7690,7 +7770,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-21.56094947343328</v>
+        <v>-17.96745789452774</v>
       </c>
     </row>
     <row r="49">
@@ -7698,7 +7778,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-21.65094256383679</v>
+        <v>-18.04245213653066</v>
       </c>
     </row>
     <row r="50">
@@ -7706,7 +7786,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-21.50489460210428</v>
+        <v>-17.92074550175357</v>
       </c>
     </row>
     <row r="51">
@@ -7714,7 +7794,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-23.07787029584807</v>
+        <v>-19.23155857987339</v>
       </c>
     </row>
     <row r="52">
@@ -7722,7 +7802,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-22.93844970160362</v>
+        <v>-19.11537475133635</v>
       </c>
     </row>
     <row r="53">
@@ -7730,7 +7810,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-22.07640792975542</v>
+        <v>-18.39700660812952</v>
       </c>
     </row>
     <row r="54">
@@ -7738,7 +7818,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-22.64395224118977</v>
+        <v>-18.86996020099147</v>
       </c>
     </row>
     <row r="55">
@@ -7746,7 +7826,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-21.91003852642142</v>
+        <v>-18.25836543868452</v>
       </c>
     </row>
     <row r="56">
@@ -7754,7 +7834,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-22.56388025579291</v>
+        <v>-18.80323354649409</v>
       </c>
     </row>
     <row r="57">
@@ -7762,7 +7842,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-22.4053167786615</v>
+        <v>-18.67109731555125</v>
       </c>
     </row>
     <row r="58">
@@ -7770,7 +7850,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-22.6207242809625</v>
+        <v>-18.85060356746875</v>
       </c>
     </row>
     <row r="59">
@@ -7778,7 +7858,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-22.11168704982036</v>
+        <v>-18.4264058748503</v>
       </c>
     </row>
     <row r="60">
@@ -7786,7 +7866,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-22.10972646827276</v>
+        <v>-18.42477205689397</v>
       </c>
     </row>
     <row r="61">
@@ -7794,7 +7874,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-22.36025815024379</v>
+        <v>-18.63354845853649</v>
       </c>
     </row>
     <row r="62">
@@ -7802,7 +7882,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-22.77957258270602</v>
+        <v>-18.98297715225501</v>
       </c>
     </row>
     <row r="63">
@@ -7810,7 +7890,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-22.0821478256184</v>
+        <v>-18.401789854682</v>
       </c>
     </row>
     <row r="64">
@@ -7818,7 +7898,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-21.18426943329831</v>
+        <v>-17.65355786108193</v>
       </c>
     </row>
     <row r="65">
@@ -7826,7 +7906,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-22.03361049634163</v>
+        <v>-18.36134208028469</v>
       </c>
     </row>
     <row r="66">
@@ -7834,7 +7914,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-21.09461238808019</v>
+        <v>-17.57884365673349</v>
       </c>
     </row>
     <row r="67">
@@ -7842,7 +7922,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-20.90474411989832</v>
+        <v>-17.42062009991527</v>
       </c>
     </row>
     <row r="68">
@@ -7850,7 +7930,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-21.24333552475599</v>
+        <v>-17.70277960396333</v>
       </c>
     </row>
     <row r="69">
@@ -7858,7 +7938,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-20.58931115314112</v>
+        <v>-17.15775929428427</v>
       </c>
     </row>
     <row r="70">
@@ -7866,7 +7946,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-20.68283831182779</v>
+        <v>-17.23569859318983</v>
       </c>
     </row>
     <row r="71">
@@ -7874,7 +7954,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-20.98996519571098</v>
+        <v>-17.49163766309249</v>
       </c>
     </row>
     <row r="72">
@@ -7882,7 +7962,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-20.21027255808032</v>
+        <v>-16.84189379840027</v>
       </c>
     </row>
     <row r="73">
@@ -7890,7 +7970,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-20.29822485708113</v>
+        <v>-16.91518738090094</v>
       </c>
     </row>
     <row r="74">
@@ -7898,7 +7978,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-20.09655655676703</v>
+        <v>-16.74713046397253</v>
       </c>
     </row>
     <row r="75">
@@ -7906,7 +7986,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-20.34374436640866</v>
+        <v>-16.95312030534055</v>
       </c>
     </row>
     <row r="76">
@@ -7914,7 +7994,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-20.33700117889657</v>
+        <v>-16.94750098241381</v>
       </c>
     </row>
     <row r="77">
@@ -7922,7 +8002,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-20.3782135991124</v>
+        <v>-16.981844665927</v>
       </c>
     </row>
     <row r="78">
@@ -7930,7 +8010,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-20.86233431516001</v>
+        <v>-17.38527859596667</v>
       </c>
     </row>
     <row r="79">
@@ -7938,7 +8018,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-21.26119891350093</v>
+        <v>-17.71766576125078</v>
       </c>
     </row>
     <row r="80">
@@ -7946,7 +8026,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-20.78359453278595</v>
+        <v>-17.31966211065496</v>
       </c>
     </row>
     <row r="81">
@@ -7954,7 +8034,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-19.96595163495365</v>
+        <v>-16.63829302912805</v>
       </c>
     </row>
     <row r="82">
@@ -7962,7 +8042,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-19.99621565463183</v>
+        <v>-16.66351304552652</v>
       </c>
     </row>
     <row r="83">
@@ -7970,7 +8050,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-20.11892695870896</v>
+        <v>-16.7657724655908</v>
       </c>
     </row>
     <row r="84">
@@ -7978,7 +8058,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-19.92018635878271</v>
+        <v>-16.60015529898559</v>
       </c>
     </row>
     <row r="85">
@@ -7986,7 +8066,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-20.48763430852075</v>
+        <v>-17.07302859043396</v>
       </c>
     </row>
     <row r="86">
@@ -7994,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-20.28220933684275</v>
+        <v>-16.90184111403562</v>
       </c>
     </row>
     <row r="87">
@@ -8002,7 +8082,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-20.35639855054675</v>
+        <v>-16.96366545878896</v>
       </c>
     </row>
     <row r="88">
@@ -8010,7 +8090,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-19.78326964432133</v>
+        <v>-16.48605803693444</v>
       </c>
     </row>
     <row r="89">
@@ -8018,7 +8098,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-19.81680072770918</v>
+        <v>-16.51400060642431</v>
       </c>
     </row>
     <row r="90">
@@ -8026,7 +8106,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-20.36914968427994</v>
+        <v>-16.97429140356662</v>
       </c>
     </row>
     <row r="91">
@@ -8034,7 +8114,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-21.17218135955604</v>
+        <v>-17.6434844662967</v>
       </c>
     </row>
     <row r="92">
@@ -8042,7 +8122,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-21.38844137894667</v>
+        <v>-17.82370114912223</v>
       </c>
     </row>
     <row r="93">
@@ -8050,7 +8130,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-21.72688459112056</v>
+        <v>-18.10573715926713</v>
       </c>
     </row>
     <row r="94">
@@ -8058,7 +8138,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-21.90089582560245</v>
+        <v>-18.25074652133538</v>
       </c>
     </row>
     <row r="95">
@@ -8066,7 +8146,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-21.44991646425897</v>
+        <v>-17.87493038688248</v>
       </c>
     </row>
     <row r="96">
@@ -8074,7 +8154,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-20.85649581213314</v>
+        <v>-17.38041317677762</v>
       </c>
     </row>
     <row r="97">
@@ -8082,7 +8162,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-20.52154086086463</v>
+        <v>-17.10128405072053</v>
       </c>
     </row>
     <row r="98">
@@ -8090,7 +8170,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-20.27055884274094</v>
+        <v>-16.89213236895078</v>
       </c>
     </row>
     <row r="99">
@@ -8098,7 +8178,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-20.3548410726582</v>
+        <v>-16.9623675605485</v>
       </c>
     </row>
     <row r="100">
@@ -8106,7 +8186,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-20.63016247531946</v>
+        <v>-17.19180206276621</v>
       </c>
     </row>
     <row r="101">
@@ -8114,7 +8194,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-20.17920125741666</v>
+        <v>-16.81600104784722</v>
       </c>
     </row>
     <row r="102">
@@ -8122,7 +8202,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-20.22052914438473</v>
+        <v>-16.85044095365394</v>
       </c>
     </row>
     <row r="103">
@@ -8130,7 +8210,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-21.01966379010804</v>
+        <v>-17.5163864917567</v>
       </c>
     </row>
     <row r="104">
@@ -8138,7 +8218,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-20.76735832523564</v>
+        <v>-17.30613193769636</v>
       </c>
     </row>
     <row r="105">
@@ -8146,7 +8226,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-20.25561730480126</v>
+        <v>-16.87968108733438</v>
       </c>
     </row>
     <row r="106">
@@ -8154,7 +8234,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-20.34732189889558</v>
+        <v>-16.95610158241299</v>
       </c>
     </row>
     <row r="107">
@@ -8162,7 +8242,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-19.89776180868657</v>
+        <v>-16.58146817390547</v>
       </c>
     </row>
     <row r="108">
@@ -8170,7 +8250,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-20.53740853086209</v>
+        <v>-17.11450710905174</v>
       </c>
     </row>
     <row r="109">
@@ -8178,7 +8258,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-21.03202163873611</v>
+        <v>-17.52668469894676</v>
       </c>
     </row>
     <row r="110">
@@ -8186,7 +8266,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-21.05521565230851</v>
+        <v>-17.54601304359043</v>
       </c>
     </row>
     <row r="111">
@@ -8194,7 +8274,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-20.84562484540564</v>
+        <v>-17.37135403783803</v>
       </c>
     </row>
     <row r="112">
@@ -8202,7 +8282,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-23.12295471566557</v>
+        <v>-19.26912892972131</v>
       </c>
     </row>
     <row r="113">
@@ -8210,7 +8290,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-23.80427778750495</v>
+        <v>-19.83689815625412</v>
       </c>
     </row>
     <row r="114">
@@ -8218,7 +8298,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-22.82677473907831</v>
+        <v>-19.02231228256526</v>
       </c>
     </row>
     <row r="115">
@@ -8226,7 +8306,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-22.50203122412356</v>
+        <v>-18.75169268676963</v>
       </c>
     </row>
     <row r="116">
@@ -8234,7 +8314,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-22.02989546905344</v>
+        <v>-18.3582462242112</v>
       </c>
     </row>
     <row r="117">
@@ -8242,7 +8322,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-23.16271412799685</v>
+        <v>-19.30226177333071</v>
       </c>
     </row>
     <row r="118">
@@ -8250,7 +8330,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-22.48211634653101</v>
+        <v>-18.73509695544251</v>
       </c>
     </row>
     <row r="119">
@@ -8258,7 +8338,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-23.81958999495619</v>
+        <v>-19.84965832913016</v>
       </c>
     </row>
     <row r="120">
@@ -8266,7 +8346,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-22.55655942874398</v>
+        <v>-18.79713285728666</v>
       </c>
     </row>
     <row r="121">
@@ -8274,7 +8354,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-23.7092802397318</v>
+        <v>-19.75773353310984</v>
       </c>
     </row>
     <row r="122">
@@ -8282,7 +8362,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-23.06691830461695</v>
+        <v>-19.22243192051413</v>
       </c>
     </row>
     <row r="123">
@@ -8290,7 +8370,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-22.68706716309237</v>
+        <v>-18.90588930257697</v>
       </c>
     </row>
     <row r="124">
@@ -8298,7 +8378,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-24.33691613336157</v>
+        <v>-20.28076344446798</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8386,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-22.85606026844802</v>
+        <v>-19.04671689037335</v>
       </c>
     </row>
     <row r="126">
@@ -8314,7 +8394,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-22.80365459097592</v>
+        <v>-19.00304549247993</v>
       </c>
     </row>
     <row r="127">
@@ -8322,7 +8402,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-23.40140544196916</v>
+        <v>-19.50117120164096</v>
       </c>
     </row>
     <row r="128">
@@ -8330,7 +8410,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-22.7718756467837</v>
+        <v>-18.97656303898642</v>
       </c>
     </row>
     <row r="129">
@@ -8338,7 +8418,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-22.13405392913726</v>
+        <v>-18.44504494094772</v>
       </c>
     </row>
     <row r="130">
@@ -8346,7 +8426,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-22.27777647741259</v>
+        <v>-18.56481373117716</v>
       </c>
     </row>
     <row r="131">
@@ -8354,7 +8434,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-21.54521884168427</v>
+        <v>-17.95434903473689</v>
       </c>
     </row>
     <row r="132">
@@ -8362,7 +8442,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-21.52207699542893</v>
+        <v>-17.93506416285744</v>
       </c>
     </row>
     <row r="133">
@@ -8370,7 +8450,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-21.21682477613261</v>
+        <v>-17.68068731344384</v>
       </c>
     </row>
     <row r="134">
@@ -8378,7 +8458,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-21.63211906237365</v>
+        <v>-18.02676588531137</v>
       </c>
     </row>
     <row r="135">
@@ -8386,7 +8466,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-21.16851228369208</v>
+        <v>-17.64042690307673</v>
       </c>
     </row>
     <row r="136">
@@ -8394,7 +8474,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-21.66801536012312</v>
+        <v>-18.05667946676926</v>
       </c>
     </row>
     <row r="137">
@@ -8402,7 +8482,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-21.6163580531092</v>
+        <v>-18.01363171092433</v>
       </c>
     </row>
     <row r="138">
@@ -8410,7 +8490,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-21.39153202864305</v>
+        <v>-17.82627669053587</v>
       </c>
     </row>
     <row r="139">
@@ -8418,7 +8498,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-21.37514588046782</v>
+        <v>-17.81262156705651</v>
       </c>
     </row>
     <row r="140">
@@ -8426,7 +8506,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-21.89169514542028</v>
+        <v>-18.24307928785023</v>
       </c>
     </row>
     <row r="141">
@@ -8434,7 +8514,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-21.72563230199104</v>
+        <v>-18.10469358499254</v>
       </c>
     </row>
     <row r="142">
@@ -8442,7 +8522,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-21.60701814591338</v>
+        <v>-18.00584845492781</v>
       </c>
     </row>
     <row r="143">
@@ -8450,7 +8530,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-21.38522331982413</v>
+        <v>-17.82101943318677</v>
       </c>
     </row>
     <row r="144">
@@ -8458,7 +8538,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-21.72541241586088</v>
+        <v>-18.10451034655073</v>
       </c>
     </row>
     <row r="145">
@@ -8466,7 +8546,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-21.86613768317268</v>
+        <v>-18.2217814026439</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012004484</v>
+        <v>2015002143</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014005852</v>
+        <v>2012007145</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2015006703</v>
+        <v>2012002563</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014008028</v>
+        <v>2012008082</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013008371</v>
+        <v>2014008854</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016000045</v>
+        <v>2013003084</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2023,120 +2023,6 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2013002527</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>30</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2013008229</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" t="n">
-        <v>250</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2015008636</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2191,101 +2077,101 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012004484</v>
+        <v>2015002143</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>65.02291031408539</v>
+        <v>25.08185696</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014005852</v>
+        <v>2015002143</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="C3" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
-        <v>35.34900739999999</v>
+        <v>27.2319352</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>28.29552073553284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2014005852</v>
+        <v>2012007145</v>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D4" t="n">
-        <v>35.62259519999999</v>
+        <v>57.4089626</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2015006703</v>
+        <v>2012007145</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C5" t="n">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D5" t="n">
-        <v>37.81129706054119</v>
+        <v>58.5194072</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2014008028</v>
+        <v>2012002563</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>33.43389226054119</v>
+        <v>35.62259466054121</v>
       </c>
       <c r="E6" t="n">
-        <v>36.95880746136388</v>
+        <v>37.32334662914938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2014008028</v>
+        <v>2012002563</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>36.33070479999999</v>
+        <v>35.1076064</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -2293,139 +2179,69 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013008371</v>
+        <v>2012008082</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>17.54370839446736</v>
+        <v>28.89277407446735</v>
       </c>
       <c r="E8" t="n">
-        <v>24.05545083127143</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2013008371</v>
+        <v>2014008854</v>
       </c>
       <c r="B9" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
-        <v>28.15569635446735</v>
+        <v>56.2985179956624</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2016000045</v>
+        <v>2013003084</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D10" t="n">
-        <v>60.09107422327789</v>
+        <v>14.01603511446736</v>
       </c>
       <c r="E10" t="n">
-        <v>74.93332092348821</v>
+        <v>29.99999999446736</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>2013002527</v>
-      </c>
-      <c r="B11" t="n">
-        <v>34</v>
-      </c>
-      <c r="C11" t="n">
-        <v>114</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26.12470927446736</v>
-      </c>
-      <c r="E11" t="n">
-        <v>30</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2013008229</v>
-      </c>
-      <c r="B12" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>24.87908011446737</v>
-      </c>
-      <c r="E12" t="n">
-        <v>28.25723541261248</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2013008229</v>
-      </c>
-      <c r="B13" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" t="n">
-        <v>120</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26.67832224</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2013008229</v>
-      </c>
-      <c r="B14" t="n">
-        <v>125</v>
-      </c>
-      <c r="C14" t="n">
-        <v>143</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.67832224</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>2015008636</v>
-      </c>
-      <c r="B15" t="n">
-        <v>34</v>
-      </c>
-      <c r="C15" t="n">
-        <v>118</v>
-      </c>
-      <c r="D15" t="n">
-        <v>21.69902427446736</v>
-      </c>
-      <c r="E15" t="n">
-        <v>29.45733332780069</v>
-      </c>
+      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n"/>

--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015002143</v>
+        <v>2016000494</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012007145</v>
+        <v>2012009357</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012002563</v>
+        <v>2013004971</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012008082</v>
+        <v>2014004202</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2014008854</v>
+        <v>2016000460</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2013003084</v>
+        <v>2015007351</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2023,6 +2023,196 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2012000333</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2016003247</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2015002648</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2012007577</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2013003101</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2077,118 +2267,118 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2015002143</v>
+        <v>2016000494</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>25.08185696</v>
+        <v>53.67046578</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>59.98965465094635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2015002143</v>
+        <v>2016000494</v>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" t="n">
-        <v>27.2319352</v>
+        <v>56.44657727999999</v>
       </c>
       <c r="E3" t="n">
-        <v>28.29552073553284</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012007145</v>
+        <v>2012009357</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>57.4089626</v>
+        <v>22.57734343824406</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2012007145</v>
+        <v>2012009357</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
         <v>143</v>
       </c>
       <c r="D5" t="n">
-        <v>58.5194072</v>
+        <v>17.663706552</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>23.99999999824407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2012002563</v>
+        <v>2013004971</v>
       </c>
       <c r="B6" t="n">
         <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
-        <v>35.62259466054121</v>
+        <v>25.57109631446736</v>
       </c>
       <c r="E6" t="n">
-        <v>37.32334662914938</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2012002563</v>
+        <v>2014004202</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1076064</v>
+        <v>22.35847319824407</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2012008082</v>
+        <v>2016000460</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" t="n">
-        <v>28.89277407446735</v>
+        <v>27.78554816</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
@@ -2196,49 +2386,105 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2014008854</v>
+        <v>2015007351</v>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="D9" t="n">
-        <v>56.2985179956624</v>
+        <v>64.88047006327788</v>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2013003084</v>
+        <v>2012000333</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D10" t="n">
-        <v>14.01603511446736</v>
+        <v>71.13758398327788</v>
       </c>
       <c r="E10" t="n">
-        <v>29.99999999446736</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
+      <c r="A11" s="7" t="n">
+        <v>2016003247</v>
+      </c>
+      <c r="B11" t="n">
+        <v>38</v>
+      </c>
+      <c r="C11" t="n">
+        <v>121</v>
+      </c>
+      <c r="D11" t="n">
+        <v>58.5194071956624</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="7" t="n">
+        <v>2015002648</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.62259519824407</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
+      <c r="A13" s="7" t="n">
+        <v>2012007577</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>114</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73.45503358327787</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="7" t="n">
+        <v>2013003101</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C14" t="n">
+        <v>120</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29.0564874605412</v>
+      </c>
+      <c r="E14" t="n">
+        <v>39.99981172959987</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n"/>
@@ -2811,7 +3057,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -2828,7 +3074,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -2845,7 +3091,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -2862,7 +3108,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -2879,7 +3125,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -2896,7 +3142,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -2913,7 +3159,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -2930,7 +3176,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -2947,7 +3193,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -2964,7 +3210,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -2981,7 +3227,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -2998,7 +3244,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3015,7 +3261,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -3032,7 +3278,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -3049,7 +3295,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3066,7 +3312,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -3083,7 +3329,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -3100,7 +3346,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -3117,7 +3363,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -3134,7 +3380,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -3151,7 +3397,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -3168,7 +3414,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -3185,7 +3431,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -3202,7 +3448,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -3253,7 +3499,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -5885,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>6.610407659231385</v>
+        <v>25.24240780036861</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5894,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>5.856341796868719</v>
+        <v>25.49867164052423</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5903,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>7.095315786504722</v>
+        <v>25.91670681153854</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5912,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5.448762371596046</v>
+        <v>26.12835079085956</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5921,7 +6167,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5.285018324775197</v>
+        <v>26.32935150225481</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5930,7 +6176,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>7.300293198401904</v>
+        <v>25.81811031939123</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5939,7 +6185,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>7.375627956020313</v>
+        <v>26.28081083097411</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5948,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>6.115778530621303</v>
+        <v>24.59540488952381</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5957,7 +6203,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>5.923575680310088</v>
+        <v>25.70368533979771</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5966,7 +6212,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>5.600958121595214</v>
+        <v>24.99715971420445</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5975,7 +6221,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>5.491430938970459</v>
+        <v>25.26848245614957</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5984,7 +6230,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>2.873624582920125</v>
+        <v>23.74424263702691</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5993,7 +6239,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.063614812634518</v>
+        <v>24.16210193128051</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6002,7 +6248,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>5.971705096424685</v>
+        <v>26.00547661080519</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6011,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>3.452450613868193</v>
+        <v>25.48972245106874</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6020,7 +6266,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.89231753751136</v>
+        <v>23.16777983390635</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6029,7 +6275,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4.767968510896051</v>
+        <v>24.68703107794716</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6038,7 +6284,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.484356430877392</v>
+        <v>23.59145761744397</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6047,7 +6293,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>5.135498036491253</v>
+        <v>23.30950860849618</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6056,7 +6302,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>5.383828795136027</v>
+        <v>23.72075326347827</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6065,7 +6311,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6.353039877791721</v>
+        <v>23.4621930970049</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6074,7 +6320,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>6.250969792384914</v>
+        <v>23.91435335244536</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6083,7 +6329,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>6.423464487161406</v>
+        <v>23.67583936751698</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6092,7 +6338,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>5.404347687117101</v>
+        <v>20.71620782387683</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6101,7 +6347,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>5.943447186216168</v>
+        <v>20.59873062495878</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6110,7 +6356,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.964671995281379</v>
+        <v>15.5151583946064</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6119,7 +6365,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>5.624168971248407</v>
+        <v>15.11573070323061</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6128,7 +6374,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.850961547716325</v>
+        <v>21.71472051104443</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6137,7 +6383,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.721841191148715</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6146,7 +6392,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.263678361306507</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6155,7 +6401,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.650181460931247</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6164,7 +6410,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>5.084318800059096</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6173,7 +6419,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>5.378788878298774</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6182,7 +6428,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5.383898604101025</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6191,7 +6437,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>5.019107875038681</v>
+        <v>0</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6200,7 +6446,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>5.011779068156057</v>
+        <v>0</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6209,7 +6455,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>5.037300245862778</v>
+        <v>0</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6218,7 +6464,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>4.783208293412055</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6227,7 +6473,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>5.124241572912898</v>
+        <v>0</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6236,7 +6482,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.630057136809081</v>
+        <v>0</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6245,7 +6491,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.769399500691668</v>
+        <v>0</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6254,7 +6500,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>5.112414626632114</v>
+        <v>0</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6263,7 +6509,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3.537093641267585</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6272,7 +6518,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.336814694044239</v>
+        <v>0</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6281,7 +6527,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>2.924628089706662</v>
+        <v>0</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6290,7 +6536,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.337576711873036</v>
+        <v>0</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6299,7 +6545,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.305054616384465</v>
+        <v>0</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6308,7 +6554,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.185633569886845</v>
+        <v>0</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6317,7 +6563,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.819583581836346</v>
+        <v>0</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6326,7 +6572,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.295564223703698</v>
+        <v>0</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6335,7 +6581,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>4.657769784149378</v>
+        <v>0</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6344,7 +6590,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>4.85990152520222</v>
+        <v>0</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6353,7 +6599,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.925110838673616</v>
+        <v>2.754749758621212</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6362,7 +6608,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>5.671318884751405</v>
+        <v>1.759702724530037</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6371,7 +6617,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>5.19669947507397</v>
+        <v>0</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6380,7 +6626,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>6.101881567625459</v>
+        <v>22.60104861308098</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6389,7 +6635,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>5.353938530178263</v>
+        <v>22.12008206907722</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6398,7 +6644,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>6.126478015419309</v>
+        <v>20.84818085742744</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6407,7 +6653,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>6.58726017656514</v>
+        <v>24.06606925507823</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6416,7 +6662,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>7.504468382664403</v>
+        <v>24.29866299468793</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6425,7 +6671,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>7.039385912817355</v>
+        <v>24.15556706186533</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6434,7 +6680,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6.458194993009013</v>
+        <v>25.17458748627018</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6443,7 +6689,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>6.93642780286255</v>
+        <v>25.84654118801199</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6452,7 +6698,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.902614708488887</v>
+        <v>25.20921324993228</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6461,7 +6707,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>9.411739519086217</v>
+        <v>26.79501699559308</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6470,7 +6716,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>7.021824380026991</v>
+        <v>26.99539938723672</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6479,7 +6725,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>8.171530991740985</v>
+        <v>25.988962946464</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6488,7 +6734,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>9.090738855787359</v>
+        <v>27.85065603873572</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6497,7 +6743,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>9.117613043610502</v>
+        <v>27.0980340795405</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6506,7 +6752,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>9.395485040628309</v>
+        <v>28.00746712368319</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6515,7 +6761,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>8.894294495345799</v>
+        <v>28.87629181755886</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6524,7 +6770,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>11.05941407196256</v>
+        <v>28.11608180095914</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6533,7 +6779,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>7.963190155221468</v>
+        <v>29.89208585085076</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6542,7 +6788,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>11.54338417732871</v>
+        <v>29.7247418772974</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6551,7 +6797,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>10.98830248728513</v>
+        <v>28.7237979617298</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6560,7 +6806,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>9.940968661620877</v>
+        <v>29.41879198404126</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6569,7 +6815,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>10.38461566876073</v>
+        <v>29.05072112628924</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6578,7 +6824,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>9.205430055900193</v>
+        <v>28.70252072253354</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6587,7 +6833,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>9.763243639045243</v>
+        <v>28.90988683032214</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6596,7 +6842,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>10.33177496408064</v>
+        <v>29.90109783165889</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6605,7 +6851,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>9.859191911223125</v>
+        <v>29.87886315733633</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6614,7 +6860,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>9.21486030475282</v>
+        <v>28.55933676883364</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6623,7 +6869,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>11.14134706037751</v>
+        <v>29.3447203590924</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6632,7 +6878,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>10.03566377378388</v>
+        <v>29.7122985026442</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6641,7 +6887,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>10.12693247717677</v>
+        <v>30.56257289378018</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6650,7 +6896,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>11.62955480513502</v>
+        <v>29.28744906115258</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6659,7 +6905,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>11.33769037722738</v>
+        <v>29.57343321489542</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6668,7 +6914,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>10.14209748420598</v>
+        <v>30.31003625363774</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6677,7 +6923,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>10.6945944101985</v>
+        <v>30.08529732345412</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6686,7 +6932,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>8.124870219709194</v>
+        <v>29.32549844495521</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6695,7 +6941,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>7.001712070665513</v>
+        <v>29.53008231892306</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6704,7 +6950,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>6.059768707008404</v>
+        <v>30.0025990938553</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6713,7 +6959,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>4.660629874234042</v>
+        <v>30.26445648838298</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6722,7 +6968,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>3.180652270135545</v>
+        <v>29.85193372254487</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6731,7 +6977,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>5.387709315314704</v>
+        <v>30.1591327382772</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6740,7 +6986,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>1.875014906497569</v>
+        <v>30.11295398824844</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6749,7 +6995,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>8.96778330317936</v>
+        <v>30.86217549660147</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6758,7 +7004,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>8.416766025112731</v>
+        <v>30.19551746760314</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6767,7 +7013,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>9.112531404479968</v>
+        <v>29.96565289860574</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6776,7 +7022,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>9.116201785782867</v>
+        <v>29.8163035846703</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6785,7 +7031,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>9.29672674429685</v>
+        <v>29.64510115070131</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6794,7 +7040,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>9.299123671165168</v>
+        <v>27.57795529200157</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6803,7 +7049,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>8.112930408121745</v>
+        <v>27.14446552170077</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6812,7 +7058,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>9.433399572548643</v>
+        <v>27.99738616699791</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6821,7 +7067,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>10.46207682239712</v>
+        <v>29.07826145287278</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6830,7 +7076,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>9.211069142494081</v>
+        <v>28.09939717206232</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6839,7 +7085,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>9.311385334476443</v>
+        <v>25.44945529739369</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6848,7 +7094,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>8.883163626635055</v>
+        <v>25.09248884316261</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6857,7 +7103,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>8.103866668851904</v>
+        <v>24.28821638398585</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6866,7 +7112,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>6.932417535834203</v>
+        <v>23.7463794016736</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6875,7 +7121,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>5.473912252766873</v>
+        <v>23.97824764923163</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6884,7 +7130,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>4.769111157381794</v>
+        <v>24.23600252460764</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6893,7 +7139,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>5.616800258181644</v>
+        <v>23.0972268409275</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6902,7 +7148,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>4.339551649332851</v>
+        <v>24.41914253393847</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6911,7 +7157,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>4.260108520051344</v>
+        <v>26.05714588015934</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6920,7 +7166,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>5.523610398702473</v>
+        <v>22.10838209136245</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6929,7 +7175,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>4.921134873196194</v>
+        <v>23.87610737255185</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6938,7 +7184,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>2.669339350115683</v>
+        <v>25.7253207396517</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6947,7 +7193,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>5.13741513603518</v>
+        <v>23.03162267277341</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6956,7 +7202,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>4.420734914229337</v>
+        <v>3.117671148504347</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6965,7 +7211,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>3.751962551031268</v>
+        <v>23.9602776587623</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6974,7 +7220,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>4.221506736302534</v>
+        <v>24.41480134134283</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6983,7 +7229,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>3.903408369965616</v>
+        <v>25.60164313535833</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6992,7 +7238,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>4.729140689713154</v>
+        <v>24.10621921387461</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7001,7 +7247,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>3.959602861334894</v>
+        <v>24.88446949502935</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7010,7 +7256,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>3.834714417327329</v>
+        <v>24.07208866432406</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7019,7 +7265,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>3.507374736375507</v>
+        <v>26.81822896822276</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7028,7 +7274,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>6.32928431691704</v>
+        <v>25.31984711186093</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7037,7 +7283,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>5.854631208015628</v>
+        <v>25.67574510456437</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7046,7 +7292,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>2.724523750979011</v>
+        <v>25.81164808366268</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7055,7 +7301,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>6.567671856027479</v>
+        <v>26.74850811209246</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7064,7 +7310,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>3.788959487087082</v>
+        <v>27.05017406652773</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7073,7 +7319,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>6.655034894063087</v>
+        <v>26.71694934298493</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7082,7 +7328,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>5.899406260919867</v>
+        <v>27.39231616056642</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7091,7 +7337,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>6.238057466923168</v>
+        <v>27.30968527412352</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7100,7 +7346,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>6.723844953546148</v>
+        <v>26.37233240608711</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7109,7 +7355,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>6.346259122009227</v>
+        <v>26.09993752339402</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7118,7 +7364,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>5.00832338739271</v>
+        <v>26.83802551966798</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7127,7 +7373,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>5.176219761566341</v>
+        <v>26.74332765677736</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7136,7 +7382,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>6.047072689454242</v>
+        <v>24.32020227800952</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7145,7 +7391,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>5.060518908302926</v>
+        <v>25.1440313010045</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7154,7 +7400,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>6.137217394484543</v>
+        <v>25.95719765829919</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7163,7 +7409,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>6.232180804255998</v>
+        <v>26.2111838506115</v>
       </c>
     </row>
     <row r="145">
@@ -7171,7 +7417,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>6.532161317594839</v>
+        <v>26.57940692022138</v>
       </c>
     </row>
     <row r="146">
@@ -7218,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-18.10858806693455</v>
+        <v>-31.53637774321701</v>
       </c>
     </row>
     <row r="3">
@@ -7226,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-17.19581880585772</v>
+        <v>-31.8701326331396</v>
       </c>
     </row>
     <row r="4">
@@ -7234,7 +7480,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-17.64800733436416</v>
+        <v>-31.64955925049395</v>
       </c>
     </row>
     <row r="5">
@@ -7242,7 +7488,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-17.34248522009649</v>
+        <v>-31.87345431282956</v>
       </c>
     </row>
     <row r="6">
@@ -7250,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-17.41441267973428</v>
+        <v>-32.02985307215528</v>
       </c>
     </row>
     <row r="7">
@@ -7258,7 +7504,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-17.2935419683299</v>
+        <v>-31.35135604040176</v>
       </c>
     </row>
     <row r="8">
@@ -7266,7 +7512,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-17.88628207454446</v>
+        <v>-31.72935740456798</v>
       </c>
     </row>
     <row r="9">
@@ -7274,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-17.96382844382541</v>
+        <v>-32.38130681093483</v>
       </c>
     </row>
     <row r="10">
@@ -7282,7 +7528,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-17.52605290416085</v>
+        <v>-32.69511566808879</v>
       </c>
     </row>
     <row r="11">
@@ -7290,7 +7536,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-17.54421882759484</v>
+        <v>-31.87152300686894</v>
       </c>
     </row>
     <row r="12">
@@ -7298,7 +7544,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-17.28061237852581</v>
+        <v>-31.24779240749899</v>
       </c>
     </row>
     <row r="13">
@@ -7306,7 +7552,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-17.92515329983563</v>
+        <v>-32.17018341644394</v>
       </c>
     </row>
     <row r="14">
@@ -7314,7 +7560,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-17.89774159678884</v>
+        <v>-32.06183570680671</v>
       </c>
     </row>
     <row r="15">
@@ -7322,7 +7568,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-18.35128676104627</v>
+        <v>-32.73875144557125</v>
       </c>
     </row>
     <row r="16">
@@ -7330,7 +7576,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-18.11862414740562</v>
+        <v>-32.402729971448</v>
       </c>
     </row>
     <row r="17">
@@ -7338,7 +7584,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-17.7411458719175</v>
+        <v>-32.50588904735884</v>
       </c>
     </row>
     <row r="18">
@@ -7346,7 +7592,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-18.51064975215781</v>
+        <v>-32.26239907257991</v>
       </c>
     </row>
     <row r="19">
@@ -7354,7 +7600,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-18.13018144926705</v>
+        <v>-32.37390595615209</v>
       </c>
     </row>
     <row r="20">
@@ -7362,7 +7608,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-18.34367488408229</v>
+        <v>-32.45066729931937</v>
       </c>
     </row>
     <row r="21">
@@ -7370,7 +7616,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-18.3447933438866</v>
+        <v>-32.78869984459457</v>
       </c>
     </row>
     <row r="22">
@@ -7378,7 +7624,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-18.89868810511121</v>
+        <v>-32.49175690187938</v>
       </c>
     </row>
     <row r="23">
@@ -7386,7 +7632,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-19.14662131407263</v>
+        <v>-32.13482636332811</v>
       </c>
     </row>
     <row r="24">
@@ -7394,7 +7640,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-18.98866912534564</v>
+        <v>-33.27819928362617</v>
       </c>
     </row>
     <row r="25">
@@ -7402,7 +7648,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-19.27882576426854</v>
+        <v>-33.63038497659993</v>
       </c>
     </row>
     <row r="26">
@@ -7410,7 +7656,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-18.91116301702466</v>
+        <v>-34.12795722843315</v>
       </c>
     </row>
     <row r="27">
@@ -7418,7 +7664,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-19.40354408786967</v>
+        <v>-33.8795331010141</v>
       </c>
     </row>
     <row r="28">
@@ -7426,7 +7672,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-19.34324696834085</v>
+        <v>-33.37556509400872</v>
       </c>
     </row>
     <row r="29">
@@ -7434,7 +7680,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-19.6212647754479</v>
+        <v>-33.60503507563153</v>
       </c>
     </row>
     <row r="30">
@@ -7442,7 +7688,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-20.36941589624579</v>
+        <v>-34.38133758890493</v>
       </c>
     </row>
     <row r="31">
@@ -7450,7 +7696,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-19.63261402049458</v>
+        <v>-34.73390099324752</v>
       </c>
     </row>
     <row r="32">
@@ -7458,7 +7704,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-20.11059116604353</v>
+        <v>-34.13663200188918</v>
       </c>
     </row>
     <row r="33">
@@ -7466,7 +7712,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-20.07400643795767</v>
+        <v>-35.04614011673875</v>
       </c>
     </row>
     <row r="34">
@@ -7474,7 +7720,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-19.44698330270498</v>
+        <v>-35.77974702203284</v>
       </c>
     </row>
     <row r="35">
@@ -7482,7 +7728,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-19.10748754605676</v>
+        <v>-35.74294003588555</v>
       </c>
     </row>
     <row r="36">
@@ -7490,7 +7736,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-19.32004008209353</v>
+        <v>-35.99092505361587</v>
       </c>
     </row>
     <row r="37">
@@ -7498,7 +7744,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-19.70588867079354</v>
+        <v>-35.92402352588057</v>
       </c>
     </row>
     <row r="38">
@@ -7506,7 +7752,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-18.79023658858291</v>
+        <v>-35.33709635628523</v>
       </c>
     </row>
     <row r="39">
@@ -7514,7 +7760,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-19.40965712405369</v>
+        <v>-35.73849817643313</v>
       </c>
     </row>
     <row r="40">
@@ -7522,7 +7768,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-18.60747868544012</v>
+        <v>-35.20693465675176</v>
       </c>
     </row>
     <row r="41">
@@ -7530,7 +7776,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-19.00231032652095</v>
+        <v>-36.15982819938027</v>
       </c>
     </row>
     <row r="42">
@@ -7538,7 +7784,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-19.76346415065215</v>
+        <v>-36.20511390135215</v>
       </c>
     </row>
     <row r="43">
@@ -7546,7 +7792,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-18.37973046319526</v>
+        <v>-36.49200839284805</v>
       </c>
     </row>
     <row r="44">
@@ -7554,7 +7800,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-19.09129484439351</v>
+        <v>-36.08412032362503</v>
       </c>
     </row>
     <row r="45">
@@ -7562,7 +7808,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-19.04212593871958</v>
+        <v>-36.77191451013535</v>
       </c>
     </row>
     <row r="46">
@@ -7570,7 +7816,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-18.79648677241208</v>
+        <v>-36.67256619272392</v>
       </c>
     </row>
     <row r="47">
@@ -7578,7 +7824,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-19.04141722249848</v>
+        <v>-36.39997738792861</v>
       </c>
     </row>
     <row r="48">
@@ -7586,7 +7832,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-17.96745789452774</v>
+        <v>-36.60261479671402</v>
       </c>
     </row>
     <row r="49">
@@ -7594,7 +7840,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-18.04245213653066</v>
+        <v>-36.60787473807483</v>
       </c>
     </row>
     <row r="50">
@@ -7602,7 +7848,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-17.92074550175357</v>
+        <v>-36.78035959249426</v>
       </c>
     </row>
     <row r="51">
@@ -7610,7 +7856,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-19.23155857987339</v>
+        <v>-36.55966652040515</v>
       </c>
     </row>
     <row r="52">
@@ -7618,7 +7864,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-19.11537475133635</v>
+        <v>-36.09420528095693</v>
       </c>
     </row>
     <row r="53">
@@ -7626,7 +7872,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-18.39700660812952</v>
+        <v>-35.85156919661812</v>
       </c>
     </row>
     <row r="54">
@@ -7634,7 +7880,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-18.86996020099147</v>
+        <v>-35.53591281094351</v>
       </c>
     </row>
     <row r="55">
@@ -7642,7 +7888,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-18.25836543868452</v>
+        <v>-35.62722650786342</v>
       </c>
     </row>
     <row r="56">
@@ -7650,7 +7896,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-18.80323354649409</v>
+        <v>-35.56678849044415</v>
       </c>
     </row>
     <row r="57">
@@ -7658,7 +7904,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-18.67109731555125</v>
+        <v>-35.24878954311411</v>
       </c>
     </row>
     <row r="58">
@@ -7666,7 +7912,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-18.85060356746875</v>
+        <v>-35.40901056560415</v>
       </c>
     </row>
     <row r="59">
@@ -7674,7 +7920,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-18.4264058748503</v>
+        <v>-35.39103795372822</v>
       </c>
     </row>
     <row r="60">
@@ -7682,7 +7928,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-18.42477205689397</v>
+        <v>-34.61565118330743</v>
       </c>
     </row>
     <row r="61">
@@ -7690,7 +7936,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-18.63354845853649</v>
+        <v>-34.01033656522323</v>
       </c>
     </row>
     <row r="62">
@@ -7698,7 +7944,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-18.98297715225501</v>
+        <v>-34.78159831249026</v>
       </c>
     </row>
     <row r="63">
@@ -7706,7 +7952,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-18.401789854682</v>
+        <v>-34.12007446792097</v>
       </c>
     </row>
     <row r="64">
@@ -7714,7 +7960,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-17.65355786108193</v>
+        <v>-34.36634258667731</v>
       </c>
     </row>
     <row r="65">
@@ -7722,7 +7968,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-18.36134208028469</v>
+        <v>-34.43544092729095</v>
       </c>
     </row>
     <row r="66">
@@ -7730,7 +7976,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-17.57884365673349</v>
+        <v>-33.89373556436191</v>
       </c>
     </row>
     <row r="67">
@@ -7738,7 +7984,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-17.42062009991527</v>
+        <v>-33.87400397063113</v>
       </c>
     </row>
     <row r="68">
@@ -7746,7 +7992,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-17.70277960396333</v>
+        <v>-34.08438008317245</v>
       </c>
     </row>
     <row r="69">
@@ -7754,7 +8000,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-17.15775929428427</v>
+        <v>-33.01448917177938</v>
       </c>
     </row>
     <row r="70">
@@ -7762,7 +8008,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-17.23569859318983</v>
+        <v>-33.03155432041115</v>
       </c>
     </row>
     <row r="71">
@@ -7770,7 +8016,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-17.49163766309249</v>
+        <v>-33.20956540745613</v>
       </c>
     </row>
     <row r="72">
@@ -7778,7 +8024,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-16.84189379840027</v>
+        <v>-32.82956957030508</v>
       </c>
     </row>
     <row r="73">
@@ -7786,7 +8032,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-16.91518738090094</v>
+        <v>-32.67563197447003</v>
       </c>
     </row>
     <row r="74">
@@ -7794,7 +8040,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-16.74713046397253</v>
+        <v>-32.80484633160471</v>
       </c>
     </row>
     <row r="75">
@@ -7802,7 +8048,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-16.95312030534055</v>
+        <v>-32.71254488421476</v>
       </c>
     </row>
     <row r="76">
@@ -7810,7 +8056,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-16.94750098241381</v>
+        <v>-32.97435844020105</v>
       </c>
     </row>
     <row r="77">
@@ -7818,7 +8064,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-16.981844665927</v>
+        <v>-32.98254101619123</v>
       </c>
     </row>
     <row r="78">
@@ -7826,7 +8072,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-17.38527859596667</v>
+        <v>-32.72925487754258</v>
       </c>
     </row>
     <row r="79">
@@ -7834,7 +8080,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-17.71766576125078</v>
+        <v>-32.74190979348113</v>
       </c>
     </row>
     <row r="80">
@@ -7842,7 +8088,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-17.31966211065496</v>
+        <v>-33.05204349828853</v>
       </c>
     </row>
     <row r="81">
@@ -7850,7 +8096,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-16.63829302912805</v>
+        <v>-32.2471860442921</v>
       </c>
     </row>
     <row r="82">
@@ -7858,7 +8104,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-16.66351304552652</v>
+        <v>-32.41786560364844</v>
       </c>
     </row>
     <row r="83">
@@ -7866,7 +8112,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-16.7657724655908</v>
+        <v>-33.16937620189639</v>
       </c>
     </row>
     <row r="84">
@@ -7874,7 +8120,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-16.60015529898559</v>
+        <v>-32.87896625638028</v>
       </c>
     </row>
     <row r="85">
@@ -7882,7 +8128,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-17.07302859043396</v>
+        <v>-32.60147292085121</v>
       </c>
     </row>
     <row r="86">
@@ -7890,7 +8136,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-16.90184111403562</v>
+        <v>-33.14483268520219</v>
       </c>
     </row>
     <row r="87">
@@ -7898,7 +8144,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-16.96366545878896</v>
+        <v>-32.99274913606116</v>
       </c>
     </row>
     <row r="88">
@@ -7906,7 +8152,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-16.48605803693444</v>
+        <v>-32.5601197507004</v>
       </c>
     </row>
     <row r="89">
@@ -7914,7 +8160,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-16.51400060642431</v>
+        <v>-32.91039039089715</v>
       </c>
     </row>
     <row r="90">
@@ -7922,7 +8168,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-16.97429140356662</v>
+        <v>-33.02962898994763</v>
       </c>
     </row>
     <row r="91">
@@ -7930,7 +8176,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-17.6434844662967</v>
+        <v>-33.03816567710029</v>
       </c>
     </row>
     <row r="92">
@@ -7938,7 +8184,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-17.82370114912223</v>
+        <v>-32.7952763599217</v>
       </c>
     </row>
     <row r="93">
@@ -7946,7 +8192,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-18.10573715926713</v>
+        <v>-33.04678351760862</v>
       </c>
     </row>
     <row r="94">
@@ -7954,7 +8200,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-18.25074652133538</v>
+        <v>-33.21338745513697</v>
       </c>
     </row>
     <row r="95">
@@ -7962,7 +8208,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-17.87493038688248</v>
+        <v>-32.7613113282297</v>
       </c>
     </row>
     <row r="96">
@@ -7970,7 +8216,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-17.38041317677762</v>
+        <v>-32.55773428914113</v>
       </c>
     </row>
     <row r="97">
@@ -7978,7 +8224,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-17.10128405072053</v>
+        <v>-32.40676115155146</v>
       </c>
     </row>
     <row r="98">
@@ -7986,7 +8232,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-16.89213236895078</v>
+        <v>-32.89518656283355</v>
       </c>
     </row>
     <row r="99">
@@ -7994,7 +8240,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-16.9623675605485</v>
+        <v>-32.61860485532716</v>
       </c>
     </row>
     <row r="100">
@@ -8002,7 +8248,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-17.19180206276621</v>
+        <v>-32.72976208186507</v>
       </c>
     </row>
     <row r="101">
@@ -8010,7 +8256,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-16.81600104784722</v>
+        <v>-32.91666588234835</v>
       </c>
     </row>
     <row r="102">
@@ -8018,7 +8264,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-16.85044095365394</v>
+        <v>-32.88095435363537</v>
       </c>
     </row>
     <row r="103">
@@ -8026,7 +8272,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-17.5163864917567</v>
+        <v>-33.3407873050672</v>
       </c>
     </row>
     <row r="104">
@@ -8034,7 +8280,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-17.30613193769636</v>
+        <v>-33.38299725971179</v>
       </c>
     </row>
     <row r="105">
@@ -8042,7 +8288,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-16.87968108733438</v>
+        <v>-33.09279084181755</v>
       </c>
     </row>
     <row r="106">
@@ -8050,7 +8296,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-16.95610158241299</v>
+        <v>-32.92667100481666</v>
       </c>
     </row>
     <row r="107">
@@ -8058,7 +8304,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-16.58146817390547</v>
+        <v>-33.0887017126766</v>
       </c>
     </row>
     <row r="108">
@@ -8066,7 +8312,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-17.11450710905174</v>
+        <v>-33.77295230489037</v>
       </c>
     </row>
     <row r="109">
@@ -8074,7 +8320,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-17.52668469894676</v>
+        <v>-33.5021986932743</v>
       </c>
     </row>
     <row r="110">
@@ -8082,7 +8328,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-17.54601304359043</v>
+        <v>-33.32726178134802</v>
       </c>
     </row>
     <row r="111">
@@ -8090,7 +8336,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-17.37135403783803</v>
+        <v>-34.07416163926994</v>
       </c>
     </row>
     <row r="112">
@@ -8098,7 +8344,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-19.26912892972131</v>
+        <v>-34.53599355021374</v>
       </c>
     </row>
     <row r="113">
@@ -8106,7 +8352,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-19.83689815625412</v>
+        <v>-34.2719201466556</v>
       </c>
     </row>
     <row r="114">
@@ -8114,7 +8360,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-19.02231228256526</v>
+        <v>-34.35605083280551</v>
       </c>
     </row>
     <row r="115">
@@ -8122,7 +8368,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-18.75169268676963</v>
+        <v>-34.25353930823128</v>
       </c>
     </row>
     <row r="116">
@@ -8130,7 +8376,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-18.3582462242112</v>
+        <v>-34.67339643509862</v>
       </c>
     </row>
     <row r="117">
@@ -8138,7 +8384,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-19.30226177333071</v>
+        <v>-34.04038863079204</v>
       </c>
     </row>
     <row r="118">
@@ -8146,7 +8392,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-18.73509695544251</v>
+        <v>-33.98672571413451</v>
       </c>
     </row>
     <row r="119">
@@ -8154,7 +8400,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-19.84965832913016</v>
+        <v>-34.54661824966461</v>
       </c>
     </row>
     <row r="120">
@@ -8162,7 +8408,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-18.79713285728666</v>
+        <v>-35.08182953521885</v>
       </c>
     </row>
     <row r="121">
@@ -8170,7 +8416,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-19.75773353310984</v>
+        <v>-35.1615398603042</v>
       </c>
     </row>
     <row r="122">
@@ -8178,7 +8424,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-19.22243192051413</v>
+        <v>-34.28722382184652</v>
       </c>
     </row>
     <row r="123">
@@ -8186,7 +8432,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-18.90588930257697</v>
+        <v>-33.17938937891315</v>
       </c>
     </row>
     <row r="124">
@@ -8194,7 +8440,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-20.28076344446798</v>
+        <v>-33.32699257020676</v>
       </c>
     </row>
     <row r="125">
@@ -8202,7 +8448,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-19.04671689037335</v>
+        <v>-33.38516030564449</v>
       </c>
     </row>
     <row r="126">
@@ -8210,7 +8456,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-19.00304549247993</v>
+        <v>-32.8496386326208</v>
       </c>
     </row>
     <row r="127">
@@ -8218,7 +8464,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-19.50117120164096</v>
+        <v>-32.21661363314566</v>
       </c>
     </row>
     <row r="128">
@@ -8226,7 +8472,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-18.97656303898642</v>
+        <v>-32.83068361802928</v>
       </c>
     </row>
     <row r="129">
@@ -8234,7 +8480,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-18.44504494094772</v>
+        <v>-31.93779168691509</v>
       </c>
     </row>
     <row r="130">
@@ -8242,7 +8488,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-18.56481373117716</v>
+        <v>-31.6134399492113</v>
       </c>
     </row>
     <row r="131">
@@ -8250,7 +8496,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-17.95434903473689</v>
+        <v>-31.41874269471874</v>
       </c>
     </row>
     <row r="132">
@@ -8258,7 +8504,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-17.93506416285744</v>
+        <v>-31.36388052120111</v>
       </c>
     </row>
     <row r="133">
@@ -8266,7 +8512,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-17.68068731344384</v>
+        <v>-31.36186220440184</v>
       </c>
     </row>
     <row r="134">
@@ -8274,7 +8520,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-18.02676588531137</v>
+        <v>-31.54960425415311</v>
       </c>
     </row>
     <row r="135">
@@ -8282,7 +8528,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-17.64042690307673</v>
+        <v>-29.02982814840468</v>
       </c>
     </row>
     <row r="136">
@@ -8290,7 +8536,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-18.05667946676926</v>
+        <v>-30.8750412947664</v>
       </c>
     </row>
     <row r="137">
@@ -8298,7 +8544,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-18.01363171092433</v>
+        <v>-31.93758807332743</v>
       </c>
     </row>
     <row r="138">
@@ -8306,7 +8552,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-17.82627669053587</v>
+        <v>-28.83502793383968</v>
       </c>
     </row>
     <row r="139">
@@ -8314,7 +8560,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-17.81262156705651</v>
+        <v>-31.05859927170868</v>
       </c>
     </row>
     <row r="140">
@@ -8322,7 +8568,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-18.24307928785023</v>
+        <v>-30.95048383763029</v>
       </c>
     </row>
     <row r="141">
@@ -8330,7 +8576,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-18.10469358499254</v>
+        <v>-28.79015544973447</v>
       </c>
     </row>
     <row r="142">
@@ -8338,7 +8584,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-18.00584845492781</v>
+        <v>-28.7588218718118</v>
       </c>
     </row>
     <row r="143">
@@ -8346,7 +8592,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-17.82101943318677</v>
+        <v>-31.92963485511685</v>
       </c>
     </row>
     <row r="144">
@@ -8354,7 +8600,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-18.10451034655073</v>
+        <v>-30.78391804683829</v>
       </c>
     </row>
     <row r="145">
@@ -8362,7 +8608,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-18.2217814026439</v>
+        <v>-30.83402761015253</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016000494</v>
+        <v>2015005969</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012009357</v>
+        <v>2012008281</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013004971</v>
+        <v>2015007670</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014004202</v>
+        <v>2015007260</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016000460</v>
+        <v>2012010558</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2015007351</v>
+        <v>2015005307</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2012000333</v>
+        <v>2012001989</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2016003247</v>
+        <v>2015003616</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015002648</v>
+        <v>2015004249</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2137,82 +2137,6 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2012007577</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>75</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2013003101</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>40</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2267,224 +2191,182 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016000494</v>
+        <v>2015005969</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>53.67046578</v>
+        <v>20.16977079824407</v>
       </c>
       <c r="E2" t="n">
-        <v>59.98965465094635</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2016000494</v>
+        <v>2012008281</v>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
-        <v>56.44657727999999</v>
+        <v>11.73077231446735</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>29.99999999446736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012009357</v>
+        <v>2015007670</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>22.57734343824406</v>
+        <v>33.43389226054121</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2012009357</v>
+        <v>2015007260</v>
       </c>
       <c r="B5" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>17.663706552</v>
+        <v>72.83704702327788</v>
       </c>
       <c r="E5" t="n">
-        <v>23.99999999824407</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2013004971</v>
+        <v>2015007260</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>25.57109631446736</v>
+        <v>74.22751679999998</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2014004202</v>
+        <v>2012010558</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
         <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>22.35847319824407</v>
+        <v>31.79236546054121</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2016000460</v>
+        <v>2015005307</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="C8" t="n">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D8" t="n">
-        <v>27.78554816</v>
+        <v>39.89056434054119</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2015007351</v>
+        <v>2012001989</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D9" t="n">
-        <v>64.88047006327788</v>
+        <v>4.775</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>29.99999999446736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2012000333</v>
+        <v>2015003616</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D10" t="n">
-        <v>71.13758398327788</v>
+        <v>35.07541906054121</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2016003247</v>
+        <v>2015004249</v>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5194071956624</v>
+        <v>35.20007059566241</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>59.84327007048122</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2015002648</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>105</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19.62259519824407</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2012007577</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>114</v>
-      </c>
-      <c r="D13" t="n">
-        <v>73.45503358327787</v>
-      </c>
-      <c r="E13" t="n">
-        <v>75</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2013003101</v>
-      </c>
-      <c r="B14" t="n">
-        <v>40</v>
-      </c>
-      <c r="C14" t="n">
-        <v>120</v>
-      </c>
-      <c r="D14" t="n">
-        <v>29.0564874605412</v>
-      </c>
-      <c r="E14" t="n">
-        <v>39.99981172959987</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n"/>
@@ -3057,7 +2939,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -3074,7 +2956,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -3091,7 +2973,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -3108,7 +2990,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -3125,7 +3007,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -3142,7 +3024,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -3159,7 +3041,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -3176,7 +3058,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -3193,7 +3075,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -3210,7 +3092,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -3227,7 +3109,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -3244,7 +3126,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3261,7 +3143,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -3278,7 +3160,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -3295,7 +3177,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3312,7 +3194,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -3329,7 +3211,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -3346,7 +3228,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -3363,7 +3245,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -3380,7 +3262,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -3397,7 +3279,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -3414,7 +3296,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -3431,7 +3313,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -3448,7 +3330,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -3499,7 +3381,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -3516,7 +3398,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -6131,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>25.24240780036861</v>
+        <v>7.209776449338436</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6140,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>25.49867164052423</v>
+        <v>6.554944733715548</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6149,7 +6031,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>25.91670681153854</v>
+        <v>6.533464855700191</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6158,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>26.12835079085956</v>
+        <v>9.486333433095862</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6167,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>26.32935150225481</v>
+        <v>7.5094828543412</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6176,7 +6058,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>25.81811031939123</v>
+        <v>8.376364943006111</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6185,7 +6067,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>26.28081083097411</v>
+        <v>8.705712945829481</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6194,7 +6076,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>24.59540488952381</v>
+        <v>10.51393110527682</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6203,7 +6085,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>25.70368533979771</v>
+        <v>8.786943962642431</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6212,7 +6094,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>24.99715971420445</v>
+        <v>4.926929291663811</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6221,7 +6103,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>25.26848245614957</v>
+        <v>7.390096337875105</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6230,7 +6112,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>23.74424263702691</v>
+        <v>7.021486130311442</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6239,7 +6121,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>24.16210193128051</v>
+        <v>7.930907663054197</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6248,7 +6130,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>26.00547661080519</v>
+        <v>7.62610415479673</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6257,7 +6139,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>25.48972245106874</v>
+        <v>8.102734126341787</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6266,7 +6148,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>23.16777983390635</v>
+        <v>6.743243049426412</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6275,7 +6157,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>24.68703107794716</v>
+        <v>4.809594478162289</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6284,7 +6166,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>23.59145761744397</v>
+        <v>4.145269259457015</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6293,7 +6175,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>23.30950860849618</v>
+        <v>3.728943368518115</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6302,7 +6184,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>23.72075326347827</v>
+        <v>5.252380449925207</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6311,7 +6193,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>23.4621930970049</v>
+        <v>6.236947251044609</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6320,7 +6202,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>23.91435335244536</v>
+        <v>7.715872287724836</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6329,7 +6211,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>23.67583936751698</v>
+        <v>5.497347255420938</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6338,7 +6220,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>20.71620782387683</v>
+        <v>6.285654881293755</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6347,7 +6229,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>20.59873062495878</v>
+        <v>3.331769280624226</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6356,7 +6238,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>15.5151583946064</v>
+        <v>2.04309720766194</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6365,7 +6247,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>15.11573070323061</v>
+        <v>3.500698710001154</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6374,7 +6256,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>21.71472051104443</v>
+        <v>1.821153771855541</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6383,7 +6265,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>2.126402387490702</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6392,7 +6274,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>1.610695843844634</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6401,7 +6283,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>0.9880254663779066</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6410,7 +6292,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>3.113604762709247</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6419,7 +6301,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>1.307193822752</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6428,7 +6310,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>3.055352572021646</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6437,7 +6319,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>2.700652053673066</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6446,7 +6328,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>2.185310792760118</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6455,7 +6337,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>4.236908436399363</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6464,7 +6346,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>3.697327518368344</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6473,7 +6355,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>1.804327306399139</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6482,7 +6364,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>2.917048300372369</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6491,7 +6373,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>2.300243578674228</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6500,7 +6382,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>0.7164847943922696</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6509,7 +6391,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>0.6015292930524416</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6518,7 +6400,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>0.5134284035610687</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6527,7 +6409,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>0.6007651185235835</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6536,7 +6418,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>0.1338461113839006</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6545,7 +6427,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>1.22023540610564</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6554,7 +6436,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>0.5537915838713469</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6563,7 +6445,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>0.09456262188398425</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6572,7 +6454,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>1.443454677298914</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6581,7 +6463,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>1.044143858831793</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6590,7 +6472,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>1.084198261706966</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6599,7 +6481,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.754749758621212</v>
+        <v>2.537845015805826</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6608,7 +6490,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.759702724530037</v>
+        <v>2.410984722924346</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6617,7 +6499,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>1.079184832681637</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6626,7 +6508,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>22.60104861308098</v>
+        <v>0</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6635,7 +6517,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>22.12008206907722</v>
+        <v>2.869152823073124</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6644,7 +6526,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>20.84818085742744</v>
+        <v>3.093145834218051</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6653,7 +6535,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>24.06606925507823</v>
+        <v>3.767773427217842</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6662,7 +6544,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>24.29866299468793</v>
+        <v>4.053287381326525</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6671,7 +6553,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>24.15556706186533</v>
+        <v>1.850329824983382</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6680,7 +6562,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>25.17458748627018</v>
+        <v>6.328071634672813</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6689,7 +6571,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>25.84654118801199</v>
+        <v>3.906427505352251</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6698,7 +6580,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>25.20921324993228</v>
+        <v>4.291756826596437</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6707,7 +6589,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>26.79501699559308</v>
+        <v>7.459031768520693</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6716,7 +6598,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>26.99539938723672</v>
+        <v>11.14359492094904</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6725,7 +6607,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>25.988962946464</v>
+        <v>10.3887546092718</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6734,7 +6616,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>27.85065603873572</v>
+        <v>15.63035006970129</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6743,7 +6625,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>27.0980340795405</v>
+        <v>13.10206199418237</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6752,7 +6634,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>28.00746712368319</v>
+        <v>13.25359423717056</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6761,7 +6643,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>28.87629181755886</v>
+        <v>14.32134483979746</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6770,7 +6652,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>28.11608180095914</v>
+        <v>16.51232126790438</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6779,7 +6661,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>29.89208585085076</v>
+        <v>15.98200144023526</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6788,7 +6670,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>29.7247418772974</v>
+        <v>18.69408320815175</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6797,7 +6679,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>28.7237979617298</v>
+        <v>14.52877453069552</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6806,7 +6688,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>29.41879198404126</v>
+        <v>16.26242259024344</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6815,7 +6697,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>29.05072112628924</v>
+        <v>16.74786808277729</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6824,7 +6706,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>28.70252072253354</v>
+        <v>17.81632992980157</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6833,7 +6715,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>28.90988683032214</v>
+        <v>17.39882551471437</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6842,7 +6724,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>29.90109783165889</v>
+        <v>18.60433996859152</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6851,7 +6733,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>29.87886315733633</v>
+        <v>20.64586942126846</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6860,7 +6742,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>28.55933676883364</v>
+        <v>19.50265462195029</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6869,7 +6751,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>29.3447203590924</v>
+        <v>18.93429168840177</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6878,7 +6760,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>29.7122985026442</v>
+        <v>15.53389841123606</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6887,7 +6769,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>30.56257289378018</v>
+        <v>14.84035539328115</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6896,7 +6778,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>29.28744906115258</v>
+        <v>14.34396735880778</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6905,7 +6787,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>29.57343321489542</v>
+        <v>16.47572056534621</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6914,7 +6796,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>30.31003625363774</v>
+        <v>17.80695067057016</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6923,7 +6805,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>30.08529732345412</v>
+        <v>17.40463352039126</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6932,7 +6814,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>29.32549844495521</v>
+        <v>9.466023759904044</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6941,7 +6823,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>29.53008231892306</v>
+        <v>8.129486008498091</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6950,7 +6832,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>30.0025990938553</v>
+        <v>10.82646030293474</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6959,7 +6841,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>30.26445648838298</v>
+        <v>18.25467085105751</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6968,7 +6850,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>29.85193372254487</v>
+        <v>18.10919391130118</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6977,7 +6859,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>30.1591327382772</v>
+        <v>17.28528798535748</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6986,7 +6868,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>30.11295398824844</v>
+        <v>19.75687936509501</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6995,7 +6877,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>30.86217549660147</v>
+        <v>17.99627221312524</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7004,7 +6886,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>30.19551746760314</v>
+        <v>17.75788520064231</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7013,7 +6895,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>29.96565289860574</v>
+        <v>19.20328120021965</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7022,7 +6904,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>29.8163035846703</v>
+        <v>16.94461305749347</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7031,7 +6913,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>29.64510115070131</v>
+        <v>15.25058422785289</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7040,7 +6922,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>27.57795529200157</v>
+        <v>11.49459480401311</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7049,7 +6931,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>27.14446552170077</v>
+        <v>15.85294179050397</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7058,7 +6940,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>27.99738616699791</v>
+        <v>17.88817993960539</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7067,7 +6949,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>29.07826145287278</v>
+        <v>13.01956660104113</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7076,7 +6958,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>28.09939717206232</v>
+        <v>14.79363832223139</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7085,7 +6967,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>25.44945529739369</v>
+        <v>15.04849293605401</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7094,7 +6976,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>25.09248884316261</v>
+        <v>7.737055195727281</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7103,7 +6985,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>24.28821638398585</v>
+        <v>4.796559484573039</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7112,7 +6994,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>23.7463794016736</v>
+        <v>9.867217798247284</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7121,7 +7003,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>23.97824764923163</v>
+        <v>7.094070432950648</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7130,7 +7012,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>24.23600252460764</v>
+        <v>6.303369510584407</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7139,7 +7021,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>23.0972268409275</v>
+        <v>7.178383083765944</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7148,7 +7030,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>24.41914253393847</v>
+        <v>7.562779793704861</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7157,7 +7039,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>26.05714588015934</v>
+        <v>7.76802261163713</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7166,7 +7048,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>22.10838209136245</v>
+        <v>6.506826381608851</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7175,7 +7057,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>23.87610737255185</v>
+        <v>3.217950381406864</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7184,7 +7066,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>25.7253207396517</v>
+        <v>6.572648296226944</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7193,7 +7075,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>23.03162267277341</v>
+        <v>4.607693338353621</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7202,7 +7084,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>3.117671148504347</v>
+        <v>5.899257889993956</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7211,7 +7093,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>23.9602776587623</v>
+        <v>5.293511876004017</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7220,7 +7102,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>24.41480134134283</v>
+        <v>3.662306825913247</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7229,7 +7111,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>25.60164313535833</v>
+        <v>3.940001194158046</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7238,7 +7120,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>24.10621921387461</v>
+        <v>3.199764528422296</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7247,7 +7129,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>24.88446949502935</v>
+        <v>5.627365964875153</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7256,7 +7138,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>24.07208866432406</v>
+        <v>6.039820612790035</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7265,7 +7147,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>26.81822896822276</v>
+        <v>5.900236892039202</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7274,7 +7156,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>25.31984711186093</v>
+        <v>8.17910314927073</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7283,7 +7165,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>25.67574510456437</v>
+        <v>7.663532479659686</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7292,7 +7174,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>25.81164808366268</v>
+        <v>6.63986661796211</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7301,7 +7183,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>26.74850811209246</v>
+        <v>7.550380375211989</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7310,7 +7192,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>27.05017406652773</v>
+        <v>10.53145708738549</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7319,7 +7201,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>26.71694934298493</v>
+        <v>10.610259097523</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7328,7 +7210,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>27.39231616056642</v>
+        <v>5.984762668176672</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7337,7 +7219,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>27.30968527412352</v>
+        <v>8.401994880753945</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7346,7 +7228,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>26.37233240608711</v>
+        <v>7.293372326661855</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7355,7 +7237,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>26.09993752339402</v>
+        <v>10.40272279787771</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7364,7 +7246,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>26.83802551966798</v>
+        <v>9.331116326628244</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7373,7 +7255,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>26.74332765677736</v>
+        <v>8.142193267352209</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7382,7 +7264,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>24.32020227800952</v>
+        <v>8.041968354048599</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7391,7 +7273,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>25.1440313010045</v>
+        <v>5.723903688928676</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7400,7 +7282,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>25.95719765829919</v>
+        <v>9.21340960296765</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7409,7 +7291,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>26.2111838506115</v>
+        <v>7.444910715666825</v>
       </c>
     </row>
     <row r="145">
@@ -7417,7 +7299,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>26.57940692022138</v>
+        <v>7.747594924384896</v>
       </c>
     </row>
     <row r="146">
@@ -7464,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-31.53637774321701</v>
+        <v>-30.23153578685629</v>
       </c>
     </row>
     <row r="3">
@@ -7472,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-31.8701326331396</v>
+        <v>-31.11880981701508</v>
       </c>
     </row>
     <row r="4">
@@ -7480,7 +7362,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-31.64955925049395</v>
+        <v>-31.59391884673162</v>
       </c>
     </row>
     <row r="5">
@@ -7488,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-31.87345431282956</v>
+        <v>-30.09695115005575</v>
       </c>
     </row>
     <row r="6">
@@ -7496,7 +7378,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-32.02985307215528</v>
+        <v>-30.15596620179087</v>
       </c>
     </row>
     <row r="7">
@@ -7504,7 +7386,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-31.35135604040176</v>
+        <v>-31.82751787847362</v>
       </c>
     </row>
     <row r="8">
@@ -7512,7 +7394,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-31.72935740456798</v>
+        <v>-29.78367816130612</v>
       </c>
     </row>
     <row r="9">
@@ -7520,7 +7402,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-32.38130681093483</v>
+        <v>-31.77769264687361</v>
       </c>
     </row>
     <row r="10">
@@ -7528,7 +7410,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-32.69511566808879</v>
+        <v>-32.47372993876189</v>
       </c>
     </row>
     <row r="11">
@@ -7536,7 +7418,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-31.87152300686894</v>
+        <v>-33.46218751546569</v>
       </c>
     </row>
     <row r="12">
@@ -7544,7 +7426,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-31.24779240749899</v>
+        <v>-33.41189184833188</v>
       </c>
     </row>
     <row r="13">
@@ -7552,7 +7434,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-32.17018341644394</v>
+        <v>-31.9851742567359</v>
       </c>
     </row>
     <row r="14">
@@ -7560,7 +7442,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-32.06183570680671</v>
+        <v>-29.53975261798519</v>
       </c>
     </row>
     <row r="15">
@@ -7568,7 +7450,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-32.73875144557125</v>
+        <v>-32.42044124447415</v>
       </c>
     </row>
     <row r="16">
@@ -7576,7 +7458,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-32.402729971448</v>
+        <v>-31.46737237369529</v>
       </c>
     </row>
     <row r="17">
@@ -7584,7 +7466,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-32.50588904735884</v>
+        <v>-30.33993889322202</v>
       </c>
     </row>
     <row r="18">
@@ -7592,7 +7474,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-32.26239907257991</v>
+        <v>-34.27827809289509</v>
       </c>
     </row>
     <row r="19">
@@ -7600,7 +7482,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-32.37390595615209</v>
+        <v>-36.07371178395316</v>
       </c>
     </row>
     <row r="20">
@@ -7608,7 +7490,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-32.45066729931937</v>
+        <v>-35.8909412261734</v>
       </c>
     </row>
     <row r="21">
@@ -7616,7 +7498,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-32.78869984459457</v>
+        <v>-35.8624834787001</v>
       </c>
     </row>
     <row r="22">
@@ -7624,7 +7506,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-32.49175690187938</v>
+        <v>-35.45791289588999</v>
       </c>
     </row>
     <row r="23">
@@ -7632,7 +7514,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-32.13482636332811</v>
+        <v>-32.76050655477629</v>
       </c>
     </row>
     <row r="24">
@@ -7640,7 +7522,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-33.27819928362617</v>
+        <v>-35.07389561228025</v>
       </c>
     </row>
     <row r="25">
@@ -7648,7 +7530,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-33.63038497659993</v>
+        <v>-33.85979320321338</v>
       </c>
     </row>
     <row r="26">
@@ -7656,7 +7538,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-34.12795722843315</v>
+        <v>-34.18100997605441</v>
       </c>
     </row>
     <row r="27">
@@ -7664,7 +7546,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-33.8795331010141</v>
+        <v>-36.87135006425134</v>
       </c>
     </row>
     <row r="28">
@@ -7672,7 +7554,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-33.37556509400872</v>
+        <v>-37.48358392579075</v>
       </c>
     </row>
     <row r="29">
@@ -7680,7 +7562,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-33.60503507563153</v>
+        <v>-38.85747304673552</v>
       </c>
     </row>
     <row r="30">
@@ -7688,7 +7570,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-34.38133758890493</v>
+        <v>-38.18483955143529</v>
       </c>
     </row>
     <row r="31">
@@ -7696,7 +7578,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-34.73390099324752</v>
+        <v>-38.65375261345608</v>
       </c>
     </row>
     <row r="32">
@@ -7704,7 +7586,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-34.13663200188918</v>
+        <v>-39.24944363075534</v>
       </c>
     </row>
     <row r="33">
@@ -7712,7 +7594,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-35.04614011673875</v>
+        <v>-39.11243475841884</v>
       </c>
     </row>
     <row r="34">
@@ -7720,7 +7602,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-35.77974702203284</v>
+        <v>-38.76387195609635</v>
       </c>
     </row>
     <row r="35">
@@ -7728,7 +7610,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-35.74294003588555</v>
+        <v>-37.87294836185693</v>
       </c>
     </row>
     <row r="36">
@@ -7736,7 +7618,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-35.99092505361587</v>
+        <v>-38.8608592588424</v>
       </c>
     </row>
     <row r="37">
@@ -7744,7 +7626,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-35.92402352588057</v>
+        <v>-38.64178910088599</v>
       </c>
     </row>
     <row r="38">
@@ -7752,7 +7634,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-35.33709635628523</v>
+        <v>-39.28993600928859</v>
       </c>
     </row>
     <row r="39">
@@ -7760,7 +7642,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-35.73849817643313</v>
+        <v>-39.49908245220631</v>
       </c>
     </row>
     <row r="40">
@@ -7768,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-35.20693465675176</v>
+        <v>-39.43217469947282</v>
       </c>
     </row>
     <row r="41">
@@ -7776,7 +7658,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-36.15982819938027</v>
+        <v>-38.87617656930224</v>
       </c>
     </row>
     <row r="42">
@@ -7784,7 +7666,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-36.20511390135215</v>
+        <v>-38.9392821857754</v>
       </c>
     </row>
     <row r="43">
@@ -7792,7 +7674,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-36.49200839284805</v>
+        <v>-39.72295556757621</v>
       </c>
     </row>
     <row r="44">
@@ -7800,7 +7682,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-36.08412032362503</v>
+        <v>-39.23934432618296</v>
       </c>
     </row>
     <row r="45">
@@ -7808,7 +7690,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-36.77191451013535</v>
+        <v>-39.5156021617578</v>
       </c>
     </row>
     <row r="46">
@@ -7816,7 +7698,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-36.67256619272392</v>
+        <v>-37.96235346569305</v>
       </c>
     </row>
     <row r="47">
@@ -7824,7 +7706,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-36.39997738792861</v>
+        <v>-39.04789346904059</v>
       </c>
     </row>
     <row r="48">
@@ -7832,7 +7714,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-36.60261479671402</v>
+        <v>-40.04940521424808</v>
       </c>
     </row>
     <row r="49">
@@ -7840,7 +7722,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-36.60787473807483</v>
+        <v>-39.85861003576001</v>
       </c>
     </row>
     <row r="50">
@@ -7848,7 +7730,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-36.78035959249426</v>
+        <v>-39.29270356136661</v>
       </c>
     </row>
     <row r="51">
@@ -7856,7 +7738,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-36.55966652040515</v>
+        <v>-39.54078634451373</v>
       </c>
     </row>
     <row r="52">
@@ -7864,7 +7746,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-36.09420528095693</v>
+        <v>-38.82186610511084</v>
       </c>
     </row>
     <row r="53">
@@ -7872,7 +7754,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-35.85156919661812</v>
+        <v>-39.44202873972206</v>
       </c>
     </row>
     <row r="54">
@@ -7880,7 +7762,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-35.53591281094351</v>
+        <v>-39.37074448347227</v>
       </c>
     </row>
     <row r="55">
@@ -7888,7 +7770,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-35.62722650786342</v>
+        <v>-38.76030015650821</v>
       </c>
     </row>
     <row r="56">
@@ -7896,7 +7778,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-35.56678849044415</v>
+        <v>-38.31242193400636</v>
       </c>
     </row>
     <row r="57">
@@ -7904,7 +7786,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-35.24878954311411</v>
+        <v>-39.29553738894445</v>
       </c>
     </row>
     <row r="58">
@@ -7912,7 +7794,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-35.40901056560415</v>
+        <v>-38.62577360085039</v>
       </c>
     </row>
     <row r="59">
@@ -7920,7 +7802,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-35.39103795372822</v>
+        <v>-38.66277796761126</v>
       </c>
     </row>
     <row r="60">
@@ -7928,7 +7810,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-34.61565118330743</v>
+        <v>-38.16138057140012</v>
       </c>
     </row>
     <row r="61">
@@ -7936,7 +7818,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-34.01033656522323</v>
+        <v>-37.63752026608844</v>
       </c>
     </row>
     <row r="62">
@@ -7944,7 +7826,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-34.78159831249026</v>
+        <v>-38.06963204936549</v>
       </c>
     </row>
     <row r="63">
@@ -7952,7 +7834,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-34.12007446792097</v>
+        <v>-38.05681335159534</v>
       </c>
     </row>
     <row r="64">
@@ -7960,7 +7842,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-34.36634258667731</v>
+        <v>-37.18422134715708</v>
       </c>
     </row>
     <row r="65">
@@ -7968,7 +7850,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-34.43544092729095</v>
+        <v>-37.20935313137417</v>
       </c>
     </row>
     <row r="66">
@@ -7976,7 +7858,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-33.89373556436191</v>
+        <v>-34.98298329293254</v>
       </c>
     </row>
     <row r="67">
@@ -7984,7 +7866,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-33.87400397063113</v>
+        <v>-34.61549666793874</v>
       </c>
     </row>
     <row r="68">
@@ -7992,7 +7874,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-34.08438008317245</v>
+        <v>-35.46092612888003</v>
       </c>
     </row>
     <row r="69">
@@ -8000,7 +7882,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-33.01448917177938</v>
+        <v>-34.05219379604698</v>
       </c>
     </row>
     <row r="70">
@@ -8008,7 +7890,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-33.03155432041115</v>
+        <v>-34.9995009527275</v>
       </c>
     </row>
     <row r="71">
@@ -8016,7 +7898,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-33.20956540745613</v>
+        <v>-34.26464703118829</v>
       </c>
     </row>
     <row r="72">
@@ -8024,7 +7906,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-32.82956957030508</v>
+        <v>-34.50533995000286</v>
       </c>
     </row>
     <row r="73">
@@ -8032,7 +7914,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-32.67563197447003</v>
+        <v>-34.53897101969502</v>
       </c>
     </row>
     <row r="74">
@@ -8040,7 +7922,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-32.80484633160471</v>
+        <v>-33.89559733669594</v>
       </c>
     </row>
     <row r="75">
@@ -8048,7 +7930,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-32.71254488421476</v>
+        <v>-33.61628732441065</v>
       </c>
     </row>
     <row r="76">
@@ -8056,7 +7938,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-32.97435844020105</v>
+        <v>-33.2894024656725</v>
       </c>
     </row>
     <row r="77">
@@ -8064,7 +7946,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-32.98254101619123</v>
+        <v>-34.38874818985659</v>
       </c>
     </row>
     <row r="78">
@@ -8072,7 +7954,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-32.72925487754258</v>
+        <v>-34.88802661954517</v>
       </c>
     </row>
     <row r="79">
@@ -8080,7 +7962,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-32.74190979348113</v>
+        <v>-34.02937039963181</v>
       </c>
     </row>
     <row r="80">
@@ -8088,7 +7970,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-33.05204349828853</v>
+        <v>-34.42578860401765</v>
       </c>
     </row>
     <row r="81">
@@ -8096,7 +7978,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-32.2471860442921</v>
+        <v>-31.71153285807893</v>
       </c>
     </row>
     <row r="82">
@@ -8104,7 +7986,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-32.41786560364844</v>
+        <v>-32.23636202749611</v>
       </c>
     </row>
     <row r="83">
@@ -8112,7 +7994,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-33.16937620189639</v>
+        <v>-32.00149017583676</v>
       </c>
     </row>
     <row r="84">
@@ -8120,7 +8002,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-32.87896625638028</v>
+        <v>-33.26140228732206</v>
       </c>
     </row>
     <row r="85">
@@ -8128,7 +8010,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-32.60147292085121</v>
+        <v>-35.2485544511518</v>
       </c>
     </row>
     <row r="86">
@@ -8136,7 +8018,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-33.14483268520219</v>
+        <v>-34.95197374255883</v>
       </c>
     </row>
     <row r="87">
@@ -8144,7 +8026,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-32.99274913606116</v>
+        <v>-34.02331402240699</v>
       </c>
     </row>
     <row r="88">
@@ -8152,7 +8034,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-32.5601197507004</v>
+        <v>-34.96167250829514</v>
       </c>
     </row>
     <row r="89">
@@ -8160,7 +8042,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-32.91039039089715</v>
+        <v>-34.45594915155508</v>
       </c>
     </row>
     <row r="90">
@@ -8168,7 +8050,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-33.02962898994763</v>
+        <v>-33.04268935578553</v>
       </c>
     </row>
     <row r="91">
@@ -8176,7 +8058,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-33.03816567710029</v>
+        <v>-37.95789883064967</v>
       </c>
     </row>
     <row r="92">
@@ -8184,7 +8066,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-32.7952763599217</v>
+        <v>-35.70244647453472</v>
       </c>
     </row>
     <row r="93">
@@ -8192,7 +8074,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-33.04678351760862</v>
+        <v>-34.99064295240509</v>
       </c>
     </row>
     <row r="94">
@@ -8200,7 +8082,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-33.21338745513697</v>
+        <v>-33.76892325313452</v>
       </c>
     </row>
     <row r="95">
@@ -8208,7 +8090,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-32.7613113282297</v>
+        <v>-33.3599581727207</v>
       </c>
     </row>
     <row r="96">
@@ -8216,7 +8098,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-32.55773428914113</v>
+        <v>-33.86510398227959</v>
       </c>
     </row>
     <row r="97">
@@ -8224,7 +8106,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-32.40676115155146</v>
+        <v>-34.00942599420598</v>
       </c>
     </row>
     <row r="98">
@@ -8232,7 +8114,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-32.89518656283355</v>
+        <v>-33.96161315496884</v>
       </c>
     </row>
     <row r="99">
@@ -8240,7 +8122,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-32.61860485532716</v>
+        <v>-33.24592207726314</v>
       </c>
     </row>
     <row r="100">
@@ -8248,7 +8130,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-32.72976208186507</v>
+        <v>-34.87850455518777</v>
       </c>
     </row>
     <row r="101">
@@ -8256,7 +8138,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-32.91666588234835</v>
+        <v>-33.92784563892613</v>
       </c>
     </row>
     <row r="102">
@@ -8264,7 +8146,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-32.88095435363537</v>
+        <v>-32.93808993220541</v>
       </c>
     </row>
     <row r="103">
@@ -8272,7 +8154,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-33.3407873050672</v>
+        <v>-33.57108236082746</v>
       </c>
     </row>
     <row r="104">
@@ -8280,7 +8162,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-33.38299725971179</v>
+        <v>-32.37850504481576</v>
       </c>
     </row>
     <row r="105">
@@ -8288,7 +8170,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-33.09279084181755</v>
+        <v>-33.41012905587991</v>
       </c>
     </row>
     <row r="106">
@@ -8296,7 +8178,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-32.92667100481666</v>
+        <v>-32.6888192078798</v>
       </c>
     </row>
     <row r="107">
@@ -8304,7 +8186,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-33.0887017126766</v>
+        <v>-32.72355908516774</v>
       </c>
     </row>
     <row r="108">
@@ -8312,7 +8194,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-33.77295230489037</v>
+        <v>-33.07064823288663</v>
       </c>
     </row>
     <row r="109">
@@ -8320,7 +8202,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-33.5021986932743</v>
+        <v>-35.89120133716088</v>
       </c>
     </row>
     <row r="110">
@@ -8328,7 +8210,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-33.32726178134802</v>
+        <v>-35.00049029797727</v>
       </c>
     </row>
     <row r="111">
@@ -8336,7 +8218,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-34.07416163926994</v>
+        <v>-35.84851902913067</v>
       </c>
     </row>
     <row r="112">
@@ -8344,7 +8226,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-34.53599355021374</v>
+        <v>-36.73977360365753</v>
       </c>
     </row>
     <row r="113">
@@ -8352,7 +8234,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-34.2719201466556</v>
+        <v>-36.74271277232371</v>
       </c>
     </row>
     <row r="114">
@@ -8360,7 +8242,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-34.35605083280551</v>
+        <v>-36.72554835179861</v>
       </c>
     </row>
     <row r="115">
@@ -8368,7 +8250,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-34.25353930823128</v>
+        <v>-36.3386138565651</v>
       </c>
     </row>
     <row r="116">
@@ -8376,7 +8258,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-34.67339643509862</v>
+        <v>-35.3204894420478</v>
       </c>
     </row>
     <row r="117">
@@ -8384,7 +8266,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-34.04038863079204</v>
+        <v>-36.03535895278024</v>
       </c>
     </row>
     <row r="118">
@@ -8392,7 +8274,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-33.98672571413451</v>
+        <v>-35.27499122301126</v>
       </c>
     </row>
     <row r="119">
@@ -8400,7 +8282,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-34.54661824966461</v>
+        <v>-35.08093299829116</v>
       </c>
     </row>
     <row r="120">
@@ -8408,7 +8290,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-35.08182953521885</v>
+        <v>-35.68393862310529</v>
       </c>
     </row>
     <row r="121">
@@ -8416,7 +8298,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-35.1615398603042</v>
+        <v>-35.12079693747904</v>
       </c>
     </row>
     <row r="122">
@@ -8424,7 +8306,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-34.28722382184652</v>
+        <v>-37.26776217529305</v>
       </c>
     </row>
     <row r="123">
@@ -8432,7 +8314,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-33.17938937891315</v>
+        <v>-37.20422867604739</v>
       </c>
     </row>
     <row r="124">
@@ -8440,7 +8322,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-33.32699257020676</v>
+        <v>-36.51947731216006</v>
       </c>
     </row>
     <row r="125">
@@ -8448,7 +8330,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-33.38516030564449</v>
+        <v>-37.31083659363548</v>
       </c>
     </row>
     <row r="126">
@@ -8456,7 +8338,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-32.8496386326208</v>
+        <v>-35.0439537124475</v>
       </c>
     </row>
     <row r="127">
@@ -8464,7 +8346,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-32.21661363314566</v>
+        <v>-35.89725511555691</v>
       </c>
     </row>
     <row r="128">
@@ -8472,7 +8354,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-32.83068361802928</v>
+        <v>-35.69076683772201</v>
       </c>
     </row>
     <row r="129">
@@ -8480,7 +8362,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-31.93779168691509</v>
+        <v>-34.4338811940794</v>
       </c>
     </row>
     <row r="130">
@@ -8488,7 +8370,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-31.6134399492113</v>
+        <v>-35.31998174638304</v>
       </c>
     </row>
     <row r="131">
@@ -8496,7 +8378,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-31.41874269471874</v>
+        <v>-35.21661379700335</v>
       </c>
     </row>
     <row r="132">
@@ -8504,7 +8386,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-31.36388052120111</v>
+        <v>-33.80337842877396</v>
       </c>
     </row>
     <row r="133">
@@ -8512,7 +8394,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-31.36186220440184</v>
+        <v>-32.83889046837622</v>
       </c>
     </row>
     <row r="134">
@@ -8520,7 +8402,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-31.54960425415311</v>
+        <v>-30.27507626415354</v>
       </c>
     </row>
     <row r="135">
@@ -8528,7 +8410,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-29.02982814840468</v>
+        <v>-32.46062797227576</v>
       </c>
     </row>
     <row r="136">
@@ -8536,7 +8418,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-30.8750412947664</v>
+        <v>-31.12317652303864</v>
       </c>
     </row>
     <row r="137">
@@ -8544,7 +8426,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-31.93758807332743</v>
+        <v>-30.40945629510033</v>
       </c>
     </row>
     <row r="138">
@@ -8552,7 +8434,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-28.83502793383968</v>
+        <v>-25.76738809491275</v>
       </c>
     </row>
     <row r="139">
@@ -8560,7 +8442,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-31.05859927170868</v>
+        <v>-30.41984016516732</v>
       </c>
     </row>
     <row r="140">
@@ -8568,7 +8450,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-30.95048383763029</v>
+        <v>-31.45926285110052</v>
       </c>
     </row>
     <row r="141">
@@ -8576,7 +8458,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-28.79015544973447</v>
+        <v>-30.52485885350056</v>
       </c>
     </row>
     <row r="142">
@@ -8584,7 +8466,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-28.7588218718118</v>
+        <v>-29.66401065017933</v>
       </c>
     </row>
     <row r="143">
@@ -8592,7 +8474,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-31.92963485511685</v>
+        <v>-31.43341859211518</v>
       </c>
     </row>
     <row r="144">
@@ -8600,7 +8482,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-30.78391804683829</v>
+        <v>-29.81457492164363</v>
       </c>
     </row>
     <row r="145">
@@ -8608,7 +8490,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-30.83402761015253</v>
+        <v>-26.18000858055833</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix5.xlsx
+++ b/testcases/timeseries/EVDay01_mix5.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015005969</v>
+        <v>2013006003</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1833,310 +1833,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2012008281</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>30</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2015007670</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>250</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2015007260</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>250</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2012010558</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>250</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2015005307</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" t="n">
-        <v>250</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2012001989</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>30</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2015003616</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>40</v>
-      </c>
-      <c r="G9" t="n">
-        <v>250</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2015004249</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>60</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2191,173 +1887,47 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2015005969</v>
+        <v>2013006003</v>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D2" t="n">
-        <v>20.16977079824407</v>
+        <v>47.32644749566239</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>59.99999999566242</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>2012008281</v>
-      </c>
-      <c r="B3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C3" t="n">
-        <v>117</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.73077231446735</v>
-      </c>
-      <c r="E3" t="n">
-        <v>29.99999999446736</v>
-      </c>
+      <c r="A3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2015007670</v>
-      </c>
-      <c r="B4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C4" t="n">
-        <v>112</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.43389226054121</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
+      <c r="A4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
-        <v>2015007260</v>
-      </c>
-      <c r="B5" t="n">
-        <v>22</v>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.83704702327788</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
+      <c r="A5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v>2015007260</v>
-      </c>
-      <c r="B6" t="n">
-        <v>46</v>
-      </c>
-      <c r="C6" t="n">
-        <v>114</v>
-      </c>
-      <c r="D6" t="n">
-        <v>74.22751679999998</v>
-      </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
+      <c r="A6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
-        <v>2012010558</v>
-      </c>
-      <c r="B7" t="n">
-        <v>34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>119</v>
-      </c>
-      <c r="D7" t="n">
-        <v>31.79236546054121</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40</v>
-      </c>
+      <c r="A7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v>2015005307</v>
-      </c>
-      <c r="B8" t="n">
-        <v>118</v>
-      </c>
-      <c r="C8" t="n">
-        <v>126</v>
-      </c>
-      <c r="D8" t="n">
-        <v>39.89056434054119</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40</v>
-      </c>
+      <c r="A8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
-        <v>2012001989</v>
-      </c>
-      <c r="B9" t="n">
-        <v>38</v>
-      </c>
-      <c r="C9" t="n">
-        <v>108</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.775</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29.99999999446736</v>
-      </c>
+      <c r="A9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>2015003616</v>
-      </c>
-      <c r="B10" t="n">
-        <v>42</v>
-      </c>
-      <c r="C10" t="n">
-        <v>117</v>
-      </c>
-      <c r="D10" t="n">
-        <v>35.07541906054121</v>
-      </c>
-      <c r="E10" t="n">
-        <v>40</v>
-      </c>
+      <c r="A10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>2015004249</v>
-      </c>
-      <c r="B11" t="n">
-        <v>56</v>
-      </c>
-      <c r="C11" t="n">
-        <v>115</v>
-      </c>
-      <c r="D11" t="n">
-        <v>35.20007059566241</v>
-      </c>
-      <c r="E11" t="n">
-        <v>59.84327007048122</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2888,7 +2458,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -2990,7 +2560,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -3007,7 +2577,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -3024,7 +2594,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -3398,7 +2968,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -6013,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>7.209776449338436</v>
+        <v>4.581490905888123</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6022,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>6.554944733715548</v>
+        <v>4.222474313845222</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6031,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>6.533464855700191</v>
+        <v>4.513621015458803</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6040,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>9.486333433095862</v>
+        <v>4.559719582491426</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6049,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>7.5094828543412</v>
+        <v>2.595499345968955</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6058,7 +5628,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>8.376364943006111</v>
+        <v>3.747710408432583</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6067,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>8.705712945829481</v>
+        <v>3.60352994152036</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6076,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>10.51393110527682</v>
+        <v>4.250095638407728</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6085,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>8.786943962642431</v>
+        <v>2.557991948450619</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6094,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>4.926929291663811</v>
+        <v>3.203084027958989</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6103,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>7.390096337875105</v>
+        <v>4.155183326723079</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6112,7 +5682,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>7.021486130311442</v>
+        <v>4.908215057906922</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6121,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>7.930907663054197</v>
+        <v>4.084345249425251</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6130,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>7.62610415479673</v>
+        <v>3.718457290105622</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6139,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>8.102734126341787</v>
+        <v>4.575638773795024</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6148,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>6.743243049426412</v>
+        <v>3.85361568171209</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6157,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4.809594478162289</v>
+        <v>4.143370167481598</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6166,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>4.145269259457015</v>
+        <v>3.915104091071848</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6175,7 +5745,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3.728943368518115</v>
+        <v>4.596249289969285</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6184,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>5.252380449925207</v>
+        <v>5.223181609127153</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6193,7 +5763,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6.236947251044609</v>
+        <v>4.999457509494881</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6202,7 +5772,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>7.715872287724836</v>
+        <v>4.531920673947906</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6211,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>5.497347255420938</v>
+        <v>2.283078301163371</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6220,7 +5790,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>6.285654881293755</v>
+        <v>1.915575807851849</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6229,7 +5799,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.331769280624226</v>
+        <v>1.070533148581278</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6238,7 +5808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.04309720766194</v>
+        <v>0</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6247,7 +5817,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>3.500698710001154</v>
+        <v>0.5736415891525232</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6256,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.821153771855541</v>
+        <v>0.4493355474345604</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6265,7 +5835,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.126402387490702</v>
+        <v>1.438493579190901</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6274,7 +5844,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.610695843844634</v>
+        <v>2.463059928381784</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6283,7 +5853,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.9880254663779066</v>
+        <v>2.247327985636983</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6292,7 +5862,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.113604762709247</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6301,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.307193822752</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6310,7 +5880,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.055352572021646</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6319,7 +5889,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.700652053673066</v>
+        <v>1.474790538525798</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6328,7 +5898,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.185310792760118</v>
+        <v>1.050260862485295</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6337,7 +5907,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>4.236908436399363</v>
+        <v>1.23908423225148</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6346,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.697327518368344</v>
+        <v>1.063472563426366</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6355,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.804327306399139</v>
+        <v>0.5605051396383819</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6364,7 +5934,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.917048300372369</v>
+        <v>0.09816861553642325</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6373,7 +5943,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.300243578674228</v>
+        <v>0.3755354812151022</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6382,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.7164847943922696</v>
+        <v>0.677357167655367</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6391,7 +5961,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.6015292930524416</v>
+        <v>0.9144508260687448</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6400,7 +5970,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.5134284035610687</v>
+        <v>1.047587309130303</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6409,7 +5979,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0.6007651185235835</v>
+        <v>0.7992098930354457</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6418,7 +5988,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.1338461113839006</v>
+        <v>0.4528777092774342</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6427,7 +5997,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.22023540610564</v>
+        <v>0.8486001113661948</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6436,7 +6006,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.5537915838713469</v>
+        <v>0.4833498119781178</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6445,7 +6015,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.09456262188398425</v>
+        <v>1.009976464813728</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6454,7 +6024,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.443454677298914</v>
+        <v>2.343471237028671</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6463,7 +6033,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.044143858831793</v>
+        <v>2.222693307790109</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6472,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.084198261706966</v>
+        <v>1.59341387084178</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6481,7 +6051,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.537845015805826</v>
+        <v>1.780419203505806</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6490,7 +6060,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.410984722924346</v>
+        <v>1.840448523918736</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6499,7 +6069,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.079184832681637</v>
+        <v>0.4917313136463251</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6508,7 +6078,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>1.304856017018762</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6517,7 +6087,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>2.869152823073124</v>
+        <v>1.707492013132948</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6526,7 +6096,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.093145834218051</v>
+        <v>1.35339094168179</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6535,7 +6105,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.767773427217842</v>
+        <v>3.029181198214591</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6544,7 +6114,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>4.053287381326525</v>
+        <v>2.699464358908054</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6553,7 +6123,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.850329824983382</v>
+        <v>2.907661286718228</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6562,7 +6132,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6.328071634672813</v>
+        <v>3.235460139854453</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6571,7 +6141,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>3.906427505352251</v>
+        <v>2.787222577057965</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6580,7 +6150,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.291756826596437</v>
+        <v>3.354176066327774</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6589,7 +6159,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>7.459031768520693</v>
+        <v>3.888677392378507</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6598,7 +6168,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>11.14359492094904</v>
+        <v>4.984505842678594</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6607,7 +6177,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>10.3887546092718</v>
+        <v>4.359207226707417</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6616,7 +6186,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>15.63035006970129</v>
+        <v>4.264710805024315</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6625,7 +6195,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>13.10206199418237</v>
+        <v>4.016594188349646</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6634,7 +6204,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>13.25359423717056</v>
+        <v>3.890615895460974</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6643,7 +6213,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>14.32134483979746</v>
+        <v>3.368241633813255</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6652,7 +6222,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>16.51232126790438</v>
+        <v>5.624548175164686</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6661,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>15.98200144023526</v>
+        <v>4.052080953864859</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6670,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>18.69408320815175</v>
+        <v>6.093543548702876</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6679,7 +6249,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>14.52877453069552</v>
+        <v>6.593708300377569</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6688,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>16.26242259024344</v>
+        <v>6.492588837054091</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6697,7 +6267,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>16.74786808277729</v>
+        <v>6.341054569469627</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6706,7 +6276,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>17.81632992980157</v>
+        <v>5.518939181112501</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6715,7 +6285,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>17.39882551471437</v>
+        <v>6.6045025908759</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6724,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>18.60433996859152</v>
+        <v>5.709065922440867</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6733,7 +6303,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>20.64586942126846</v>
+        <v>6.346365908475395</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6742,7 +6312,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>19.50265462195029</v>
+        <v>5.753220505418311</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6751,7 +6321,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>18.93429168840177</v>
+        <v>7.81046468148961</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6760,7 +6330,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>15.53389841123606</v>
+        <v>7.583467573396407</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6769,7 +6339,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>14.84035539328115</v>
+        <v>7.46667413743728</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6778,7 +6348,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>14.34396735880778</v>
+        <v>7.894786920483202</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6787,7 +6357,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>16.47572056534621</v>
+        <v>7.50498932080607</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6796,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>17.80695067057016</v>
+        <v>7.865600749307164</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6805,7 +6375,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>17.40463352039126</v>
+        <v>7.248027996934327</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6814,7 +6384,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>9.466023759904044</v>
+        <v>6.782948958065931</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6823,7 +6393,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>8.129486008498091</v>
+        <v>6.48394560868185</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6832,7 +6402,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>10.82646030293474</v>
+        <v>6.022044821203658</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6841,7 +6411,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>18.25467085105751</v>
+        <v>6.022674704564471</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6850,7 +6420,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>18.10919391130118</v>
+        <v>5.824223427545634</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6859,7 +6429,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>17.28528798535748</v>
+        <v>6.897908686909353</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6868,7 +6438,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>19.75687936509501</v>
+        <v>6.236606627898355</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6877,7 +6447,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>17.99627221312524</v>
+        <v>6.075308166420665</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6886,7 +6456,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>17.75788520064231</v>
+        <v>6.08582112250923</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6895,7 +6465,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>19.20328120021965</v>
+        <v>7.216655482186633</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6904,7 +6474,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>16.94461305749347</v>
+        <v>6.561662747620545</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6913,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>15.25058422785289</v>
+        <v>7.137484454692704</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6922,7 +6492,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>11.49459480401311</v>
+        <v>5.456455321648888</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6931,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>15.85294179050397</v>
+        <v>4.766948843970398</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6940,7 +6510,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>17.88817993960539</v>
+        <v>3.080808465108618</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6949,7 +6519,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>13.01956660104113</v>
+        <v>5.262055760768096</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6958,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>14.79363832223139</v>
+        <v>5.101156697517946</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6967,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>15.04849293605401</v>
+        <v>5.848137544818147</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6976,7 +6546,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>7.737055195727281</v>
+        <v>5.055171868581091</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6985,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>4.796559484573039</v>
+        <v>4.540389679577891</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6994,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>9.867217798247284</v>
+        <v>5.834815843372606</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7003,7 +6573,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>7.094070432950648</v>
+        <v>6.270757637862518</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7012,7 +6582,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>6.303369510584407</v>
+        <v>5.273634002705291</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7021,7 +6591,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>7.178383083765944</v>
+        <v>4.766267927018677</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7030,7 +6600,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>7.562779793704861</v>
+        <v>2.735509189620255</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7039,7 +6609,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>7.76802261163713</v>
+        <v>3.760439514911927</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7048,7 +6618,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>6.506826381608851</v>
+        <v>2.553664283131164</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7057,7 +6627,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>3.217950381406864</v>
+        <v>3.815037784434058</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7066,7 +6636,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>6.572648296226944</v>
+        <v>2.503271860701993</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7075,7 +6645,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>4.607693338353621</v>
+        <v>4.188249860100737</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7084,7 +6654,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>5.899257889993956</v>
+        <v>2.984357115658655</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7093,7 +6663,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>5.293511876004017</v>
+        <v>2.863720997423891</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7102,7 +6672,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>3.662306825913247</v>
+        <v>3.511660399678356</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7111,7 +6681,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>3.940001194158046</v>
+        <v>3.808429632336228</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7120,7 +6690,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>3.199764528422296</v>
+        <v>2.717055353007192</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7129,7 +6699,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>5.627365964875153</v>
+        <v>3.54391659814705</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7138,7 +6708,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>6.039820612790035</v>
+        <v>3.242931645878019</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7147,7 +6717,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>5.900236892039202</v>
+        <v>4.182690958977303</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7156,7 +6726,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>8.17910314927073</v>
+        <v>3.729388092525785</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7165,7 +6735,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>7.663532479659686</v>
+        <v>4.195880612597791</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7174,7 +6744,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>6.63986661796211</v>
+        <v>3.591470586524077</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7183,7 +6753,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>7.550380375211989</v>
+        <v>4.041960869520844</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7192,7 +6762,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>10.53145708738549</v>
+        <v>3.99997432386698</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7201,7 +6771,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>10.610259097523</v>
+        <v>3.789764175439746</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7210,7 +6780,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>5.984762668176672</v>
+        <v>3.412328613484018</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7219,7 +6789,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>8.401994880753945</v>
+        <v>3.98480871441727</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7228,7 +6798,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>7.293372326661855</v>
+        <v>3.87246065497447</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7237,7 +6807,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>10.40272279787771</v>
+        <v>3.511882190795962</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7246,7 +6816,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>9.331116326628244</v>
+        <v>3.946373343356345</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7255,7 +6825,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>8.142193267352209</v>
+        <v>3.424811005191156</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7264,7 +6834,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>8.041968354048599</v>
+        <v>3.175394121796641</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7273,7 +6843,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>5.723903688928676</v>
+        <v>4.403992434154348</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7282,7 +6852,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>9.21340960296765</v>
+        <v>2.322867302445967</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7291,7 +6861,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>7.444910715666825</v>
+        <v>4.119655906255399</v>
       </c>
     </row>
     <row r="145">
@@ -7299,7 +6869,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>7.747594924384896</v>
+        <v>5.046226968512575</v>
       </c>
     </row>
     <row r="146">
@@ -7346,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-30.23153578685629</v>
+        <v>-14.32629081054876</v>
       </c>
     </row>
     <row r="3">
@@ -7354,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-31.11880981701508</v>
+        <v>-13.93105607475876</v>
       </c>
     </row>
     <row r="4">
@@ -7362,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-31.59391884673162</v>
+        <v>-14.2408188620163</v>
       </c>
     </row>
     <row r="5">
@@ -7370,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-30.09695115005575</v>
+        <v>-14.60707360543927</v>
       </c>
     </row>
     <row r="6">
@@ -7378,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-30.15596620179087</v>
+        <v>-15.44582916257259</v>
       </c>
     </row>
     <row r="7">
@@ -7386,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-31.82751787847362</v>
+        <v>-15.71051989338943</v>
       </c>
     </row>
     <row r="8">
@@ -7394,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-29.78367816130612</v>
+        <v>-15.45740557102045</v>
       </c>
     </row>
     <row r="9">
@@ -7402,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-31.77769264687361</v>
+        <v>-15.64731200214278</v>
       </c>
     </row>
     <row r="10">
@@ -7410,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-32.47372993876189</v>
+        <v>-14.54317283711137</v>
       </c>
     </row>
     <row r="11">
@@ -7418,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-33.46218751546569</v>
+        <v>-15.88178519450955</v>
       </c>
     </row>
     <row r="12">
@@ -7426,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-33.41189184833188</v>
+        <v>-15.57657379933518</v>
       </c>
     </row>
     <row r="13">
@@ -7434,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-31.9851742567359</v>
+        <v>-15.41227877662859</v>
       </c>
     </row>
     <row r="14">
@@ -7442,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-29.53975261798519</v>
+        <v>-14.63647880308166</v>
       </c>
     </row>
     <row r="15">
@@ -7450,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-32.42044124447415</v>
+        <v>-14.73527789329177</v>
       </c>
     </row>
     <row r="16">
@@ -7458,7 +7028,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-31.46737237369529</v>
+        <v>-14.73887592941141</v>
       </c>
     </row>
     <row r="17">
@@ -7466,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-30.33993889322202</v>
+        <v>-14.73924786447084</v>
       </c>
     </row>
     <row r="18">
@@ -7474,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-34.27827809289509</v>
+        <v>-15.36272412453006</v>
       </c>
     </row>
     <row r="19">
@@ -7482,7 +7052,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-36.07371178395316</v>
+        <v>-16.01338010855688</v>
       </c>
     </row>
     <row r="20">
@@ -7490,7 +7060,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-35.8909412261734</v>
+        <v>-15.36492974806998</v>
       </c>
     </row>
     <row r="21">
@@ -7498,7 +7068,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-35.8624834787001</v>
+        <v>-16.05128585392094</v>
       </c>
     </row>
     <row r="22">
@@ -7506,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-35.45791289588999</v>
+        <v>-16.12008547017343</v>
       </c>
     </row>
     <row r="23">
@@ -7514,7 +7084,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-32.76050655477629</v>
+        <v>-16.01662190625292</v>
       </c>
     </row>
     <row r="24">
@@ -7522,7 +7092,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-35.07389561228025</v>
+        <v>-15.7742625087683</v>
       </c>
     </row>
     <row r="25">
@@ -7530,7 +7100,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-33.85979320321338</v>
+        <v>-16.58827509318318</v>
       </c>
     </row>
     <row r="26">
@@ -7538,7 +7108,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-34.18100997605441</v>
+        <v>-16.63551606903401</v>
       </c>
     </row>
     <row r="27">
@@ -7546,7 +7116,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-36.87135006425134</v>
+        <v>-17.28200079365861</v>
       </c>
     </row>
     <row r="28">
@@ -7554,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-37.48358392579075</v>
+        <v>-16.82065979440725</v>
       </c>
     </row>
     <row r="29">
@@ -7562,7 +7132,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-38.85747304673552</v>
+        <v>-16.85747539074514</v>
       </c>
     </row>
     <row r="30">
@@ -7570,7 +7140,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-38.18483955143529</v>
+        <v>-17.29277359991764</v>
       </c>
     </row>
     <row r="31">
@@ -7578,7 +7148,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-38.65375261345608</v>
+        <v>-16.89049277135703</v>
       </c>
     </row>
     <row r="32">
@@ -7586,7 +7156,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-39.24944363075534</v>
+        <v>-17.12931963968883</v>
       </c>
     </row>
     <row r="33">
@@ -7594,7 +7164,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-39.11243475841884</v>
+        <v>-17.2239638258048</v>
       </c>
     </row>
     <row r="34">
@@ -7602,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-38.76387195609635</v>
+        <v>-16.70607682091182</v>
       </c>
     </row>
     <row r="35">
@@ -7610,7 +7180,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-37.87294836185693</v>
+        <v>-17.39399287722991</v>
       </c>
     </row>
     <row r="36">
@@ -7618,7 +7188,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-38.8608592588424</v>
+        <v>-17.00881115527056</v>
       </c>
     </row>
     <row r="37">
@@ -7626,7 +7196,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-38.64178910088599</v>
+        <v>-17.11092231315315</v>
       </c>
     </row>
     <row r="38">
@@ -7634,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-39.28993600928859</v>
+        <v>-17.02076224079843</v>
       </c>
     </row>
     <row r="39">
@@ -7642,7 +7212,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-39.49908245220631</v>
+        <v>-17.63537034003309</v>
       </c>
     </row>
     <row r="40">
@@ -7650,7 +7220,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-39.43217469947282</v>
+        <v>-17.00480539339943</v>
       </c>
     </row>
     <row r="41">
@@ -7658,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-38.87617656930224</v>
+        <v>-17.18956278757805</v>
       </c>
     </row>
     <row r="42">
@@ -7666,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-38.9392821857754</v>
+        <v>-17.17182060739723</v>
       </c>
     </row>
     <row r="43">
@@ -7674,7 +7244,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-39.72295556757621</v>
+        <v>-17.80376380146527</v>
       </c>
     </row>
     <row r="44">
@@ -7682,7 +7252,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-39.23934432618296</v>
+        <v>-17.48262950229009</v>
       </c>
     </row>
     <row r="45">
@@ -7690,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-39.5156021617578</v>
+        <v>-17.6863660642305</v>
       </c>
     </row>
     <row r="46">
@@ -7698,7 +7268,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-37.96235346569305</v>
+        <v>-17.36480731099208</v>
       </c>
     </row>
     <row r="47">
@@ -7706,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-39.04789346904059</v>
+        <v>-17.47840529800425</v>
       </c>
     </row>
     <row r="48">
@@ -7714,7 +7284,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-40.04940521424808</v>
+        <v>-17.30329920589218</v>
       </c>
     </row>
     <row r="49">
@@ -7722,7 +7292,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-39.85861003576001</v>
+        <v>-17.75944238507898</v>
       </c>
     </row>
     <row r="50">
@@ -7730,7 +7300,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-39.29270356136661</v>
+        <v>-16.85182451484022</v>
       </c>
     </row>
     <row r="51">
@@ -7738,7 +7308,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-39.54078634451373</v>
+        <v>-17.26352599233383</v>
       </c>
     </row>
     <row r="52">
@@ -7746,7 +7316,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-38.82186610511084</v>
+        <v>-17.35454041180851</v>
       </c>
     </row>
     <row r="53">
@@ -7754,7 +7324,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-39.44202873972206</v>
+        <v>-17.12440641909137</v>
       </c>
     </row>
     <row r="54">
@@ -7762,7 +7332,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-39.37074448347227</v>
+        <v>-16.95383646468172</v>
       </c>
     </row>
     <row r="55">
@@ -7770,7 +7340,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-38.76030015650821</v>
+        <v>-16.89268549591587</v>
       </c>
     </row>
     <row r="56">
@@ -7778,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-38.31242193400636</v>
+        <v>-17.61449730210179</v>
       </c>
     </row>
     <row r="57">
@@ -7786,7 +7356,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-39.29553738894445</v>
+        <v>-16.89242327523982</v>
       </c>
     </row>
     <row r="58">
@@ -7794,7 +7364,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-38.62577360085039</v>
+        <v>-16.99653909076914</v>
       </c>
     </row>
     <row r="59">
@@ -7802,7 +7372,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-38.66277796761126</v>
+        <v>-17.00405626366802</v>
       </c>
     </row>
     <row r="60">
@@ -7810,7 +7380,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-38.16138057140012</v>
+        <v>-17.02082000885851</v>
       </c>
     </row>
     <row r="61">
@@ -7818,7 +7388,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-37.63752026608844</v>
+        <v>-16.84653655291396</v>
       </c>
     </row>
     <row r="62">
@@ -7826,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-38.06963204936549</v>
+        <v>-16.94419627275122</v>
       </c>
     </row>
     <row r="63">
@@ -7834,7 +7404,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-38.05681335159534</v>
+        <v>-16.88361264162911</v>
       </c>
     </row>
     <row r="64">
@@ -7842,7 +7412,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-37.18422134715708</v>
+        <v>-16.86473255073592</v>
       </c>
     </row>
     <row r="65">
@@ -7850,7 +7420,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-37.20935313137417</v>
+        <v>-17.007657498404</v>
       </c>
     </row>
     <row r="66">
@@ -7858,7 +7428,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-34.98298329293254</v>
+        <v>-16.51906961945483</v>
       </c>
     </row>
     <row r="67">
@@ -7866,7 +7436,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-34.61549666793874</v>
+        <v>-16.83575913035111</v>
       </c>
     </row>
     <row r="68">
@@ -7874,7 +7444,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-35.46092612888003</v>
+        <v>-16.58945047330356</v>
       </c>
     </row>
     <row r="69">
@@ -7882,7 +7452,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-34.05219379604698</v>
+        <v>-16.25398101219909</v>
       </c>
     </row>
     <row r="70">
@@ -7890,7 +7460,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-34.9995009527275</v>
+        <v>-16.27445771360009</v>
       </c>
     </row>
     <row r="71">
@@ -7898,7 +7468,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-34.26464703118829</v>
+        <v>-16.16219645284816</v>
       </c>
     </row>
     <row r="72">
@@ -7906,7 +7476,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-34.50533995000286</v>
+        <v>-16.08992686878068</v>
       </c>
     </row>
     <row r="73">
@@ -7914,7 +7484,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-34.53897101969502</v>
+        <v>-16.13548151049022</v>
       </c>
     </row>
     <row r="74">
@@ -7922,7 +7492,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-33.89559733669594</v>
+        <v>-16.14309365740652</v>
       </c>
     </row>
     <row r="75">
@@ -7930,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-33.61628732441065</v>
+        <v>-15.92479961549929</v>
       </c>
     </row>
     <row r="76">
@@ -7938,7 +7508,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-33.2894024656725</v>
+        <v>-15.89818005341816</v>
       </c>
     </row>
     <row r="77">
@@ -7946,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-34.38874818985659</v>
+        <v>-15.90757060228081</v>
       </c>
     </row>
     <row r="78">
@@ -7954,7 +7524,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-34.88802661954517</v>
+        <v>-15.8392198603473</v>
       </c>
     </row>
     <row r="79">
@@ -7962,7 +7532,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-34.02937039963181</v>
+        <v>-15.86003794315556</v>
       </c>
     </row>
     <row r="80">
@@ -7970,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-34.42578860401765</v>
+        <v>-15.8761673668026</v>
       </c>
     </row>
     <row r="81">
@@ -7978,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-31.71153285807893</v>
+        <v>-15.75759288378079</v>
       </c>
     </row>
     <row r="82">
@@ -7986,7 +7556,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-32.23636202749611</v>
+        <v>-15.74691226145243</v>
       </c>
     </row>
     <row r="83">
@@ -7994,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-32.00149017583676</v>
+        <v>-15.74261408606073</v>
       </c>
     </row>
     <row r="84">
@@ -8002,7 +7572,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-33.26140228732206</v>
+        <v>-15.73129195158928</v>
       </c>
     </row>
     <row r="85">
@@ -8010,7 +7580,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-35.2485544511518</v>
+        <v>-15.78763845052469</v>
       </c>
     </row>
     <row r="86">
@@ -8018,7 +7588,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-34.95197374255883</v>
+        <v>-15.72759144127005</v>
       </c>
     </row>
     <row r="87">
@@ -8026,7 +7596,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-34.02331402240699</v>
+        <v>-15.72514307803256</v>
       </c>
     </row>
     <row r="88">
@@ -8034,7 +7604,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-34.96167250829514</v>
+        <v>-15.77681536600809</v>
       </c>
     </row>
     <row r="89">
@@ -8042,7 +7612,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-34.45594915155508</v>
+        <v>-15.75011475363249</v>
       </c>
     </row>
     <row r="90">
@@ -8050,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-33.04268935578553</v>
+        <v>-15.67417465815497</v>
       </c>
     </row>
     <row r="91">
@@ -8058,7 +7628,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-37.95789883064967</v>
+        <v>-15.97058284485822</v>
       </c>
     </row>
     <row r="92">
@@ -8066,7 +7636,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-35.70244647453472</v>
+        <v>-16.31438020882262</v>
       </c>
     </row>
     <row r="93">
@@ -8074,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-34.99064295240509</v>
+        <v>-15.84587383624564</v>
       </c>
     </row>
     <row r="94">
@@ -8082,7 +7652,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-33.76892325313452</v>
+        <v>-15.84324027391611</v>
       </c>
     </row>
     <row r="95">
@@ -8090,7 +7660,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-33.3599581727207</v>
+        <v>-16.41679437480384</v>
       </c>
     </row>
     <row r="96">
@@ -8098,7 +7668,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-33.86510398227959</v>
+        <v>-15.78815674335181</v>
       </c>
     </row>
     <row r="97">
@@ -8106,7 +7676,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-34.00942599420598</v>
+        <v>-15.72006862416501</v>
       </c>
     </row>
     <row r="98">
@@ -8114,7 +7684,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-33.96161315496884</v>
+        <v>-15.67684365571185</v>
       </c>
     </row>
     <row r="99">
@@ -8122,7 +7692,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-33.24592207726314</v>
+        <v>-15.68274892450428</v>
       </c>
     </row>
     <row r="100">
@@ -8130,7 +7700,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-34.87850455518777</v>
+        <v>-15.70394211685922</v>
       </c>
     </row>
     <row r="101">
@@ -8138,7 +7708,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-33.92784563892613</v>
+        <v>-15.66457187890395</v>
       </c>
     </row>
     <row r="102">
@@ -8146,7 +7716,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-32.93808993220541</v>
+        <v>-15.70789557554767</v>
       </c>
     </row>
     <row r="103">
@@ -8154,7 +7724,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-33.57108236082746</v>
+        <v>-16.19739680222003</v>
       </c>
     </row>
     <row r="104">
@@ -8162,7 +7732,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-32.37850504481576</v>
+        <v>-16.82467909161743</v>
       </c>
     </row>
     <row r="105">
@@ -8170,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-33.41012905587991</v>
+        <v>-16.56531853301931</v>
       </c>
     </row>
     <row r="106">
@@ -8178,7 +7748,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-32.6888192078798</v>
+        <v>-16.31883648463384</v>
       </c>
     </row>
     <row r="107">
@@ -8186,7 +7756,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-32.72355908516774</v>
+        <v>-15.71211145920755</v>
       </c>
     </row>
     <row r="108">
@@ -8194,7 +7764,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-33.07064823288663</v>
+        <v>-15.65138653852024</v>
       </c>
     </row>
     <row r="109">
@@ -8202,7 +7772,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-35.89120133716088</v>
+        <v>-16.24726880053396</v>
       </c>
     </row>
     <row r="110">
@@ -8210,7 +7780,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-35.00049029797727</v>
+        <v>-16.20246858471797</v>
       </c>
     </row>
     <row r="111">
@@ -8218,7 +7788,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-35.84851902913067</v>
+        <v>-16.23399581401814</v>
       </c>
     </row>
     <row r="112">
@@ -8226,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-36.73977360365753</v>
+        <v>-15.95428865844315</v>
       </c>
     </row>
     <row r="113">
@@ -8234,7 +7804,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-36.74271277232371</v>
+        <v>-16.24068503274293</v>
       </c>
     </row>
     <row r="114">
@@ -8242,7 +7812,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-36.72554835179861</v>
+        <v>-16.15678873760736</v>
       </c>
     </row>
     <row r="115">
@@ -8250,7 +7820,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-36.3386138565651</v>
+        <v>-16.09193212917754</v>
       </c>
     </row>
     <row r="116">
@@ -8258,7 +7828,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-35.3204894420478</v>
+        <v>-16.22299471043619</v>
       </c>
     </row>
     <row r="117">
@@ -8266,7 +7836,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-36.03535895278024</v>
+        <v>-16.42100117728762</v>
       </c>
     </row>
     <row r="118">
@@ -8274,7 +7844,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-35.27499122301126</v>
+        <v>-16.30468835472923</v>
       </c>
     </row>
     <row r="119">
@@ -8282,7 +7852,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-35.08093299829116</v>
+        <v>-16.60948635044905</v>
       </c>
     </row>
     <row r="120">
@@ -8290,7 +7860,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-35.68393862310529</v>
+        <v>-16.31865511232893</v>
       </c>
     </row>
     <row r="121">
@@ -8298,7 +7868,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-35.12079693747904</v>
+        <v>-16.42955614931172</v>
       </c>
     </row>
     <row r="122">
@@ -8306,7 +7876,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-37.26776217529305</v>
+        <v>-16.36241613623569</v>
       </c>
     </row>
     <row r="123">
@@ -8314,7 +7884,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-37.20422867604739</v>
+        <v>-16.03930475899848</v>
       </c>
     </row>
     <row r="124">
@@ -8322,7 +7892,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-36.51947731216006</v>
+        <v>-16.05138767809604</v>
       </c>
     </row>
     <row r="125">
@@ -8330,7 +7900,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-37.31083659363548</v>
+        <v>-16.5642344799628</v>
       </c>
     </row>
     <row r="126">
@@ -8338,7 +7908,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-35.0439537124475</v>
+        <v>-16.15567661985116</v>
       </c>
     </row>
     <row r="127">
@@ -8346,7 +7916,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-35.89725511555691</v>
+        <v>-16.30946733201666</v>
       </c>
     </row>
     <row r="128">
@@ -8354,7 +7924,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-35.69076683772201</v>
+        <v>-16.17381337532201</v>
       </c>
     </row>
     <row r="129">
@@ -8362,7 +7932,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-34.4338811940794</v>
+        <v>-16.53196168777539</v>
       </c>
     </row>
     <row r="130">
@@ -8370,7 +7940,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-35.31998174638304</v>
+        <v>-16.0867734842863</v>
       </c>
     </row>
     <row r="131">
@@ -8378,7 +7948,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-35.21661379700335</v>
+        <v>-15.49098801901729</v>
       </c>
     </row>
     <row r="132">
@@ -8386,7 +7956,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-33.80337842877396</v>
+        <v>-15.9376288585503</v>
       </c>
     </row>
     <row r="133">
@@ -8394,7 +7964,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-32.83889046837622</v>
+        <v>-16.12012069103547</v>
       </c>
     </row>
     <row r="134">
@@ -8402,7 +7972,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-30.27507626415354</v>
+        <v>-15.52486944938661</v>
       </c>
     </row>
     <row r="135">
@@ -8410,7 +7980,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-32.46062797227576</v>
+        <v>-16.07008456127253</v>
       </c>
     </row>
     <row r="136">
@@ -8418,7 +7988,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-31.12317652303864</v>
+        <v>-15.87074641056213</v>
       </c>
     </row>
     <row r="137">
@@ -8426,7 +7996,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-30.40945629510033</v>
+        <v>-15.78295756439336</v>
       </c>
     </row>
     <row r="138">
@@ -8434,7 +8004,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-25.76738809491275</v>
+        <v>-16.0230800125397</v>
       </c>
     </row>
     <row r="139">
@@ -8442,7 +8012,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-30.41984016516732</v>
+        <v>-14.36782583320839</v>
       </c>
     </row>
     <row r="140">
@@ -8450,7 +8020,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-31.45926285110052</v>
+        <v>-16.00466660361495</v>
       </c>
     </row>
     <row r="141">
@@ -8458,7 +8028,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-30.52485885350056</v>
+        <v>-14.28455231019509</v>
       </c>
     </row>
     <row r="142">
@@ -8466,7 +8036,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-29.66401065017933</v>
+        <v>-15.44899921553887</v>
       </c>
     </row>
     <row r="143">
@@ -8474,7 +8044,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-31.43341859211518</v>
+        <v>-14.45638203186805</v>
       </c>
     </row>
     <row r="144">
@@ -8482,7 +8052,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-29.81457492164363</v>
+        <v>-15.58856852596914</v>
       </c>
     </row>
     <row r="145">
@@ -8490,7 +8060,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-26.18000858055833</v>
+        <v>-14.35853175000266</v>
       </c>
     </row>
     <row r="146">
